--- a/Wastewater_Effluent_Filtration/Water_Salt_Transport_2.xlsx
+++ b/Wastewater_Effluent_Filtration/Water_Salt_Transport_2.xlsx
@@ -85,7 +85,7 @@
     <t>SI_Armp_CaPhosphate</t>
   </si>
   <si>
-    <t>NH4+ Permeability</t>
+    <t>d_CaPhosphate</t>
   </si>
 </sst>
 </file>
@@ -502,73 +502,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.012476516526761E-08</v>
+        <v>5.758951297320809E-06</v>
       </c>
       <c r="C2">
-        <v>10.0278764334675</v>
+        <v>0.02738632421839857</v>
       </c>
       <c r="D2">
-        <v>9.526377062464842</v>
+        <v>0.001810027689849326</v>
       </c>
       <c r="E2">
-        <v>10.02798904901088</v>
+        <v>0.02908334352617682</v>
       </c>
       <c r="F2">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="G2">
-        <v>0.07902239347428303</v>
+        <v>20.05069407099519</v>
       </c>
       <c r="H2">
-        <v>0.1009173740745851</v>
+        <v>20.90813421936225</v>
       </c>
       <c r="I2">
-        <v>0.1271180046432367</v>
+        <v>21.75978270921425</v>
       </c>
       <c r="J2">
-        <v>0.1748823323671994</v>
+        <v>26.51165894605352</v>
       </c>
       <c r="K2">
-        <v>7.176833508725559</v>
+        <v>8.300048474183404</v>
       </c>
       <c r="L2">
-        <v>8.419261645452552</v>
+        <v>8.688544214984713</v>
       </c>
       <c r="M2">
-        <v>8.30776196641037</v>
+        <v>8.292350974255157</v>
       </c>
       <c r="N2">
-        <v>0.001302852553622332</v>
+        <v>0.008497739640337641</v>
       </c>
       <c r="O2">
-        <v>0.0003875956706171257</v>
+        <v>0.0007653733883125637</v>
       </c>
       <c r="P2">
-        <v>0.0001667666065240576</v>
+        <v>0.008175074891992491</v>
       </c>
       <c r="Q2">
-        <v>0.0001553099507065404</v>
+        <v>0.0006091925218977189</v>
       </c>
       <c r="R2">
-        <v>0.000872382865701451</v>
+        <v>3.23170610258924E-06</v>
       </c>
       <c r="S2">
-        <v>3.044888046203231E-05</v>
+        <v>9.153298830535803E-09</v>
       </c>
       <c r="T2">
-        <v>0.002543635338999381</v>
+        <v>0.002608472256163214</v>
       </c>
       <c r="U2">
-        <v>0.002526890129905103</v>
+        <v>0.0006562868353083637</v>
       </c>
       <c r="V2">
-        <v>35.40425761010039</v>
+        <v>9.195234849505484</v>
       </c>
       <c r="W2">
-        <v>0.0002138547247812193</v>
+        <v>-1.473212235824992</v>
       </c>
       <c r="X2">
-        <v>1.641158324563722E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -576,61 +576,61 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.02179466864726E-08</v>
+        <v>5.752663180571566E-06</v>
       </c>
       <c r="C3">
-        <v>10.03294208367965</v>
+        <v>0.02764467064797987</v>
       </c>
       <c r="D3">
-        <v>9.528984313265804</v>
+        <v>0.001829816201761923</v>
       </c>
       <c r="E3">
-        <v>10.03305678009428</v>
+        <v>0.02937119843904379</v>
       </c>
       <c r="F3">
-        <v>6.499985236928875</v>
+        <v>6.899985241785025</v>
       </c>
       <c r="K3">
-        <v>7.169765374784143</v>
+        <v>8.298782643807783</v>
       </c>
       <c r="L3">
-        <v>8.417716227400099</v>
+        <v>8.691676164588012</v>
       </c>
       <c r="M3">
-        <v>8.309328972343266</v>
+        <v>8.294271458819379</v>
       </c>
       <c r="N3">
-        <v>0.001312097572642586</v>
+        <v>0.008575844349954056</v>
       </c>
       <c r="O3">
-        <v>0.0003872403786265325</v>
+        <v>0.0007735012472416815</v>
       </c>
       <c r="P3">
-        <v>0.0001668823303201942</v>
+        <v>0.008251497946235873</v>
       </c>
       <c r="Q3">
-        <v>0.0001553847393492239</v>
+        <v>0.0006149401233073708</v>
       </c>
       <c r="R3">
-        <v>0.0008808872493907381</v>
+        <v>3.264257141011045E-06</v>
       </c>
       <c r="S3">
-        <v>3.061025165853242E-05</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.002543804482525586</v>
+        <v>0.002628191300818313</v>
       </c>
       <c r="U3">
-        <v>0.002526961370517876</v>
+        <v>0.0006625315845723849</v>
       </c>
       <c r="V3">
-        <v>35.40475668621318</v>
+        <v>9.238982440474583</v>
       </c>
       <c r="W3">
-        <v>0.0002160375804387649</v>
+        <v>-1.460099824629253</v>
       </c>
       <c r="X3">
-        <v>1.641511731260793E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -638,61 +638,61 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.028283478129822E-08</v>
+        <v>5.746723436529355E-06</v>
       </c>
       <c r="C4">
-        <v>10.03808450990836</v>
+        <v>0.02790808753008414</v>
       </c>
       <c r="D4">
-        <v>9.532333049679528</v>
+        <v>0.001849916079396594</v>
       </c>
       <c r="E4">
-        <v>10.03820101495153</v>
+        <v>0.0296650811476355</v>
       </c>
       <c r="F4">
-        <v>6.499970398548582</v>
+        <v>6.899970408385139</v>
       </c>
       <c r="K4">
-        <v>7.162654370396891</v>
+        <v>8.297489924874347</v>
       </c>
       <c r="L4">
-        <v>8.418119393461925</v>
+        <v>8.68820804990599</v>
       </c>
       <c r="M4">
-        <v>8.310205141231492</v>
+        <v>8.29299792340208</v>
       </c>
       <c r="N4">
-        <v>0.001321534890948873</v>
+        <v>0.008655460095900101</v>
       </c>
       <c r="O4">
-        <v>0.0003877539720691235</v>
+        <v>0.0007804140000077506</v>
       </c>
       <c r="P4">
-        <v>0.0001669996526770408</v>
+        <v>0.00832942200565351</v>
       </c>
       <c r="Q4">
-        <v>0.000155467216974484</v>
+        <v>0.0006217419854971208</v>
       </c>
       <c r="R4">
-        <v>0.0008895635452859646</v>
+        <v>3.297565887347893E-06</v>
       </c>
       <c r="S4">
-        <v>3.08458308263054E-05</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.00254397635101546</v>
+        <v>0.002648249053024904</v>
       </c>
       <c r="U4">
-        <v>0.002527055902174127</v>
+        <v>0.0006674944632139644</v>
       </c>
       <c r="V4">
-        <v>35.40536453926268</v>
+        <v>9.276743268346673</v>
       </c>
       <c r="W4">
-        <v>0.0002182674881781667</v>
+        <v>-1.446874874620654</v>
       </c>
       <c r="X4">
-        <v>1.641867281480155E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -700,61 +700,61 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.034855536705379E-08</v>
+        <v>5.74066352761524E-06</v>
       </c>
       <c r="C5">
-        <v>10.04329844248804</v>
+        <v>0.02817672847287473</v>
       </c>
       <c r="D5">
-        <v>9.535728922741901</v>
+        <v>0.001870470021858596</v>
       </c>
       <c r="E5">
-        <v>10.04341680330085</v>
+        <v>0.02996502531746646</v>
       </c>
       <c r="F5">
-        <v>6.499955483403649</v>
+        <v>6.899955498349214</v>
       </c>
       <c r="K5">
-        <v>7.155491928198088</v>
+        <v>8.2961894376802</v>
       </c>
       <c r="L5">
-        <v>8.41852422975553</v>
+        <v>8.684665323227218</v>
       </c>
       <c r="M5">
-        <v>8.311095510278546</v>
+        <v>8.291716824480224</v>
       </c>
       <c r="N5">
-        <v>0.001331161498360004</v>
+        <v>0.008736646138125794</v>
       </c>
       <c r="O5">
-        <v>0.0003882736817027606</v>
+        <v>0.0007874624051418389</v>
       </c>
       <c r="P5">
-        <v>0.0001671185437667579</v>
+        <v>0.00840888262441801</v>
       </c>
       <c r="Q5">
-        <v>0.0001555507168151875</v>
+        <v>0.0006286903404491216</v>
       </c>
       <c r="R5">
-        <v>0.0008984163052288477</v>
+        <v>3.331561411959726E-06</v>
       </c>
       <c r="S5">
-        <v>3.108534086823165E-05</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.002544150788632381</v>
+        <v>0.002668669203435326</v>
       </c>
       <c r="U5">
-        <v>0.00252715148308678</v>
+        <v>0.000672556087679565</v>
       </c>
       <c r="V5">
-        <v>35.40600326182923</v>
+        <v>9.313353287379602</v>
       </c>
       <c r="W5">
-        <v>0.0002205439154561799</v>
+        <v>-1.433523787614316</v>
       </c>
       <c r="X5">
-        <v>1.642225403590096E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -762,61 +762,61 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.041512331249067E-08</v>
+        <v>5.734479754488431E-06</v>
       </c>
       <c r="C6">
-        <v>10.0485856249854</v>
+        <v>0.02845075199840615</v>
       </c>
       <c r="D6">
-        <v>9.539173192768935</v>
+        <v>0.00189149359646639</v>
       </c>
       <c r="E6">
-        <v>10.04870589038689</v>
+        <v>0.03027122079343401</v>
       </c>
       <c r="F6">
-        <v>6.499940489993135</v>
+        <v>6.899940510180825</v>
       </c>
       <c r="K6">
-        <v>7.148278982033106</v>
+        <v>8.294882847158979</v>
       </c>
       <c r="L6">
-        <v>8.41893900207436</v>
+        <v>8.681080140610321</v>
       </c>
       <c r="M6">
-        <v>8.312002139491792</v>
+        <v>8.290431548613826</v>
       </c>
       <c r="N6">
-        <v>0.001340983246450184</v>
+        <v>0.008819450135344378</v>
       </c>
       <c r="O6">
-        <v>0.0003888032307160089</v>
+        <v>0.0007946665625567075</v>
       </c>
       <c r="P6">
-        <v>0.0001672390419641701</v>
+        <v>0.008489926294042686</v>
       </c>
       <c r="Q6">
-        <v>0.0001556354101839344</v>
+        <v>0.0006357946242892912</v>
       </c>
       <c r="R6">
-        <v>0.0009074510027742709</v>
+        <v>3.36626517666764E-06</v>
       </c>
       <c r="S6">
-        <v>3.132877304020792E-05</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.002544327864731815</v>
+        <v>0.002689462048391115</v>
       </c>
       <c r="U6">
-        <v>0.00252724816135675</v>
+        <v>0.0006777212173474603</v>
       </c>
       <c r="V6">
-        <v>35.40665740721727</v>
+        <v>9.349793025154735</v>
       </c>
       <c r="W6">
-        <v>0.000222868478313632</v>
+        <v>-1.420040521440136</v>
       </c>
       <c r="X6">
-        <v>1.642586050898345E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -824,61 +824,61 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.048256688869799E-08</v>
+        <v>5.728168258094103E-06</v>
       </c>
       <c r="C7">
-        <v>10.05394786111399</v>
+        <v>0.0287303231394792</v>
       </c>
       <c r="D7">
-        <v>9.542666857830842</v>
+        <v>0.001913003090379766</v>
       </c>
       <c r="E7">
-        <v>10.05407008182896</v>
+        <v>0.03058386541363802</v>
       </c>
       <c r="F7">
-        <v>6.499925416768648</v>
+        <v>6.899925442336344</v>
       </c>
       <c r="K7">
-        <v>7.141011714424064</v>
+        <v>8.293569053784438</v>
       </c>
       <c r="L7">
-        <v>8.419359673090607</v>
+        <v>8.677445205462542</v>
       </c>
       <c r="M7">
-        <v>8.312921729600353</v>
+        <v>8.289139201376202</v>
       </c>
       <c r="N7">
-        <v>0.001351006193984228</v>
+        <v>0.008903921541373722</v>
       </c>
       <c r="O7">
-        <v>0.0003893412037158149</v>
+        <v>0.0008020299524484219</v>
       </c>
       <c r="P7">
-        <v>0.0001673611854565936</v>
+        <v>0.008572601364250615</v>
       </c>
       <c r="Q7">
-        <v>0.0001557213015214142</v>
+        <v>0.0006430606346972364</v>
       </c>
       <c r="R7">
-        <v>0.0009166733420346295</v>
+        <v>3.401699546948352E-06</v>
       </c>
       <c r="S7">
-        <v>3.157649132078544E-05</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>0.002544507651083131</v>
+        <v>0.002710638267665259</v>
       </c>
       <c r="U7">
-        <v>0.002527345938277636</v>
+        <v>0.0006829917338759141</v>
       </c>
       <c r="V7">
-        <v>35.40732182954905</v>
+        <v>9.38639371818485</v>
       </c>
       <c r="W7">
-        <v>0.0002252426721885044</v>
+        <v>-1.406424597006048</v>
       </c>
       <c r="X7">
-        <v>1.642949414278797E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -886,61 +886,61 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.05508965992891E-08</v>
+        <v>5.721725017696816E-06</v>
       </c>
       <c r="C8">
-        <v>10.05938702072339</v>
+        <v>0.02901561377829941</v>
       </c>
       <c r="D8">
-        <v>9.54621139749147</v>
+        <v>0.00193501555063453</v>
       </c>
       <c r="E8">
-        <v>10.05951124925705</v>
+        <v>0.03090316543472131</v>
       </c>
       <c r="F8">
-        <v>6.499910262132372</v>
+        <v>6.899910293222901</v>
       </c>
       <c r="K8">
-        <v>7.133691628135812</v>
+        <v>8.292246806141463</v>
       </c>
       <c r="L8">
-        <v>8.419791501565467</v>
+        <v>8.673758192248911</v>
       </c>
       <c r="M8">
-        <v>8.313858723617825</v>
+        <v>8.287839239900753</v>
       </c>
       <c r="N8">
-        <v>0.001361236672604105</v>
+        <v>0.008990111877426118</v>
       </c>
       <c r="O8">
-        <v>0.0003898895228605929</v>
+        <v>0.0008095579278720197</v>
       </c>
       <c r="P8">
-        <v>0.0001674850140090955</v>
+        <v>0.008656958180522459</v>
       </c>
       <c r="Q8">
-        <v>0.0001558082729937754</v>
+        <v>0.0006504940965614384</v>
       </c>
       <c r="R8">
-        <v>0.0009260892659783938</v>
+        <v>3.437887840000995E-06</v>
       </c>
       <c r="S8">
-        <v>3.182830538314182E-05</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>0.002544690222495956</v>
+        <v>0.002732208975471529</v>
       </c>
       <c r="U8">
-        <v>0.002527444880360111</v>
+        <v>0.0006883709151083852</v>
       </c>
       <c r="V8">
-        <v>35.40799445657427</v>
+        <v>9.423303885813242</v>
       </c>
       <c r="W8">
-        <v>0.0002276680620433987</v>
+        <v>-1.392675553913616</v>
       </c>
       <c r="X8">
-        <v>1.643315418593209E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -948,61 +948,61 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.062013799850945E-08</v>
+        <v>5.715145849743749E-06</v>
       </c>
       <c r="C9">
-        <v>10.0649050381775</v>
+        <v>0.02930680300655387</v>
       </c>
       <c r="D9">
-        <v>9.549807993923476</v>
+        <v>0.001957548826577309</v>
       </c>
       <c r="E9">
-        <v>10.06503132907254</v>
+        <v>0.03122933598482967</v>
       </c>
       <c r="F9">
-        <v>6.499895024434823</v>
+        <v>6.89989506119619</v>
       </c>
       <c r="K9">
-        <v>7.126314830697818</v>
+        <v>8.290917696053322</v>
       </c>
       <c r="L9">
-        <v>8.420231404532982</v>
+        <v>8.670021809229834</v>
       </c>
       <c r="M9">
-        <v>8.314810684305419</v>
+        <v>8.286532968523733</v>
       </c>
       <c r="N9">
-        <v>0.0013716812656121</v>
+        <v>0.009078074823120249</v>
       </c>
       <c r="O9">
-        <v>0.0003904472095113751</v>
+        <v>0.0008172568824210253</v>
       </c>
       <c r="P9">
-        <v>0.0001676105703640989</v>
+        <v>0.008743049192177955</v>
       </c>
       <c r="Q9">
-        <v>0.0001558964190205342</v>
+        <v>0.0006581005479958108</v>
       </c>
       <c r="R9">
-        <v>0.0009357049752321063</v>
+        <v>3.474854375914984E-06</v>
       </c>
       <c r="S9">
-        <v>3.208455605056672E-05</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>0.002544875656282362</v>
+        <v>0.002754185728808767</v>
       </c>
       <c r="U9">
-        <v>0.002527544996720798</v>
+        <v>0.0006938629111733325</v>
       </c>
       <c r="V9">
-        <v>35.40867426813436</v>
+        <v>9.460605056142782</v>
       </c>
       <c r="W9">
-        <v>0.0002301460752605291</v>
+        <v>-1.378787114523423</v>
       </c>
       <c r="X9">
-        <v>1.643684258465109E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -1010,61 +1010,61 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.069031024067556E-08</v>
+        <v>5.708426376740369E-06</v>
       </c>
       <c r="C10">
-        <v>10.0705039190933</v>
+        <v>0.02960407750851014</v>
       </c>
       <c r="D10">
-        <v>9.553458046243463</v>
+        <v>0.001980621624359593</v>
       </c>
       <c r="E10">
-        <v>10.07063232894377</v>
+        <v>0.03156260153758999</v>
       </c>
       <c r="F10">
-        <v>6.499879701972652</v>
+        <v>6.899879744558306</v>
       </c>
       <c r="K10">
-        <v>7.118882772105889</v>
+        <v>8.289580455359543</v>
       </c>
       <c r="L10">
-        <v>8.420684609260226</v>
+        <v>8.666230806110981</v>
       </c>
       <c r="M10">
-        <v>8.315781983547769</v>
+        <v>8.285219007653279</v>
       </c>
       <c r="N10">
-        <v>0.001382346853178412</v>
+        <v>0.009167866322475675</v>
       </c>
       <c r="O10">
-        <v>0.0003910165344502597</v>
+        <v>0.0008251320592139761</v>
       </c>
       <c r="P10">
-        <v>0.0001677378980960942</v>
+        <v>0.008830929068745151</v>
       </c>
       <c r="Q10">
-        <v>0.0001559858051454707</v>
+        <v>0.0006658864097350684</v>
       </c>
       <c r="R10">
-        <v>0.0009455269363101664</v>
+        <v>3.512624532174929E-06</v>
       </c>
       <c r="S10">
-        <v>3.23450535834743E-05</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>0.002545064033016727</v>
+        <v>0.002776580542043935</v>
       </c>
       <c r="U10">
-        <v>0.002527646352319736</v>
+        <v>0.0006994707939111499</v>
       </c>
       <c r="V10">
-        <v>35.40936079860298</v>
+        <v>9.49834730473682</v>
       </c>
       <c r="W10">
-        <v>0.0002326789483452529</v>
+        <v>-1.364758723980572</v>
       </c>
       <c r="X10">
-        <v>1.644055861394705E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:24">
@@ -1072,61 +1072,61 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.076143781148346E-08</v>
+        <v>5.701562049098852E-06</v>
       </c>
       <c r="C11">
-        <v>10.07618574187187</v>
+        <v>0.02990763196877553</v>
       </c>
       <c r="D11">
-        <v>9.557162893907305</v>
+        <v>0.002004253548730052</v>
       </c>
       <c r="E11">
-        <v>10.07631632948049</v>
+        <v>0.03190319643258918</v>
       </c>
       <c r="F11">
-        <v>6.499864292986074</v>
+        <v>6.899864341555195</v>
       </c>
       <c r="K11">
-        <v>7.111392805349916</v>
+        <v>8.288236520900956</v>
       </c>
       <c r="L11">
-        <v>8.421144947973101</v>
+        <v>8.662388301486724</v>
       </c>
       <c r="M11">
-        <v>8.316768046237554</v>
+        <v>8.283899355523126</v>
       </c>
       <c r="N11">
-        <v>0.001393240592944655</v>
+        <v>0.009259544720973055</v>
       </c>
       <c r="O11">
-        <v>0.0003915954598550988</v>
+        <v>0.0008331907132700267</v>
       </c>
       <c r="P11">
-        <v>0.0001678670419746724</v>
+        <v>0.008920654812250756</v>
       </c>
       <c r="Q11">
-        <v>0.0001560765363319141</v>
+        <v>0.0006738575655568791</v>
       </c>
       <c r="R11">
-        <v>0.0009555619020544157</v>
+        <v>3.551224801759269E-06</v>
       </c>
       <c r="S11">
-        <v>3.261029502646458E-05</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>0.002545255436101309</v>
+        <v>0.002799405923891548</v>
       </c>
       <c r="U11">
-        <v>0.002527748958399034</v>
+        <v>0.0007051993369861234</v>
       </c>
       <c r="V11">
-        <v>35.41005378435556</v>
+        <v>9.536567365314394</v>
       </c>
       <c r="W11">
-        <v>0.0002352682089184809</v>
+        <v>-1.350585013767109</v>
       </c>
       <c r="X11">
-        <v>1.644430359732504E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -1134,61 +1134,61 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.083353751216748E-08</v>
+        <v>5.694548109648596E-06</v>
       </c>
       <c r="C12">
-        <v>10.08195266240481</v>
+        <v>0.03021766950677603</v>
       </c>
       <c r="D12">
-        <v>9.560924129542505</v>
+        <v>0.002028465165693615</v>
       </c>
       <c r="E12">
-        <v>10.08208548878848</v>
+        <v>0.03225136541370148</v>
       </c>
       <c r="F12">
-        <v>6.499848795656574</v>
+        <v>6.899848850374251</v>
       </c>
       <c r="K12">
-        <v>7.103844147772165</v>
+        <v>8.286884450548294</v>
       </c>
       <c r="L12">
-        <v>8.421614912456455</v>
+        <v>8.658489107327716</v>
       </c>
       <c r="M12">
-        <v>8.317771563298695</v>
+        <v>8.282571509836684</v>
       </c>
       <c r="N12">
-        <v>0.001404369983312317</v>
+        <v>0.009353170876614199</v>
       </c>
       <c r="O12">
-        <v>0.0003921850545892345</v>
+        <v>0.0008414383531368898</v>
       </c>
       <c r="P12">
-        <v>0.0001679980475929253</v>
+        <v>0.009012285892769577</v>
       </c>
       <c r="Q12">
-        <v>0.0001561685009078255</v>
+        <v>0.000682021313063444</v>
       </c>
       <c r="R12">
-        <v>0.0009658169199102818</v>
+        <v>3.59068285511215E-06</v>
       </c>
       <c r="S12">
-        <v>3.288025448303951E-05</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>0.002545449952520224</v>
+        <v>0.002822674885968275</v>
       </c>
       <c r="U12">
-        <v>0.002527852869117362</v>
+        <v>0.0007110516728464106</v>
       </c>
       <c r="V12">
-        <v>35.41075312661445</v>
+        <v>9.575292603763183</v>
       </c>
       <c r="W12">
-        <v>0.0002379155463008142</v>
+        <v>-1.336264740343243</v>
       </c>
       <c r="X12">
-        <v>1.644807792611392E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:24">
@@ -1196,61 +1196,61 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.09066367498832E-08</v>
+        <v>5.687379588248006E-06</v>
       </c>
       <c r="C13">
-        <v>10.08780691558304</v>
+        <v>0.0305344021398219</v>
       </c>
       <c r="D13">
-        <v>9.564743166678202</v>
+        <v>0.002053278059972618</v>
       </c>
       <c r="E13">
-        <v>10.08794204420743</v>
+        <v>0.03260736421194995</v>
       </c>
       <c r="F13">
-        <v>6.49983320810392</v>
+        <v>6.899833269141602</v>
       </c>
       <c r="K13">
-        <v>7.096236267378684</v>
+        <v>8.285524684039954</v>
       </c>
       <c r="L13">
-        <v>8.42209674379677</v>
+        <v>8.654537906823133</v>
       </c>
       <c r="M13">
-        <v>8.318793927974355</v>
+        <v>8.281239105295111</v>
       </c>
       <c r="N13">
-        <v>0.001415742847679992</v>
+        <v>0.009448808320698214</v>
       </c>
       <c r="O13">
-        <v>0.0003927863220114517</v>
+        <v>0.0008498834398401379</v>
       </c>
       <c r="P13">
-        <v>0.0001681309638478141</v>
+        <v>0.009105884371193243</v>
       </c>
       <c r="Q13">
-        <v>0.0001562617739792478</v>
+        <v>0.0006903836767263371</v>
       </c>
       <c r="R13">
-        <v>0.0009762993543532846</v>
+        <v>3.631027606293185E-06</v>
       </c>
       <c r="S13">
-        <v>3.315498456074053E-05</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>0.002545647672558458</v>
+        <v>0.002846400989486498</v>
       </c>
       <c r="U13">
-        <v>0.002527958131331188</v>
+        <v>0.0007170335040657368</v>
       </c>
       <c r="V13">
-        <v>35.41145881423669</v>
+        <v>9.614547922238335</v>
       </c>
       <c r="W13">
-        <v>0.0002406232304978926</v>
+        <v>-1.321794034923869</v>
       </c>
       <c r="X13">
-        <v>1.645188186631066E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -1258,61 +1258,61 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.098075722527767E-08</v>
+        <v>5.680051298340133E-06</v>
       </c>
       <c r="C14">
-        <v>10.09375082182059</v>
+        <v>0.03085805127709292</v>
       </c>
       <c r="D14">
-        <v>9.568621632478688</v>
+        <v>0.00207871489595787</v>
       </c>
       <c r="E14">
-        <v>10.09388831864189</v>
+        <v>0.03297146016980527</v>
       </c>
       <c r="F14">
-        <v>6.499817528383692</v>
+        <v>6.89981759591927</v>
       </c>
       <c r="K14">
-        <v>7.088566573871563</v>
+        <v>8.284156605594751</v>
       </c>
       <c r="L14">
-        <v>8.422590130814422</v>
+        <v>8.650523935482582</v>
       </c>
       <c r="M14">
-        <v>8.319834776460016</v>
+        <v>8.279897087482976</v>
       </c>
       <c r="N14">
-        <v>0.001427367353653498</v>
+        <v>0.00954652337616251</v>
       </c>
       <c r="O14">
-        <v>0.000393399118949884</v>
+        <v>0.0008585307471129376</v>
       </c>
       <c r="P14">
-        <v>0.0001682658410054114</v>
+        <v>0.009201515060903092</v>
       </c>
       <c r="Q14">
-        <v>0.0001563563494796522</v>
+        <v>0.0006989533353181968</v>
       </c>
       <c r="R14">
-        <v>0.000987016904010018</v>
+        <v>3.672289283637426E-06</v>
       </c>
       <c r="S14">
-        <v>3.343468457805758E-05</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>0.002545848690072404</v>
+        <v>0.00287059834727537</v>
       </c>
       <c r="U14">
-        <v>0.002528064781359449</v>
+        <v>0.0007231471055289542</v>
       </c>
       <c r="V14">
-        <v>35.41217087865135</v>
+        <v>9.654353012494324</v>
       </c>
       <c r="W14">
-        <v>0.0002433931882393909</v>
+        <v>-1.307170971433052</v>
       </c>
       <c r="X14">
-        <v>1.645571671306422E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:24">
@@ -1320,61 +1320,61 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.105592661832759E-08</v>
+        <v>5.672557819912715E-06</v>
       </c>
       <c r="C15">
-        <v>10.09978678951418</v>
+        <v>0.03118884824699102</v>
       </c>
       <c r="D15">
-        <v>9.57256109282277</v>
+        <v>0.002104799487340868</v>
       </c>
       <c r="E15">
-        <v>10.0999267231732</v>
+        <v>0.03334393290247357</v>
       </c>
       <c r="F15">
-        <v>6.499801754483742</v>
+        <v>6.899801828702123</v>
       </c>
       <c r="K15">
-        <v>7.080835081699588</v>
+        <v>8.282780392269574</v>
       </c>
       <c r="L15">
-        <v>8.423095023949566</v>
+        <v>8.646448904318504</v>
       </c>
       <c r="M15">
-        <v>8.320895076685328</v>
+        <v>8.278547067761673</v>
       </c>
       <c r="N15">
-        <v>0.001439252046006413</v>
+        <v>0.00964638536040446</v>
       </c>
       <c r="O15">
-        <v>0.0003940240571979636</v>
+        <v>0.0008673887668091264</v>
       </c>
       <c r="P15">
-        <v>0.000168402731712604</v>
+        <v>0.009299245655450046</v>
       </c>
       <c r="Q15">
-        <v>0.0001564523987876176</v>
+        <v>0.0007077375942586045</v>
       </c>
       <c r="R15">
-        <v>0.0009979776191759025</v>
+        <v>3.714499505288431E-06</v>
       </c>
       <c r="S15">
-        <v>3.371947108735273E-05</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>0.002546053102816232</v>
+        <v>0.00289528169488165</v>
       </c>
       <c r="U15">
-        <v>0.002528172870269021</v>
+        <v>0.00072939795872781</v>
       </c>
       <c r="V15">
-        <v>35.41288939341477</v>
+        <v>9.694727425868683</v>
       </c>
       <c r="W15">
-        <v>0.0002462278149540106</v>
+        <v>-1.292390850544791</v>
       </c>
       <c r="X15">
-        <v>1.645958245915021E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -1382,61 +1382,61 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.113216698207396E-08</v>
+        <v>5.664893481105492E-06</v>
       </c>
       <c r="C16">
-        <v>10.10591732087106</v>
+        <v>0.03152703486047533</v>
       </c>
       <c r="D16">
-        <v>9.576563332955882</v>
+        <v>0.002131556872350032</v>
       </c>
       <c r="E16">
-        <v>10.1060597627477</v>
+        <v>0.03372507500626241</v>
       </c>
       <c r="F16">
-        <v>6.499785884321603</v>
+        <v>6.899785965414819</v>
       </c>
       <c r="K16">
-        <v>7.073039468569713</v>
+        <v>8.281397233941792</v>
       </c>
       <c r="L16">
-        <v>8.423612815042853</v>
+        <v>8.642314368208217</v>
       </c>
       <c r="M16">
-        <v>8.321975982452754</v>
+        <v>8.277190646178893</v>
       </c>
       <c r="N16">
-        <v>0.001451405859829767</v>
+        <v>0.009748466716143942</v>
       </c>
       <c r="O16">
-        <v>0.0003946617438908722</v>
+        <v>0.0008764661985496544</v>
       </c>
       <c r="P16">
-        <v>0.0001685416890721969</v>
+        <v>0.009399146911975529</v>
       </c>
       <c r="Q16">
-        <v>0.0001565499067758152</v>
+        <v>0.0007167442034525444</v>
       </c>
       <c r="R16">
-        <v>0.001009189923223444</v>
+        <v>3.757691360001087E-06</v>
       </c>
       <c r="S16">
-        <v>3.400944389763171E-05</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>0.002546261012497014</v>
+        <v>0.00292046638948809</v>
       </c>
       <c r="U16">
-        <v>0.002528282446856604</v>
+        <v>0.0007357915752720147</v>
       </c>
       <c r="V16">
-        <v>35.41361445804764</v>
+        <v>9.735690648219849</v>
       </c>
       <c r="W16">
-        <v>0.0002491291596446711</v>
+        <v>-1.277448393345118</v>
       </c>
       <c r="X16">
-        <v>1.646348026571514E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:24">
@@ -1444,61 +1444,61 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.12095092248768E-08</v>
+        <v>5.657052350275648E-06</v>
       </c>
       <c r="C17">
-        <v>10.11214501484653</v>
+        <v>0.0318728640132768</v>
       </c>
       <c r="D17">
-        <v>9.580630016506191</v>
+        <v>0.002159013390920843</v>
       </c>
       <c r="E17">
-        <v>10.11229003930896</v>
+        <v>0.03411519281893065</v>
       </c>
       <c r="F17">
-        <v>6.499769915740508</v>
+        <v>6.899770003908347</v>
       </c>
       <c r="K17">
-        <v>7.065177656267159</v>
+        <v>8.280004467371285</v>
       </c>
       <c r="L17">
-        <v>8.424141336868079</v>
+        <v>8.638120655194202</v>
       </c>
       <c r="M17">
-        <v>8.323075776330546</v>
+        <v>8.275828404696888</v>
       </c>
       <c r="N17">
-        <v>0.001463838143546695</v>
+        <v>0.009852843192821521</v>
       </c>
       <c r="O17">
-        <v>0.0003953114586409732</v>
+        <v>0.0008857716586444036</v>
       </c>
       <c r="P17">
-        <v>0.000168682768863919</v>
+        <v>0.009501292826193445</v>
       </c>
       <c r="Q17">
-        <v>0.0001566487778130756</v>
+        <v>0.0007259813631307786</v>
       </c>
       <c r="R17">
-        <v>0.001020662634744924</v>
+        <v>3.801899493648159E-06</v>
       </c>
       <c r="S17">
-        <v>3.430494004203467E-05</v>
+        <v>0</v>
       </c>
       <c r="T17">
-        <v>0.00254647252503396</v>
+        <v>0.002946168446125926</v>
       </c>
       <c r="U17">
-        <v>0.002528393546362034</v>
+        <v>0.0007423334044662966</v>
       </c>
       <c r="V17">
-        <v>35.41434617804956</v>
+        <v>9.77726206582969</v>
       </c>
       <c r="W17">
-        <v>0.0002520995439462501</v>
+        <v>-1.262344521449563</v>
       </c>
       <c r="X17">
-        <v>1.646741117186642E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:24">
@@ -1506,61 +1506,61 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.1287973796953E-08</v>
+        <v>5.649028222390871E-06</v>
       </c>
       <c r="C18">
-        <v>10.11847257435058</v>
+        <v>0.03222660033020961</v>
       </c>
       <c r="D18">
-        <v>9.584763150448527</v>
+        <v>0.002187196769537787</v>
       </c>
       <c r="E18">
-        <v>10.11862025876027</v>
+        <v>0.03451460723275365</v>
       </c>
       <c r="F18">
-        <v>6.499753846506296</v>
+        <v>6.899753941956434</v>
       </c>
       <c r="K18">
-        <v>7.057251250353096</v>
+        <v>8.278603801893063</v>
       </c>
       <c r="L18">
-        <v>8.424686841117488</v>
+        <v>8.633859876309739</v>
       </c>
       <c r="M18">
-        <v>8.324199681897188</v>
+        <v>8.27445755720314</v>
       </c>
       <c r="N18">
-        <v>0.001476558699319383</v>
+        <v>0.009959594044418868</v>
       </c>
       <c r="O18">
-        <v>0.0003959759423360202</v>
+        <v>0.0008953128762853461</v>
       </c>
       <c r="P18">
-        <v>0.0001688260306621434</v>
+        <v>0.009605760819801336</v>
       </c>
       <c r="Q18">
-        <v>0.0001567492568765332</v>
+        <v>0.0007354592409883223</v>
       </c>
       <c r="R18">
-        <v>0.001032404988253292</v>
+        <v>3.847160201905875E-06</v>
       </c>
       <c r="S18">
-        <v>3.460570983685122E-05</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>0.00254668775097053</v>
+        <v>0.002972404577574255</v>
       </c>
       <c r="U18">
-        <v>0.002528506260783253</v>
+        <v>0.000749027557113858</v>
       </c>
       <c r="V18">
-        <v>35.41508470991925</v>
+        <v>9.819459891529254</v>
       </c>
       <c r="W18">
-        <v>0.0002551416464879379</v>
+        <v>-1.247072064650357</v>
       </c>
       <c r="X18">
-        <v>1.647137437482345E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:24">
@@ -1568,61 +1568,61 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.136759484641346E-08</v>
+        <v>5.640814587870896E-06</v>
       </c>
       <c r="C19">
-        <v>10.12490280837349</v>
+        <v>0.03258852085503698</v>
       </c>
       <c r="D19">
-        <v>9.588964513579702</v>
+        <v>0.002216136218499257</v>
       </c>
       <c r="E19">
-        <v>10.12505323341959</v>
+        <v>0.03492365455973331</v>
       </c>
       <c r="F19">
-        <v>6.49973767430334</v>
+        <v>6.899737777251937</v>
       </c>
       <c r="K19">
-        <v>7.049254872241527</v>
+        <v>8.277192826823242</v>
       </c>
       <c r="L19">
-        <v>8.425242972196267</v>
+        <v>8.629525948524151</v>
       </c>
       <c r="M19">
-        <v>8.32534328496944</v>
+        <v>8.273076176242606</v>
       </c>
       <c r="N19">
-        <v>0.001489577768680628</v>
+        <v>0.01006880225126385</v>
       </c>
       <c r="O19">
-        <v>0.0003966530432005207</v>
+        <v>0.0009050976422526342</v>
       </c>
       <c r="P19">
-        <v>0.0001689715339607652</v>
+        <v>0.009712631923160528</v>
       </c>
       <c r="Q19">
-        <v>0.0001568512599218842</v>
+        <v>0.0007451871966217949</v>
       </c>
       <c r="R19">
-        <v>0.001044426666306502</v>
+        <v>3.893511529639681E-06</v>
       </c>
       <c r="S19">
-        <v>3.491237927159846E-05</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>0.002546906805069172</v>
+        <v>0.002999192252519562</v>
       </c>
       <c r="U19">
-        <v>0.002528620599944262</v>
+        <v>0.0007558788525510805</v>
       </c>
       <c r="V19">
-        <v>35.4158301830248</v>
+        <v>9.862302042171693</v>
       </c>
       <c r="W19">
-        <v>0.0002582578002765245</v>
+        <v>-1.231631482874938</v>
       </c>
       <c r="X19">
-        <v>1.647537256387924E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:24">
@@ -1630,61 +1630,61 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.144839937118207E-08</v>
+        <v>5.632404641908898E-06</v>
       </c>
       <c r="C20">
-        <v>10.13143864123683</v>
+        <v>0.0329589157896289</v>
       </c>
       <c r="D20">
-        <v>9.593236159920206</v>
+        <v>0.002245862522453022</v>
       </c>
       <c r="E20">
-        <v>10.1315918910035</v>
+        <v>0.03534268747418936</v>
       </c>
       <c r="F20">
-        <v>6.499721396730438</v>
+        <v>6.899721507402508</v>
       </c>
       <c r="K20">
-        <v>7.04118890495182</v>
+        <v>8.275772884323262</v>
       </c>
       <c r="L20">
-        <v>8.425816026721641</v>
+        <v>8.625131502259597</v>
       </c>
       <c r="M20">
-        <v>8.326510820768242</v>
+        <v>8.271690206199363</v>
       </c>
       <c r="N20">
-        <v>0.001502906118991361</v>
+        <v>0.01018055474649569</v>
       </c>
       <c r="O20">
-        <v>0.0003973451096508071</v>
+        <v>0.0009151386668370783</v>
       </c>
       <c r="P20">
-        <v>0.0001691193421807515</v>
+        <v>0.009821991005191487</v>
       </c>
       <c r="Q20">
-        <v>0.0001569548495224114</v>
+        <v>0.0007551734309556379</v>
       </c>
       <c r="R20">
-        <v>0.001056737816148391</v>
+        <v>3.940993377562116E-06</v>
       </c>
       <c r="S20">
-        <v>3.52247837199019E-05</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>0.002547129807570695</v>
+        <v>0.003026549733006981</v>
       </c>
       <c r="U20">
-        <v>0.002528736649521079</v>
+        <v>0.0007628959133284345</v>
       </c>
       <c r="V20">
-        <v>35.41658276267822</v>
+        <v>9.905809021091326</v>
       </c>
       <c r="W20">
-        <v>0.0002614507894935072</v>
+        <v>-1.216016247636954</v>
       </c>
       <c r="X20">
-        <v>1.647940554752409E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:24">
@@ -1692,61 +1692,61 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.153042028030711E-08</v>
+        <v>5.62379123873985E-06</v>
       </c>
       <c r="C21">
-        <v>10.13808311631482</v>
+        <v>0.03333808928675453</v>
       </c>
       <c r="D21">
-        <v>9.597580111912642</v>
+        <v>0.002276408157379728</v>
       </c>
       <c r="E21">
-        <v>10.13823927853587</v>
+        <v>0.03577207600475818</v>
       </c>
       <c r="F21">
-        <v>6.499705011296672</v>
+        <v>6.899705129926637</v>
       </c>
       <c r="K21">
-        <v>7.033051289952214</v>
+        <v>8.274347962632724</v>
       </c>
       <c r="L21">
-        <v>8.426405215321038</v>
+        <v>8.62066804975346</v>
       </c>
       <c r="M21">
-        <v>8.327703126802756</v>
+        <v>8.270297352143688</v>
       </c>
       <c r="N21">
-        <v>0.001516555020341244</v>
+        <v>0.01029494259933098</v>
       </c>
       <c r="O21">
-        <v>0.0003980525274638333</v>
+        <v>0.0009254457315444831</v>
       </c>
       <c r="P21">
-        <v>0.0001692695211024594</v>
+        <v>0.009933927024626499</v>
       </c>
       <c r="Q21">
-        <v>0.0001570601007304783</v>
+        <v>0.0007654298475689894</v>
       </c>
       <c r="R21">
-        <v>0.001069349088153681</v>
+        <v>3.989647616791278E-06</v>
       </c>
       <c r="S21">
-        <v>3.554309965936564E-05</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>0.002547356883596</v>
+        <v>0.003054496076459803</v>
       </c>
       <c r="U21">
-        <v>0.002528854464553012</v>
+        <v>0.0007700839668778806</v>
       </c>
       <c r="V21">
-        <v>35.41734261968692</v>
+        <v>9.950000893033058</v>
       </c>
       <c r="W21">
-        <v>0.0002647236737826794</v>
+        <v>-1.200214284716409</v>
       </c>
       <c r="X21">
-        <v>1.648347435502389E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:24">
@@ -1754,61 +1754,61 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.161368482179853E-08</v>
+        <v>5.614966886707009E-06</v>
       </c>
       <c r="C22">
-        <v>10.14483940386985</v>
+        <v>0.03372636030087172</v>
       </c>
       <c r="D22">
-        <v>9.601998642463887</v>
+        <v>0.00230780740207162</v>
       </c>
       <c r="E22">
-        <v>10.14499857003467</v>
+        <v>0.0362122086148646</v>
       </c>
       <c r="F22">
-        <v>6.499688515416824</v>
+        <v>6.899688642248885</v>
       </c>
       <c r="K22">
-        <v>7.02483985943182</v>
+        <v>8.272915934206527</v>
       </c>
       <c r="L22">
-        <v>8.427005823885478</v>
+        <v>8.616147587711604</v>
       </c>
       <c r="M22">
-        <v>8.328916577472047</v>
+        <v>8.268903126332834</v>
       </c>
       <c r="N22">
-        <v>0.001530536301502212</v>
+        <v>0.01041206131017832</v>
       </c>
       <c r="O22">
-        <v>0.0003987737145431738</v>
+        <v>0.0009360319186959361</v>
       </c>
       <c r="P22">
-        <v>0.0001694221388571092</v>
+        <v>0.01004853323933972</v>
       </c>
       <c r="Q22">
-        <v>0.000157167022548021</v>
+        <v>0.0007759650394701122</v>
       </c>
       <c r="R22">
-        <v>0.00108227166300986</v>
+        <v>4.039518212001169E-06</v>
       </c>
       <c r="S22">
-        <v>3.586790276823664E-05</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>0.002547588163834037</v>
+        <v>0.003083051227829577</v>
       </c>
       <c r="U22">
-        <v>0.002528974092798055</v>
+        <v>0.0007774521738028127</v>
       </c>
       <c r="V22">
-        <v>35.41810992418723</v>
+        <v>9.99490001275297</v>
       </c>
       <c r="W22">
-        <v>0.0002680790645598713</v>
+        <v>-1.184225323919041</v>
       </c>
       <c r="X22">
-        <v>1.648758007028409E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:24">
@@ -1816,61 +1816,61 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.169822875795887E-08</v>
+        <v>5.605923731017343E-06</v>
       </c>
       <c r="C23">
-        <v>10.15171080591296</v>
+        <v>0.03412406350212235</v>
       </c>
       <c r="D23">
-        <v>9.606493942523921</v>
+        <v>0.002340096462925528</v>
       </c>
       <c r="E23">
-        <v>10.15187307158418</v>
+        <v>0.03666349336084275</v>
       </c>
       <c r="F23">
-        <v>6.499671906406208</v>
+        <v>6.899672041694996</v>
       </c>
       <c r="K23">
-        <v>7.016554161893158</v>
+        <v>8.27146660309783</v>
       </c>
       <c r="L23">
-        <v>8.427626686789283</v>
+        <v>8.611509647426947</v>
       </c>
       <c r="M23">
-        <v>8.330158160778806</v>
+        <v>8.267482190686582</v>
       </c>
       <c r="N23">
-        <v>0.001544862410197896</v>
+        <v>0.010532011049311</v>
       </c>
       <c r="O23">
-        <v>0.0003995122368871805</v>
+        <v>0.0009468952316649999</v>
       </c>
       <c r="P23">
-        <v>0.0001695772669116546</v>
+        <v>0.01016590752035073</v>
       </c>
       <c r="Q23">
-        <v>0.0001572756584789699</v>
+        <v>0.0007867982579394989</v>
       </c>
       <c r="R23">
-        <v>0.001095517280228108</v>
+        <v>4.090651353925234E-06</v>
       </c>
       <c r="S23">
-        <v>3.61988292843107E-05</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>0.002547823784986391</v>
+        <v>0.003112236025981815</v>
       </c>
       <c r="U23">
-        <v>0.002529095631038427</v>
+        <v>0.0007849954037612288</v>
       </c>
       <c r="V23">
-        <v>35.4188848770187</v>
+        <v>10.04052140317777</v>
       </c>
       <c r="W23">
-        <v>0.0002715203928198536</v>
+        <v>-1.168063465263721</v>
       </c>
       <c r="X23">
-        <v>1.649172291905342E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:24">
@@ -1878,61 +1878,61 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.178408733955109E-08</v>
+        <v>5.59665350682767E-06</v>
       </c>
       <c r="C24">
-        <v>10.1587007657</v>
+        <v>0.03453155025903513</v>
       </c>
       <c r="D24">
-        <v>9.611068344179024</v>
+        <v>0.002373313619717829</v>
       </c>
       <c r="E24">
-        <v>10.15886623072008</v>
+        <v>0.03712635912624755</v>
       </c>
       <c r="F24">
-        <v>6.499655181475892</v>
+        <v>6.899655325487095</v>
       </c>
       <c r="K24">
-        <v>7.008190536759841</v>
+        <v>8.270019699698263</v>
       </c>
       <c r="L24">
-        <v>8.428265391099945</v>
+        <v>8.606852250394281</v>
       </c>
       <c r="M24">
-        <v>8.33142551407294</v>
+        <v>8.266077732432096</v>
       </c>
       <c r="N24">
-        <v>0.001559546386778803</v>
+        <v>0.01065489714953724</v>
       </c>
       <c r="O24">
-        <v>0.0004002672752157353</v>
+        <v>0.0009580715589749299</v>
       </c>
       <c r="P24">
-        <v>0.0001697349798402788</v>
+        <v>0.01028615251089446</v>
       </c>
       <c r="Q24">
-        <v>0.0001573861003646668</v>
+        <v>0.0007979297366635471</v>
       </c>
       <c r="R24">
-        <v>0.001109098286009439</v>
+        <v>4.143095602052481E-06</v>
       </c>
       <c r="S24">
-        <v>3.653633996262993E-05</v>
+        <v>0</v>
       </c>
       <c r="T24">
-        <v>0.002548063889524185</v>
+        <v>0.003142072444215412</v>
       </c>
       <c r="U24">
-        <v>0.002529219125363025</v>
+        <v>0.0007927415798961027</v>
       </c>
       <c r="V24">
-        <v>35.41966767216838</v>
+        <v>10.08689448460153</v>
       </c>
       <c r="W24">
-        <v>0.0002750508957821445</v>
+        <v>-1.151687081053392</v>
       </c>
       <c r="X24">
-        <v>1.649590473162008E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:24">
@@ -1940,61 +1940,61 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.187129281630575E-08</v>
+        <v>5.587147546326641E-06</v>
       </c>
       <c r="C25">
-        <v>10.1658128750704</v>
+        <v>0.03494918969590938</v>
       </c>
       <c r="D25">
-        <v>9.615724386551149</v>
+        <v>0.00240749936295268</v>
       </c>
       <c r="E25">
-        <v>10.16598164374412</v>
+        <v>0.03760125697285331</v>
       </c>
       <c r="F25">
-        <v>6.499638337726924</v>
+        <v>6.899638490737659</v>
       </c>
       <c r="K25">
-        <v>6.99974763946466</v>
+        <v>8.268548858743772</v>
       </c>
       <c r="L25">
-        <v>8.428918535671096</v>
+        <v>8.602044291993598</v>
       </c>
       <c r="M25">
-        <v>8.332717884058141</v>
+        <v>8.264634500352434</v>
       </c>
       <c r="N25">
-        <v>0.001574601959656245</v>
+        <v>0.01078082994941467</v>
       </c>
       <c r="O25">
-        <v>0.0004010383963743769</v>
+        <v>0.0009695431403569429</v>
       </c>
       <c r="P25">
-        <v>0.0001698953548984036</v>
+        <v>0.01040937618328707</v>
       </c>
       <c r="Q25">
-        <v>0.0001574984324993795</v>
+        <v>0.0008093882786516793</v>
       </c>
       <c r="R25">
-        <v>0.001123027661932125</v>
+        <v>4.196902038442772E-06</v>
       </c>
       <c r="S25">
-        <v>3.688081116727217E-05</v>
+        <v>0</v>
       </c>
       <c r="T25">
-        <v>0.002548308626721084</v>
+        <v>0.003172583234661117</v>
       </c>
       <c r="U25">
-        <v>0.002529344646267622</v>
+        <v>0.000800671828787144</v>
       </c>
       <c r="V25">
-        <v>35.42045851244701</v>
+        <v>10.1340327557905</v>
       </c>
       <c r="W25">
-        <v>0.0002786739998701359</v>
+        <v>-1.135140453826285</v>
       </c>
       <c r="X25">
-        <v>1.650012618026767E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:24">
@@ -2002,61 +2002,61 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>2.195988311035933E-08</v>
+        <v>5.577396726205302E-06</v>
       </c>
       <c r="C26">
-        <v>10.17305088149829</v>
+        <v>0.03537736983186934</v>
       </c>
       <c r="D26">
-        <v>9.620464615944829</v>
+        <v>0.002442696565257289</v>
       </c>
       <c r="E26">
-        <v>10.17322306291892</v>
+        <v>0.03808866157357477</v>
       </c>
       <c r="F26">
-        <v>6.499621372144366</v>
+        <v>6.899621534444071</v>
       </c>
       <c r="K26">
-        <v>6.991224242957148</v>
+        <v>8.267083489464669</v>
       </c>
       <c r="L26">
-        <v>8.429595875377554</v>
+        <v>8.597235139006042</v>
       </c>
       <c r="M26">
-        <v>8.334042007683784</v>
+        <v>8.263217068404895</v>
       </c>
       <c r="N26">
-        <v>0.001590043585488901</v>
+        <v>0.01090992582848122</v>
       </c>
       <c r="O26">
-        <v>0.0004018290960346621</v>
+        <v>0.0009813586742695632</v>
       </c>
       <c r="P26">
-        <v>0.0001700584722983908</v>
+        <v>0.01053569181361122</v>
       </c>
       <c r="Q26">
-        <v>0.000157612606804554</v>
+        <v>0.0008211683065860194</v>
       </c>
       <c r="R26">
-        <v>0.001137319067863241</v>
+        <v>4.252124433685441E-06</v>
       </c>
       <c r="S26">
-        <v>3.723192238404692E-05</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>0.002548558152779682</v>
+        <v>0.003203792595264723</v>
       </c>
       <c r="U26">
-        <v>0.002529472299504794</v>
+        <v>0.0008088253380187804</v>
       </c>
       <c r="V26">
-        <v>35.42125762748361</v>
+        <v>10.18196951799812</v>
       </c>
       <c r="W26">
-        <v>0.0002823933961976992</v>
+        <v>-1.118363477222005</v>
       </c>
       <c r="X26">
-        <v>1.650438787852143E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:24">
@@ -2064,61 +2064,61 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>2.20498964621396E-08</v>
+        <v>5.567391456209964E-06</v>
       </c>
       <c r="C27">
-        <v>10.18041869837233</v>
+        <v>0.0358164988087575</v>
       </c>
       <c r="D27">
-        <v>9.625291722494048</v>
+        <v>0.002478950651207465</v>
       </c>
       <c r="E27">
-        <v>10.18059440668788</v>
+        <v>0.0385890727754842</v>
       </c>
       <c r="F27">
-        <v>6.499604281590956</v>
+        <v>6.89960445348204</v>
       </c>
       <c r="K27">
-        <v>6.982615913034496</v>
+        <v>8.265597608589283</v>
       </c>
       <c r="L27">
-        <v>8.430289862684132</v>
+        <v>8.592293597729192</v>
       </c>
       <c r="M27">
-        <v>8.335392700389496</v>
+        <v>8.261770647265068</v>
       </c>
       <c r="N27">
-        <v>0.001605886445348291</v>
+        <v>0.01104230672387071</v>
       </c>
       <c r="O27">
-        <v>0.0004026372138512323</v>
+        <v>0.0009935023474176728</v>
       </c>
       <c r="P27">
-        <v>0.0001702244171716419</v>
+        <v>0.01066521879370489</v>
       </c>
       <c r="Q27">
-        <v>0.0001577287281211008</v>
+        <v>0.000833300802367703</v>
       </c>
       <c r="R27">
-        <v>0.00115198689646963</v>
+        <v>4.30881942613458E-06</v>
       </c>
       <c r="S27">
-        <v>3.759041999945389E-05</v>
+        <v>0</v>
       </c>
       <c r="T27">
-        <v>0.002548812630823347</v>
+        <v>0.003235725492028002</v>
       </c>
       <c r="U27">
-        <v>0.00252960212651126</v>
+        <v>0.0008171841546611837</v>
       </c>
       <c r="V27">
-        <v>35.42206523390921</v>
+        <v>10.23072327465042</v>
       </c>
       <c r="W27">
-        <v>0.0002862125046049346</v>
+        <v>-1.101399150767399</v>
       </c>
       <c r="X27">
-        <v>1.650869204348275E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:24">
@@ -2126,61 +2126,61 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>2.214137180549471E-08</v>
+        <v>5.55712163738923E-06</v>
       </c>
       <c r="C28">
-        <v>10.18792041426258</v>
+        <v>0.03626700621629195</v>
       </c>
       <c r="D28">
-        <v>9.630208539659298</v>
+        <v>0.002516309793467353</v>
       </c>
       <c r="E28">
-        <v>10.18809976896607</v>
+        <v>0.03910301727554966</v>
       </c>
       <c r="F28">
-        <v>6.499587062800416</v>
+        <v>6.899587244599072</v>
       </c>
       <c r="K28">
-        <v>6.973923876361642</v>
+        <v>8.264104223421828</v>
       </c>
       <c r="L28">
-        <v>8.431007058838643</v>
+        <v>8.587263993078965</v>
       </c>
       <c r="M28">
-        <v>8.336775465100885</v>
+        <v>8.26031451451156</v>
       </c>
       <c r="N28">
-        <v>0.001622146570098251</v>
+        <v>0.01117810137760656</v>
       </c>
       <c r="O28">
-        <v>0.0004034655085964107</v>
+        <v>0.001006000575020403</v>
       </c>
       <c r="P28">
-        <v>0.0001703932778344871</v>
+        <v>0.01079808255034458</v>
       </c>
       <c r="Q28">
-        <v>0.000157846938046754</v>
+        <v>0.000845796266158619</v>
       </c>
       <c r="R28">
-        <v>0.001167046308313822</v>
+        <v>4.367046715676939E-06</v>
       </c>
       <c r="S28">
-        <v>3.795616352537427E-05</v>
+        <v>0</v>
       </c>
       <c r="T28">
-        <v>0.00254907223223297</v>
+        <v>0.003268408483073499</v>
       </c>
       <c r="U28">
-        <v>0.002529734251784918</v>
+        <v>0.0008257666644604304</v>
       </c>
       <c r="V28">
-        <v>35.42288158086659</v>
+        <v>10.28031932876541</v>
       </c>
       <c r="W28">
-        <v>0.0002901360640906219</v>
+        <v>-1.084217158108693</v>
       </c>
       <c r="X28">
-        <v>1.651303806181918E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:24">
@@ -2188,61 +2188,61 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>2.223435295095044E-08</v>
+        <v>5.54657662873022E-06</v>
       </c>
       <c r="C29">
-        <v>10.19556030295578</v>
+        <v>0.03672934452345394</v>
       </c>
       <c r="D29">
-        <v>9.63521795374497</v>
+        <v>0.002554825122477687</v>
       </c>
       <c r="E29">
-        <v>10.19574342926276</v>
+        <v>0.03963105043599827</v>
       </c>
       <c r="F29">
-        <v>6.49956971237051</v>
+        <v>6.899569904407316</v>
       </c>
       <c r="K29">
-        <v>6.965141849197019</v>
+        <v>8.26260054852542</v>
       </c>
       <c r="L29">
-        <v>8.431743418015756</v>
+        <v>8.582149365224323</v>
       </c>
       <c r="M29">
-        <v>8.338187822460629</v>
+        <v>8.258853045457835</v>
       </c>
       <c r="N29">
-        <v>0.001638840831214715</v>
+        <v>0.01131744522421733</v>
       </c>
       <c r="O29">
-        <v>0.0004043130096025166</v>
+        <v>0.001018870439274159</v>
       </c>
       <c r="P29">
-        <v>0.0001705651455028122</v>
+        <v>0.01093441523916905</v>
       </c>
       <c r="Q29">
-        <v>0.0001579672337399799</v>
+        <v>0.0008586681764145108</v>
       </c>
       <c r="R29">
-        <v>0.001182513296598595</v>
+        <v>4.426869273425939E-06</v>
       </c>
       <c r="S29">
-        <v>3.832971275641115E-05</v>
+        <v>0</v>
       </c>
       <c r="T29">
-        <v>0.002549337136074724</v>
+        <v>0.003301869329903815</v>
       </c>
       <c r="U29">
-        <v>0.00252986872198271</v>
+        <v>0.0008345844457291152</v>
       </c>
       <c r="V29">
-        <v>35.42370690525349</v>
+        <v>10.33078516234917</v>
       </c>
       <c r="W29">
-        <v>0.0002941677451582593</v>
+        <v>-1.066817761552024</v>
       </c>
       <c r="X29">
-        <v>1.651742907540149E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:24">
@@ -2250,61 +2250,61 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>2.232887946893755E-08</v>
+        <v>5.53574522342314E-06</v>
       </c>
       <c r="C30">
-        <v>10.20334283558371</v>
+        <v>0.03720399062624527</v>
       </c>
       <c r="D30">
-        <v>9.640323131944371</v>
+        <v>0.002594550950502454</v>
       </c>
       <c r="E30">
-        <v>10.20352986468847</v>
+        <v>0.04017375825341175</v>
       </c>
       <c r="F30">
-        <v>6.499552226754499</v>
+        <v>6.89955242937558</v>
       </c>
       <c r="K30">
-        <v>6.956269135210745</v>
+        <v>8.261083970070503</v>
       </c>
       <c r="L30">
-        <v>8.432502182795009</v>
+        <v>8.576929025070932</v>
       </c>
       <c r="M30">
-        <v>8.339632359042955</v>
+        <v>8.257375867607088</v>
       </c>
       <c r="N30">
-        <v>0.001655987050959329</v>
+        <v>0.01146048098511932</v>
       </c>
       <c r="O30">
-        <v>0.0004051811277961637</v>
+        <v>0.001032124089508072</v>
       </c>
       <c r="P30">
-        <v>0.0001707401164995183</v>
+        <v>0.0110743561705962</v>
       </c>
       <c r="Q30">
-        <v>0.0001580895877992894</v>
+        <v>0.0008719383751782332</v>
       </c>
       <c r="R30">
-        <v>0.00119840473526307</v>
+        <v>4.488353568890188E-06</v>
       </c>
       <c r="S30">
-        <v>3.871115040067539E-05</v>
+        <v>0</v>
       </c>
       <c r="T30">
-        <v>0.002549607530714891</v>
+        <v>0.003336137175517353</v>
       </c>
       <c r="U30">
-        <v>0.002530005651350827</v>
+        <v>0.0008436424404689733</v>
       </c>
       <c r="V30">
-        <v>35.42454146648876</v>
+        <v>10.38214685445474</v>
       </c>
       <c r="W30">
-        <v>0.0002983121080886168</v>
+        <v>-1.049198701025841</v>
       </c>
       <c r="X30">
-        <v>1.652186543239463E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:24">
@@ -2312,61 +2312,61 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>2.24249971820376E-08</v>
+        <v>5.52461559164843E-06</v>
       </c>
       <c r="C31">
-        <v>10.21127269056454</v>
+        <v>0.03769144752308672</v>
       </c>
       <c r="D31">
-        <v>9.645527281522837</v>
+        <v>0.002635545029386457</v>
       </c>
       <c r="E31">
-        <v>10.21146376008751</v>
+        <v>0.04073175947690069</v>
       </c>
       <c r="F31">
-        <v>6.499534602253727</v>
+        <v>6.899534815821492</v>
       </c>
       <c r="K31">
-        <v>6.947304244625425</v>
+        <v>8.259566415287377</v>
       </c>
       <c r="L31">
-        <v>8.43328806183816</v>
+        <v>8.571655011409639</v>
       </c>
       <c r="M31">
-        <v>8.341112676484132</v>
+        <v>8.255907691196501</v>
       </c>
       <c r="N31">
-        <v>0.001673604035792613</v>
+        <v>0.01160735925125469</v>
       </c>
       <c r="O31">
-        <v>0.0004060719999990862</v>
+        <v>0.001045793405938459</v>
       </c>
       <c r="P31">
-        <v>0.0001709182929600849</v>
+        <v>0.01121805219588377</v>
       </c>
       <c r="Q31">
-        <v>0.0001582142416765051</v>
+        <v>0.0008856170268218215</v>
       </c>
       <c r="R31">
-        <v>0.001214738447725921</v>
+        <v>4.551569816339345E-06</v>
       </c>
       <c r="S31">
-        <v>3.910055222637846E-05</v>
+        <v>0</v>
       </c>
       <c r="T31">
-        <v>0.002549883613522836</v>
+        <v>0.003371242735165921</v>
       </c>
       <c r="U31">
-        <v>0.002530145154751875</v>
+        <v>0.0008529637018444228</v>
       </c>
       <c r="V31">
-        <v>35.42538554304675</v>
+        <v>10.43443777352432</v>
       </c>
       <c r="W31">
-        <v>0.0003025741208902931</v>
+        <v>-1.031332260675768</v>
       </c>
       <c r="X31">
-        <v>1.652634787768729E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:24">
@@ -2374,61 +2374,61 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>2.252275117394163E-08</v>
+        <v>5.513175254067622E-06</v>
       </c>
       <c r="C32">
-        <v>10.21935476783657</v>
+        <v>0.03819224613013959</v>
       </c>
       <c r="D32">
-        <v>9.650833829208908</v>
+        <v>0.002677868818593908</v>
       </c>
       <c r="E32">
-        <v>10.21955002218727</v>
+        <v>0.04130570791935591</v>
       </c>
       <c r="F32">
-        <v>6.499516835008102</v>
+        <v>6.899517059902267</v>
       </c>
       <c r="K32">
-        <v>6.938243349767851</v>
+        <v>8.258029974555326</v>
       </c>
       <c r="L32">
-        <v>8.434097715627345</v>
+        <v>8.566251827138295</v>
       </c>
       <c r="M32">
-        <v>8.342627389977096</v>
+        <v>8.254417078451857</v>
       </c>
       <c r="N32">
-        <v>0.001691711636303949</v>
+        <v>0.01175823876333063</v>
       </c>
       <c r="O32">
-        <v>0.0004069852315676691</v>
+        <v>0.001059879119292934</v>
       </c>
       <c r="P32">
-        <v>0.0001710997794069932</v>
+        <v>0.01136565841258466</v>
       </c>
       <c r="Q32">
-        <v>0.0001583411864968411</v>
+        <v>0.0008997332577953334</v>
       </c>
       <c r="R32">
-        <v>0.001231533274804485</v>
+        <v>4.616592242287051E-06</v>
       </c>
       <c r="S32">
-        <v>3.949840637485641E-05</v>
+        <v>0</v>
       </c>
       <c r="T32">
-        <v>0.002550165591505278</v>
+        <v>0.003407218149927657</v>
       </c>
       <c r="U32">
-        <v>0.002530287319049019</v>
+        <v>0.0008625437825491153</v>
       </c>
       <c r="V32">
-        <v>35.42623941672898</v>
+        <v>10.48768497235566</v>
       </c>
       <c r="W32">
-        <v>0.0003069586101347776</v>
+        <v>-1.013245061311775</v>
       </c>
       <c r="X32">
-        <v>1.653087832511607E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:24">
@@ -2436,61 +2436,61 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>2.262219350801445E-08</v>
+        <v>5.50141102757743E-06</v>
       </c>
       <c r="C33">
-        <v>10.22759420172972</v>
+        <v>0.03870694725059677</v>
       </c>
       <c r="D33">
-        <v>9.656246248923118</v>
+        <v>0.002721587789602642</v>
       </c>
       <c r="E33">
-        <v>10.22779379262845</v>
+        <v>0.04189629495401933</v>
       </c>
       <c r="F33">
-        <v>6.499498920986615</v>
+        <v>6.899499157605447</v>
       </c>
       <c r="K33">
-        <v>6.929082621371321</v>
+        <v>8.256486187780119</v>
       </c>
       <c r="L33">
-        <v>8.434934577238824</v>
+        <v>8.560755567338395</v>
       </c>
       <c r="M33">
-        <v>8.344178920831496</v>
+        <v>8.252921237346673</v>
       </c>
       <c r="N33">
-        <v>0.001710330859560997</v>
+        <v>0.01191328745382393</v>
       </c>
       <c r="O33">
-        <v>0.000407922163976863</v>
+        <v>0.001074412129772334</v>
       </c>
       <c r="P33">
-        <v>0.0001712846865506185</v>
+        <v>0.01151733848729175</v>
       </c>
       <c r="Q33">
-        <v>0.0001584704813531142</v>
+        <v>0.0009143032666244524</v>
       </c>
       <c r="R33">
-        <v>0.001248809142462886</v>
+        <v>4.683499376233239E-06</v>
       </c>
       <c r="S33">
-        <v>3.990488553609022E-05</v>
+        <v>0</v>
       </c>
       <c r="T33">
-        <v>0.002550453682410441</v>
+        <v>0.003444097488585317</v>
       </c>
       <c r="U33">
-        <v>0.002530432247016715</v>
+        <v>0.0008724032329352133</v>
       </c>
       <c r="V33">
-        <v>35.42710337911092</v>
+        <v>10.54192111999002</v>
       </c>
       <c r="W33">
-        <v>0.0003114708031385624</v>
+        <v>-0.9949085422053514</v>
       </c>
       <c r="X33">
-        <v>1.653545868931434E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:24">
@@ -2498,61 +2498,61 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>2.272337257590323E-08</v>
+        <v>5.489308982510921E-06</v>
       </c>
       <c r="C34">
-        <v>10.23599637750629</v>
+        <v>0.03923614371325845</v>
       </c>
       <c r="D34">
-        <v>9.661768330611919</v>
+        <v>0.002766771753531287</v>
       </c>
       <c r="E34">
-        <v>10.23620046436011</v>
+        <v>0.0425042522329054</v>
       </c>
       <c r="F34">
-        <v>6.499480855977115</v>
+        <v>6.899481104738445</v>
       </c>
       <c r="K34">
-        <v>6.919820487507887</v>
+        <v>8.254924418431932</v>
       </c>
       <c r="L34">
-        <v>8.435800509001661</v>
+        <v>8.555139196380017</v>
       </c>
       <c r="M34">
-        <v>8.34576930402832</v>
+        <v>8.251409539772036</v>
       </c>
       <c r="N34">
-        <v>0.001729483928613705</v>
+        <v>0.01207268267917763</v>
       </c>
       <c r="O34">
-        <v>0.000408884185806035</v>
+        <v>0.001089407692285792</v>
       </c>
       <c r="P34">
-        <v>0.0001714731307446995</v>
+        <v>0.01167326547583098</v>
       </c>
       <c r="Q34">
-        <v>0.0001586021916425143</v>
+        <v>0.0009293524031785804</v>
       </c>
       <c r="R34">
-        <v>0.001266587146241221</v>
+        <v>4.752374367060199E-06</v>
       </c>
       <c r="S34">
-        <v>4.032021948877981E-05</v>
+        <v>0</v>
       </c>
       <c r="T34">
-        <v>0.002550748115283878</v>
+        <v>0.003481916521756642</v>
       </c>
       <c r="U34">
-        <v>0.002530580069714475</v>
+        <v>0.0008825493918240034</v>
       </c>
       <c r="V34">
-        <v>35.42797774207028</v>
+        <v>10.59717804147051</v>
       </c>
       <c r="W34">
-        <v>0.0003161163594239342</v>
+        <v>-0.976335190161155</v>
       </c>
       <c r="X34">
-        <v>1.654008975624605E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:24">
@@ -2560,61 +2560,61 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>2.282633962250941E-08</v>
+        <v>5.476854375432581E-06</v>
       </c>
       <c r="C35">
-        <v>10.24456694537039</v>
+        <v>0.03978046269773199</v>
       </c>
       <c r="D35">
-        <v>9.667404037429247</v>
+        <v>0.002813495230514512</v>
       </c>
       <c r="E35">
-        <v>10.24477569579235</v>
+        <v>0.04313035463266549</v>
       </c>
       <c r="F35">
-        <v>6.49946263557532</v>
+        <v>6.899462896917935</v>
       </c>
       <c r="K35">
-        <v>6.910453141652713</v>
+        <v>8.25336280335798</v>
       </c>
       <c r="L35">
-        <v>8.436692230968546</v>
+        <v>8.549451777228747</v>
       </c>
       <c r="M35">
-        <v>8.347397050079485</v>
+        <v>8.24990467920577</v>
       </c>
       <c r="N35">
-        <v>0.001749194372536207</v>
+        <v>0.01223661215659393</v>
       </c>
       <c r="O35">
-        <v>0.0004098708347996003</v>
+        <v>0.001104902249840335</v>
       </c>
       <c r="P35">
-        <v>0.0001716652343133888</v>
+        <v>0.0118336223873631</v>
       </c>
       <c r="Q35">
-        <v>0.0001587364905099978</v>
+        <v>0.000944896553625756</v>
       </c>
       <c r="R35">
-        <v>0.001284889637685287</v>
+        <v>4.82330532776259E-06</v>
       </c>
       <c r="S35">
-        <v>4.074502631487507E-05</v>
+        <v>0</v>
       </c>
       <c r="T35">
-        <v>0.002551049130889392</v>
+        <v>0.003520713046083995</v>
       </c>
       <c r="U35">
-        <v>0.002530730890880104</v>
+        <v>0.0008930075061702155</v>
       </c>
       <c r="V35">
-        <v>35.42886282354235</v>
+        <v>10.65349422169052</v>
       </c>
       <c r="W35">
-        <v>0.0003209009763557279</v>
+        <v>-0.95748401238329</v>
       </c>
       <c r="X35">
-        <v>1.654477342917364E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:24">
@@ -2622,61 +2622,61 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>2.293115126958412E-08</v>
+        <v>5.464031608851731E-06</v>
       </c>
       <c r="C36">
-        <v>10.25331183791495</v>
+        <v>0.04034056826541711</v>
       </c>
       <c r="D36">
-        <v>9.67315746129746</v>
+        <v>0.002861837842271105</v>
       </c>
       <c r="E36">
-        <v>10.25352542832917</v>
+        <v>0.04377542347695806</v>
       </c>
       <c r="F36">
-        <v>6.4994442551726</v>
+        <v>6.899444529557426</v>
       </c>
       <c r="K36">
-        <v>6.900978660650416</v>
+        <v>8.251783165668838</v>
       </c>
       <c r="L36">
-        <v>8.437619131046723</v>
+        <v>8.543635397108583</v>
       </c>
       <c r="M36">
-        <v>8.349068771440276</v>
+        <v>8.248382452138161</v>
       </c>
       <c r="N36">
-        <v>0.001769487153411004</v>
+        <v>0.01240527442790838</v>
       </c>
       <c r="O36">
-        <v>0.0004108857914205223</v>
+        <v>0.001120905825382066</v>
       </c>
       <c r="P36">
-        <v>0.000171861124371016</v>
+        <v>0.01199860308181367</v>
       </c>
       <c r="Q36">
-        <v>0.0001588734157037987</v>
+        <v>0.0009609688638518687</v>
       </c>
       <c r="R36">
-        <v>0.001303740313615142</v>
+        <v>4.896385711516569E-06</v>
       </c>
       <c r="S36">
-        <v>4.117913620720291E-05</v>
+        <v>0</v>
       </c>
       <c r="T36">
-        <v>0.002551356983010745</v>
+        <v>0.003560526766385719</v>
       </c>
       <c r="U36">
-        <v>0.002530884872016501</v>
+        <v>0.0009037793351207457</v>
       </c>
       <c r="V36">
-        <v>35.42975896977895</v>
+        <v>10.71090445148155</v>
       </c>
       <c r="W36">
-        <v>0.0003258313306560046</v>
+        <v>-0.9383811010984644</v>
       </c>
       <c r="X36">
-        <v>1.654951066967479E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:24">
@@ -2684,61 +2684,61 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>2.303786288844834E-08</v>
+        <v>5.450824153070639E-06</v>
       </c>
       <c r="C37">
-        <v>10.26223728986291</v>
+        <v>0.04091716411808089</v>
       </c>
       <c r="D37">
-        <v>9.679032998865083</v>
+        <v>0.002911884760375554</v>
       </c>
       <c r="E37">
-        <v>10.26245590603573</v>
+        <v>0.04444033003199613</v>
       </c>
       <c r="F37">
-        <v>6.499425709943291</v>
+        <v>6.899425997855018</v>
       </c>
       <c r="K37">
-        <v>6.891392589785032</v>
+        <v>8.250195771191516</v>
       </c>
       <c r="L37">
-        <v>8.438579510516313</v>
+        <v>8.537704704596322</v>
       </c>
       <c r="M37">
-        <v>8.350784219982696</v>
+        <v>8.246851518705283</v>
       </c>
       <c r="N37">
-        <v>0.001790388712826242</v>
+        <v>0.01257888009871648</v>
       </c>
       <c r="O37">
-        <v>0.0004119292007206227</v>
+        <v>0.001137450539672972</v>
       </c>
       <c r="P37">
-        <v>0.0001720609352735885</v>
+        <v>0.01216841283901308</v>
       </c>
       <c r="Q37">
-        <v>0.0001590130397315636</v>
+        <v>0.0009775939640795132</v>
       </c>
       <c r="R37">
-        <v>0.001323164331729111</v>
+        <v>4.971714722462978E-06</v>
       </c>
       <c r="S37">
-        <v>4.162303750814217E-05</v>
+        <v>0</v>
       </c>
       <c r="T37">
-        <v>0.002551671938564502</v>
+        <v>0.003601399803789795</v>
       </c>
       <c r="U37">
-        <v>0.002531042134285165</v>
+        <v>0.0009148848094564494</v>
       </c>
       <c r="V37">
-        <v>35.43066653571479</v>
+        <v>10.76944741297635</v>
       </c>
       <c r="W37">
-        <v>0.0003309137736018978</v>
+        <v>-0.9189992809737539</v>
       </c>
       <c r="X37">
-        <v>1.655430370510748E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:24">
@@ -2746,61 +2746,61 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>2.314653638676248E-08</v>
+        <v>5.437214485254472E-06</v>
       </c>
       <c r="C38">
-        <v>10.27134985690975</v>
+        <v>0.04151099660804503</v>
       </c>
       <c r="D38">
-        <v>9.685035182726864</v>
+        <v>0.002963727190732772</v>
       </c>
       <c r="E38">
-        <v>10.27157369466842</v>
+        <v>0.04512599933043653</v>
       </c>
       <c r="F38">
-        <v>6.499406994830473</v>
+        <v>6.899407296779121</v>
       </c>
       <c r="K38">
-        <v>6.881690631219401</v>
+        <v>8.248589650057195</v>
       </c>
       <c r="L38">
-        <v>8.439570944334349</v>
+        <v>8.53161014218731</v>
       </c>
       <c r="M38">
-        <v>8.352542481601528</v>
+        <v>8.245294700937174</v>
       </c>
       <c r="N38">
-        <v>0.001811927142702892</v>
+        <v>0.01275765243557653</v>
       </c>
       <c r="O38">
-        <v>0.0004130009293447171</v>
+        <v>0.001154553794207787</v>
       </c>
       <c r="P38">
-        <v>0.0001722648086414326</v>
+        <v>0.01234326938393391</v>
       </c>
       <c r="Q38">
-        <v>0.0001591554374975354</v>
+        <v>0.0009948067058489236</v>
       </c>
       <c r="R38">
-        <v>0.001343188414451313</v>
+        <v>5.049397765001462E-06</v>
       </c>
       <c r="S38">
-        <v>4.207736833604542E-05</v>
+        <v>0</v>
       </c>
       <c r="T38">
-        <v>0.002551994279256367</v>
+        <v>0.003643376600576253</v>
       </c>
       <c r="U38">
-        <v>0.002531202802224971</v>
+        <v>0.0009263309878650454</v>
       </c>
       <c r="V38">
-        <v>35.43158588507316</v>
+        <v>10.82916027940881</v>
       </c>
       <c r="W38">
-        <v>0.0003361551810831321</v>
+        <v>-0.8993503341387381</v>
       </c>
       <c r="X38">
-        <v>1.65591546843903E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:24">
@@ -2808,61 +2808,61 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>2.325723493398471E-08</v>
+        <v>5.423184016894979E-06</v>
       </c>
       <c r="C39">
-        <v>10.28065643903964</v>
+        <v>0.04212285802736745</v>
       </c>
       <c r="D39">
-        <v>9.69116882837559</v>
+        <v>0.003017462912512506</v>
       </c>
       <c r="E39">
-        <v>10.28088570494922</v>
+        <v>0.04583341434817761</v>
       </c>
       <c r="F39">
-        <v>6.499388104530839</v>
+        <v>6.899388421053624</v>
       </c>
       <c r="K39">
-        <v>6.871869547868493</v>
+        <v>8.246981031792004</v>
       </c>
       <c r="L39">
-        <v>8.440600585908694</v>
+        <v>8.525435432126157</v>
       </c>
       <c r="M39">
-        <v>8.354348730418691</v>
+        <v>8.243745285130993</v>
       </c>
       <c r="N39">
-        <v>0.001834132320692705</v>
+        <v>0.01294182860448715</v>
       </c>
       <c r="O39">
-        <v>0.0004141041501322546</v>
+        <v>0.001172266044784486</v>
       </c>
       <c r="P39">
-        <v>0.000172472893897685</v>
+        <v>0.01252340371215748</v>
       </c>
       <c r="Q39">
-        <v>0.0001593008346070304</v>
+        <v>0.00101262607841581</v>
       </c>
       <c r="R39">
-        <v>0.001363840970738857</v>
+        <v>5.129546935874501E-06</v>
       </c>
       <c r="S39">
-        <v>4.254212867092847E-05</v>
+        <v>0</v>
       </c>
       <c r="T39">
-        <v>0.00255232430270131</v>
+        <v>0.003686504308714526</v>
       </c>
       <c r="U39">
-        <v>0.00253136704867608</v>
+        <v>0.000938152919131488</v>
       </c>
       <c r="V39">
-        <v>35.43251740701862</v>
+        <v>10.89008923389676</v>
       </c>
       <c r="W39">
-        <v>0.000341563256650657</v>
+        <v>-0.8793954574274174</v>
       </c>
       <c r="X39">
-        <v>1.656406522606575E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:24">
@@ -2870,61 +2870,61 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>2.337002150632486E-08</v>
+        <v>5.40871299526522E-06</v>
       </c>
       <c r="C40">
-        <v>10.29016430372777</v>
+        <v>0.0427535902066393</v>
       </c>
       <c r="D40">
-        <v>9.697439089973612</v>
+        <v>0.003073196884878652</v>
       </c>
       <c r="E40">
-        <v>10.29039921579506</v>
+        <v>0.04656362055900676</v>
       </c>
       <c r="F40">
-        <v>6.499369033479139</v>
+        <v>6.899369365142097</v>
       </c>
       <c r="K40">
-        <v>6.861926551746461</v>
+        <v>8.24535171523654</v>
       </c>
       <c r="L40">
-        <v>8.441672526541758</v>
+        <v>8.519098204862482</v>
       </c>
       <c r="M40">
-        <v>8.356206678317875</v>
+        <v>8.242172846726469</v>
       </c>
       <c r="N40">
-        <v>0.001857036000863034</v>
+        <v>0.0131316602586759</v>
       </c>
       <c r="O40">
-        <v>0.0004152411512422437</v>
+        <v>0.001190600986117563</v>
       </c>
       <c r="P40">
-        <v>0.0001726853464668891</v>
+        <v>0.01270906141592751</v>
       </c>
       <c r="Q40">
-        <v>0.0001594491898385405</v>
+        <v>0.001031096235364077</v>
       </c>
       <c r="R40">
-        <v>0.001385152242385114</v>
+        <v>5.212281563872476E-06</v>
       </c>
       <c r="S40">
-        <v>4.301753685979187E-05</v>
+        <v>0</v>
       </c>
       <c r="T40">
-        <v>0.002552662322927523</v>
+        <v>0.003730832556933608</v>
       </c>
       <c r="U40">
-        <v>0.002531535057740084</v>
+        <v>0.0009503529292663681</v>
       </c>
       <c r="V40">
-        <v>35.43346151694112</v>
+        <v>10.95227655846226</v>
       </c>
       <c r="W40">
-        <v>0.0003471460543989953</v>
+        <v>-0.8591588033632291</v>
       </c>
       <c r="X40">
-        <v>1.656903672412677E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:24">
@@ -2932,61 +2932,61 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>2.348496708274581E-08</v>
+        <v>5.393780437021733E-06</v>
       </c>
       <c r="C41">
-        <v>10.29988111051062</v>
+        <v>0.04340408845781571</v>
       </c>
       <c r="D41">
-        <v>9.70385128674582</v>
+        <v>0.003131041901070594</v>
       </c>
       <c r="E41">
-        <v>10.30012189910868</v>
+        <v>0.04731773094735504</v>
       </c>
       <c r="F41">
-        <v>6.499349775829224</v>
+        <v>6.899350123229562</v>
       </c>
       <c r="K41">
-        <v>6.851856168043852</v>
+        <v>8.243717129747994</v>
       </c>
       <c r="L41">
-        <v>8.442782188399875</v>
+        <v>8.512675205223157</v>
       </c>
       <c r="M41">
-        <v>8.358114191500237</v>
+        <v>8.240609079483729</v>
       </c>
       <c r="N41">
-        <v>0.001880671982004359</v>
+        <v>0.01332741532871784</v>
       </c>
       <c r="O41">
-        <v>0.0004164111887514483</v>
+        <v>0.001209612414071135</v>
       </c>
       <c r="P41">
-        <v>0.0001729023326411243</v>
+        <v>0.0129005034680679</v>
       </c>
       <c r="Q41">
-        <v>0.0001596007635449952</v>
+        <v>0.001050240337292825</v>
       </c>
       <c r="R41">
-        <v>0.001407154450672414</v>
+        <v>5.297728802624485E-06</v>
       </c>
       <c r="S41">
-        <v>4.350443951608927E-05</v>
+        <v>0</v>
       </c>
       <c r="T41">
-        <v>0.002553008671537153</v>
+        <v>0.003776414190174054</v>
       </c>
       <c r="U41">
-        <v>0.002531706966309685</v>
+        <v>0.0009629679386593033</v>
       </c>
       <c r="V41">
-        <v>35.43441863664172</v>
+        <v>11.01577323921459</v>
       </c>
       <c r="W41">
-        <v>0.0003529118077809551</v>
+        <v>-0.8386022406597462</v>
       </c>
       <c r="X41">
-        <v>1.657407191597807E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:24">
@@ -2994,61 +2994,61 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>2.360214272178326E-08</v>
+        <v>5.378364010277598E-06</v>
       </c>
       <c r="C42">
-        <v>10.3098149409067</v>
+        <v>0.04407530590042813</v>
       </c>
       <c r="D42">
-        <v>9.710411119307263</v>
+        <v>0.003191119337956254</v>
       </c>
       <c r="E42">
-        <v>10.31006184961883</v>
+        <v>0.04809693147758157</v>
       </c>
       <c r="F42">
-        <v>6.49933032543595</v>
+        <v>6.899330689204001</v>
       </c>
       <c r="K42">
-        <v>6.841653766644776</v>
+        <v>8.242059003799449</v>
       </c>
       <c r="L42">
-        <v>8.443934167166695</v>
+        <v>8.506053010979313</v>
       </c>
       <c r="M42">
-        <v>8.360074670466416</v>
+        <v>8.239011558896459</v>
       </c>
       <c r="N42">
-        <v>0.001905076328558574</v>
+        <v>0.01352937871062862</v>
       </c>
       <c r="O42">
-        <v>0.0004176164727104696</v>
+        <v>0.001229311606873196</v>
       </c>
       <c r="P42">
-        <v>0.0001731240254593931</v>
+        <v>0.01309800785358082</v>
       </c>
       <c r="Q42">
-        <v>0.0001597556037491154</v>
+        <v>0.001070113139091569</v>
       </c>
       <c r="R42">
-        <v>0.001429881950858353</v>
+        <v>5.386024282668226E-06</v>
       </c>
       <c r="S42">
-        <v>4.400308333323564E-05</v>
+        <v>0</v>
       </c>
       <c r="T42">
-        <v>0.002553363699957611</v>
+        <v>0.003823304961032633</v>
       </c>
       <c r="U42">
-        <v>0.002531882962805114</v>
+        <v>0.0009759962310379348</v>
       </c>
       <c r="V42">
-        <v>35.4353892111593</v>
+        <v>11.08062470150381</v>
       </c>
       <c r="W42">
-        <v>0.0003588694886711324</v>
+        <v>-0.8177497126591327</v>
       </c>
       <c r="X42">
-        <v>1.657917311667761E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:24">
@@ -3056,61 +3056,61 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>2.372162194873056E-08</v>
+        <v>5.36243994527626E-06</v>
       </c>
       <c r="C43">
-        <v>10.31997432771347</v>
+        <v>0.0447682582150463</v>
       </c>
       <c r="D43">
-        <v>9.717124639108174</v>
+        <v>0.003253559971895029</v>
       </c>
       <c r="E43">
-        <v>10.32022761429817</v>
+        <v>0.04890248712428073</v>
       </c>
       <c r="F43">
-        <v>6.49931067583332</v>
+        <v>6.899311056635166</v>
       </c>
       <c r="K43">
-        <v>6.831316996184123</v>
+        <v>8.240391789576423</v>
       </c>
       <c r="L43">
-        <v>8.445138961125274</v>
+        <v>8.499300621234244</v>
       </c>
       <c r="M43">
-        <v>8.362096079503573</v>
+        <v>8.237410792749676</v>
       </c>
       <c r="N43">
-        <v>0.001930287512556</v>
+        <v>0.01373785442425159</v>
       </c>
       <c r="O43">
-        <v>0.0004188617367210589</v>
+        <v>0.001249758022351003</v>
       </c>
       <c r="P43">
-        <v>0.0001733506088782114</v>
+        <v>0.0133018704758603</v>
       </c>
       <c r="Q43">
-        <v>0.0001599137357101051</v>
+        <v>0.001090744780285189</v>
       </c>
       <c r="R43">
-        <v>0.001453371423189287</v>
+        <v>5.477312829832095E-06</v>
       </c>
       <c r="S43">
-        <v>4.451334545723941E-05</v>
+        <v>0</v>
       </c>
       <c r="T43">
-        <v>0.002553727780248332</v>
+        <v>0.003871564431032544</v>
       </c>
       <c r="U43">
-        <v>0.002532063293852835</v>
+        <v>0.0009894770163285617</v>
       </c>
       <c r="V43">
-        <v>35.4363737254215</v>
+        <v>11.14688512470085</v>
       </c>
       <c r="W43">
-        <v>0.0003650291151566189</v>
+        <v>-0.7965629697463612</v>
       </c>
       <c r="X43">
-        <v>1.658434150190794E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:24">
@@ -3118,61 +3118,61 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>2.38434842000055E-08</v>
+        <v>5.345982897753603E-06</v>
       </c>
       <c r="C44">
-        <v>10.33036828786184</v>
+        <v>0.04548402887441096</v>
       </c>
       <c r="D44">
-        <v>9.723998195704505</v>
+        <v>0.003318504909356053</v>
       </c>
       <c r="E44">
-        <v>10.33062822537526</v>
+        <v>0.04973574847693542</v>
       </c>
       <c r="F44">
-        <v>6.499290820212558</v>
+        <v>6.89929121875257</v>
       </c>
       <c r="K44">
-        <v>6.820838669934698</v>
+        <v>8.238715931965473</v>
       </c>
       <c r="L44">
-        <v>8.446387149058641</v>
+        <v>8.492419073712375</v>
       </c>
       <c r="M44">
-        <v>8.364173208701041</v>
+        <v>8.235806005334677</v>
       </c>
       <c r="N44">
-        <v>0.001956346577656602</v>
+        <v>0.01395316643118091</v>
       </c>
       <c r="O44">
-        <v>0.0004201447444937888</v>
+        <v>0.001270993678280194</v>
       </c>
       <c r="P44">
-        <v>0.0001735822791052477</v>
+        <v>0.013512407125784</v>
       </c>
       <c r="Q44">
-        <v>0.0001600754326640814</v>
+        <v>0.001112178716278531</v>
       </c>
       <c r="R44">
-        <v>0.001477662079701909</v>
+        <v>5.571749257932648E-06</v>
       </c>
       <c r="S44">
-        <v>4.503652096635563E-05</v>
+        <v>0</v>
       </c>
       <c r="T44">
-        <v>0.00255410130587584</v>
+        <v>0.003921255593355026</v>
       </c>
       <c r="U44">
-        <v>0.002532248105570558</v>
+        <v>0.001003434439154968</v>
       </c>
       <c r="V44">
-        <v>35.43737266685703</v>
+        <v>11.214611515452</v>
       </c>
       <c r="W44">
-        <v>0.0003714003813202074</v>
+        <v>-0.7750308938390731</v>
       </c>
       <c r="X44">
-        <v>1.658958066503265E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:24">
@@ -3180,61 +3180,61 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>2.396781273152157E-08</v>
+        <v>5.328965835751294E-06</v>
       </c>
       <c r="C45">
-        <v>10.34100635965407</v>
+        <v>0.04622377490888561</v>
       </c>
       <c r="D45">
-        <v>9.731038520361521</v>
+        <v>0.003386106609376917</v>
       </c>
       <c r="E45">
-        <v>10.341273237628</v>
+        <v>0.05059815903632942</v>
       </c>
       <c r="F45">
-        <v>6.499270751396425</v>
+        <v>6.899271168420407</v>
       </c>
       <c r="K45">
-        <v>6.810214359819052</v>
+        <v>8.237025653522656</v>
       </c>
       <c r="L45">
-        <v>8.447686775861174</v>
+        <v>8.485394572815887</v>
       </c>
       <c r="M45">
-        <v>8.36631238560118</v>
+        <v>8.234196023935535</v>
       </c>
       <c r="N45">
-        <v>0.001983297487010335</v>
+        <v>0.01417566069000373</v>
       </c>
       <c r="O45">
-        <v>0.000421469442021166</v>
+        <v>0.001293064426287312</v>
       </c>
       <c r="P45">
-        <v>0.0001738192413235138</v>
+        <v>0.01372995499261743</v>
       </c>
       <c r="Q45">
-        <v>0.0001602409067990385</v>
+        <v>0.001134463043276005</v>
       </c>
       <c r="R45">
-        <v>0.001502795861434111</v>
+        <v>5.669499244913923E-06</v>
       </c>
       <c r="S45">
-        <v>4.557265057271106E-05</v>
+        <v>0</v>
       </c>
       <c r="T45">
-        <v>0.00255448469535488</v>
+        <v>0.003972445438165553</v>
       </c>
       <c r="U45">
-        <v>0.002532437644400107</v>
+        <v>0.001017894081860362</v>
       </c>
       <c r="V45">
-        <v>35.43838655705777</v>
+        <v>11.28386384421321</v>
       </c>
       <c r="W45">
-        <v>0.0003779943432985427</v>
+        <v>-0.7531517318554464</v>
       </c>
       <c r="X45">
-        <v>1.659489282009047E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:24">
@@ -3242,61 +3242,61 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>2.409469588048581E-08</v>
+        <v>5.311359886143535E-06</v>
       </c>
       <c r="C46">
-        <v>10.35189864249858</v>
+        <v>0.04698873327137684</v>
       </c>
       <c r="D46">
-        <v>9.738252731683147</v>
+        <v>0.003456530045182509</v>
       </c>
       <c r="E46">
-        <v>10.35217276825357</v>
+        <v>0.05149126324045274</v>
       </c>
       <c r="F46">
-        <v>6.499250461813004</v>
+        <v>6.899250898111134</v>
       </c>
       <c r="K46">
-        <v>6.799439257833511</v>
+        <v>8.235320741141958</v>
       </c>
       <c r="L46">
-        <v>8.449044790241031</v>
+        <v>8.478175582712268</v>
       </c>
       <c r="M46">
-        <v>8.368518617017456</v>
+        <v>8.23256216585915</v>
       </c>
       <c r="N46">
-        <v>0.002011187273527999</v>
+        <v>0.01440570705185581</v>
       </c>
       <c r="O46">
-        <v>0.0004228389884591786</v>
+        <v>0.001316009644718062</v>
       </c>
       <c r="P46">
-        <v>0.0001740617115828795</v>
+        <v>0.01395487449171282</v>
       </c>
       <c r="Q46">
-        <v>0.0001604101000167714</v>
+        <v>0.001157658349922249</v>
       </c>
       <c r="R46">
-        <v>0.001528817704485208</v>
+        <v>5.770740302858815E-06</v>
       </c>
       <c r="S46">
-        <v>4.612200174491295E-05</v>
+        <v>0</v>
       </c>
       <c r="T46">
-        <v>0.002554878392693358</v>
+        <v>0.00402520528381386</v>
       </c>
       <c r="U46">
-        <v>0.002532632163883974</v>
+        <v>0.001032873783678921</v>
       </c>
       <c r="V46">
-        <v>35.43941595019378</v>
+        <v>11.35470230507793</v>
       </c>
       <c r="W46">
-        <v>0.0003848232508024657</v>
+        <v>-0.7309139633678612</v>
       </c>
       <c r="X46">
-        <v>1.660028037108324E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:24">
@@ -3304,61 +3304,61 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>2.422422267752553E-08</v>
+        <v>5.293134197408026E-06</v>
       </c>
       <c r="C47">
-        <v>10.36305584087705</v>
+        <v>0.04778022787548947</v>
       </c>
       <c r="D47">
-        <v>9.745648480353289</v>
+        <v>0.003529953992132039</v>
       </c>
       <c r="E47">
-        <v>10.36333754085817</v>
+        <v>0.05241671535014114</v>
       </c>
       <c r="F47">
-        <v>6.499229943465267</v>
+        <v>6.899230399875471</v>
       </c>
       <c r="K47">
-        <v>6.788507659419032</v>
+        <v>8.233594787833358</v>
       </c>
       <c r="L47">
-        <v>8.450462322666088</v>
+        <v>8.4707755317816</v>
       </c>
       <c r="M47">
-        <v>8.37079412625528</v>
+        <v>8.230914348219439</v>
       </c>
       <c r="N47">
-        <v>0.002040066333256523</v>
+        <v>0.0146437015501674</v>
       </c>
       <c r="O47">
-        <v>0.0004242552303430615</v>
+        <v>0.001339888125876863</v>
       </c>
       <c r="P47">
-        <v>0.0001743099227022632</v>
+        <v>0.01418755114883628</v>
       </c>
       <c r="Q47">
-        <v>0.0001605832427479274</v>
+        <v>0.001181814358795832</v>
       </c>
       <c r="R47">
-        <v>0.001555775808171395</v>
+        <v>5.875662853819884E-06</v>
       </c>
       <c r="S47">
-        <v>4.668519234420888E-05</v>
+        <v>0</v>
       </c>
       <c r="T47">
-        <v>0.002555282869580801</v>
+        <v>0.004079611311089041</v>
       </c>
       <c r="U47">
-        <v>0.002532831914808619</v>
+        <v>0.00104840935074586</v>
       </c>
       <c r="V47">
-        <v>35.44046142863269</v>
+        <v>11.42719276395233</v>
       </c>
       <c r="W47">
-        <v>0.0003918992896637005</v>
+        <v>-0.7083160496233916</v>
       </c>
       <c r="X47">
-        <v>1.660574617029048E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:24">
@@ -3366,61 +3366,61 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>2.609381310646711E-08</v>
+        <v>6.130868419122843E-06</v>
       </c>
       <c r="C48">
-        <v>10.37448931051638</v>
+        <v>0.04859967739184794</v>
       </c>
       <c r="D48">
-        <v>9.711626637849811</v>
+        <v>0.003023983892888737</v>
       </c>
       <c r="E48">
-        <v>10.3746652837102</v>
+        <v>0.05153169542833539</v>
       </c>
       <c r="F48">
-        <v>7.509229943465267</v>
+        <v>7.799230399875471</v>
       </c>
       <c r="K48">
-        <v>6.77740501758019</v>
+        <v>8.231858897317014</v>
       </c>
       <c r="L48">
-        <v>8.452279195808153</v>
+        <v>8.515802394795099</v>
       </c>
       <c r="M48">
-        <v>8.372566201652463</v>
+        <v>8.231367544674127</v>
       </c>
       <c r="N48">
-        <v>0.002069988761088254</v>
+        <v>0.01489006846543204</v>
       </c>
       <c r="O48">
-        <v>0.0004246904310366879</v>
+        <v>0.001192690901748323</v>
       </c>
       <c r="P48">
-        <v>0.0001745641204791954</v>
+        <v>0.01442839812642962</v>
       </c>
       <c r="Q48">
-        <v>0.0001600799599692604</v>
+        <v>0.001033456132013543</v>
       </c>
       <c r="R48">
-        <v>0.001583721930686713</v>
+        <v>5.984471425186919E-06</v>
       </c>
       <c r="S48">
-        <v>4.713099059488416E-05</v>
+        <v>0</v>
       </c>
       <c r="T48">
-        <v>0.002555698628002508</v>
+        <v>0.004135744680725026</v>
       </c>
       <c r="U48">
-        <v>0.002531048916941096</v>
+        <v>0.0009559117029933736</v>
       </c>
       <c r="V48">
-        <v>35.44093089558224</v>
+        <v>11.46902438324356</v>
       </c>
       <c r="W48">
-        <v>0.0003992377122914413</v>
+        <v>-0.6853246257608987</v>
       </c>
       <c r="X48">
-        <v>1.66112974912099E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:24">
@@ -3428,61 +3428,61 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>2.622717167621715E-08</v>
+        <v>6.1119157485944E-06</v>
       </c>
       <c r="C49">
-        <v>10.38699615339688</v>
+        <v>0.04945959613711132</v>
       </c>
       <c r="D49">
-        <v>9.720163919525826</v>
+        <v>0.003088848189578319</v>
       </c>
       <c r="E49">
-        <v>10.38717702219033</v>
+        <v>0.05248387669533718</v>
       </c>
       <c r="F49">
-        <v>7.509229943465267</v>
+        <v>7.799230399875471</v>
       </c>
       <c r="K49">
-        <v>6.766149505799129</v>
+        <v>8.229984060847579</v>
       </c>
       <c r="L49">
-        <v>8.453766511715584</v>
+        <v>8.507534896754972</v>
       </c>
       <c r="M49">
-        <v>8.374973613536371</v>
+        <v>8.229517128592754</v>
       </c>
       <c r="N49">
-        <v>0.002101032125806208</v>
+        <v>0.01514850955153928</v>
       </c>
       <c r="O49">
-        <v>0.0004261985215474862</v>
+        <v>0.0012148598597774</v>
       </c>
       <c r="P49">
-        <v>0.0001748374065265526</v>
+        <v>0.01468113288104125</v>
       </c>
       <c r="Q49">
-        <v>0.0001602735667284696</v>
+        <v>0.001056083889217761</v>
       </c>
       <c r="R49">
-        <v>0.001612714212575238</v>
+        <v>6.097385980379125E-06</v>
       </c>
       <c r="S49">
-        <v>4.772279767947259E-05</v>
+        <v>0</v>
       </c>
       <c r="T49">
-        <v>0.00255616371689046</v>
+        <v>0.004195741529361472</v>
       </c>
       <c r="U49">
-        <v>0.002531285009221573</v>
+        <v>0.0009705239771789719</v>
       </c>
       <c r="V49">
-        <v>35.44144971576186</v>
+        <v>11.51337828034795</v>
       </c>
       <c r="W49">
-        <v>0.0004068504613026869</v>
+        <v>-0.6623031659882663</v>
       </c>
       <c r="X49">
-        <v>1.661692524710043E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:24">
@@ -3490,61 +3490,61 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>2.636343800762746E-08</v>
+        <v>6.092256841489113E-06</v>
       </c>
       <c r="C50">
-        <v>10.39981985020209</v>
+        <v>0.05035134128994849</v>
       </c>
       <c r="D50">
-        <v>9.728923011503168</v>
+        <v>0.003156581779727852</v>
       </c>
       <c r="E50">
-        <v>10.40000584429946</v>
+        <v>0.05347240319068255</v>
       </c>
       <c r="F50">
-        <v>7.509229943465267</v>
+        <v>7.799230399875471</v>
       </c>
       <c r="K50">
-        <v>6.754718688896651</v>
+        <v>8.228088173742616</v>
       </c>
       <c r="L50">
-        <v>8.455359471616118</v>
+        <v>8.499586723447379</v>
       </c>
       <c r="M50">
-        <v>8.377464064759319</v>
+        <v>8.227703913995924</v>
       </c>
       <c r="N50">
-        <v>0.002133240464349645</v>
+        <v>0.01541646435330394</v>
       </c>
       <c r="O50">
-        <v>0.0004277759134851098</v>
+        <v>0.001237366617509493</v>
       </c>
       <c r="P50">
-        <v>0.0001751174803688234</v>
+        <v>0.01494315305396093</v>
       </c>
       <c r="Q50">
-        <v>0.0001604717574635679</v>
+        <v>0.001078902838497163</v>
       </c>
       <c r="R50">
-        <v>0.001642810201323234</v>
+        <v>6.214643403078724E-06</v>
       </c>
       <c r="S50">
-        <v>4.832967229714861E-05</v>
+        <v>0</v>
       </c>
       <c r="T50">
-        <v>0.002556642153576399</v>
+        <v>0.00425776494382652</v>
       </c>
       <c r="U50">
-        <v>0.002531527755312657</v>
+        <v>0.0009857412788502121</v>
       </c>
       <c r="V50">
-        <v>35.44201677012765</v>
+        <v>11.56027303091168</v>
       </c>
       <c r="W50">
-        <v>0.0004147541447195141</v>
+        <v>-0.6388829943476395</v>
       </c>
       <c r="X50">
-        <v>1.662264065555167E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:24">
@@ -3552,61 +3552,61 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>2.650272394599199E-08</v>
+        <v>6.071851523043312E-06</v>
       </c>
       <c r="C51">
-        <v>10.41297469017658</v>
+        <v>0.05127672873132537</v>
       </c>
       <c r="D51">
-        <v>9.737914217063464</v>
+        <v>0.00322737853476533</v>
       </c>
       <c r="E51">
-        <v>10.41316605459508</v>
+        <v>0.05449939128136963</v>
       </c>
       <c r="F51">
-        <v>7.509229943465267</v>
+        <v>7.799230399875471</v>
       </c>
       <c r="K51">
-        <v>6.743105622264462</v>
+        <v>8.22617992280418</v>
       </c>
       <c r="L51">
-        <v>8.457024463419241</v>
+        <v>8.491405194965159</v>
       </c>
       <c r="M51">
-        <v>8.380036408449728</v>
+        <v>8.225867174443536</v>
       </c>
       <c r="N51">
-        <v>0.002166680945739145</v>
+        <v>0.0156944858775352</v>
       </c>
       <c r="O51">
-        <v>0.0004294102936878651</v>
+        <v>0.001260842807475604</v>
       </c>
       <c r="P51">
-        <v>0.0001754046514061814</v>
+        <v>0.0152150010974014</v>
       </c>
       <c r="Q51">
-        <v>0.0001606750451960544</v>
+        <v>0.00110273241829596</v>
       </c>
       <c r="R51">
-        <v>0.001674074525421784</v>
+        <v>6.336499156080268E-06</v>
       </c>
       <c r="S51">
-        <v>4.895292945969757E-05</v>
+        <v>0</v>
       </c>
       <c r="T51">
-        <v>0.002557134592758042</v>
+        <v>0.004321922270590762</v>
       </c>
       <c r="U51">
-        <v>0.00253177748240802</v>
+        <v>0.001001559875552158</v>
       </c>
       <c r="V51">
-        <v>35.44263112084547</v>
+        <v>11.60972467862067</v>
       </c>
       <c r="W51">
-        <v>0.0004229656895971759</v>
+        <v>-0.6150328221840766</v>
       </c>
       <c r="X51">
-        <v>1.662844718886777E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:24">
@@ -3614,61 +3614,61 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>2.66451434054983E-08</v>
+        <v>6.050656519745518E-06</v>
       </c>
       <c r="C52">
-        <v>10.42647589963884</v>
+        <v>0.05223771573525657</v>
       </c>
       <c r="D52">
-        <v>9.747148633468925</v>
+        <v>0.003301450092761604</v>
       </c>
       <c r="E52">
-        <v>10.42667289598459</v>
+        <v>0.0555671238980532</v>
       </c>
       <c r="F52">
-        <v>7.509229943465267</v>
+        <v>7.799230399875471</v>
       </c>
       <c r="K52">
-        <v>6.73130307035983</v>
+        <v>8.224244630711773</v>
       </c>
       <c r="L52">
-        <v>8.458774854329011</v>
+        <v>8.483000724838099</v>
       </c>
       <c r="M52">
-        <v>8.38270108572223</v>
+        <v>8.224013652043103</v>
       </c>
       <c r="N52">
-        <v>0.002201426358780171</v>
+        <v>0.01598315873893639</v>
       </c>
       <c r="O52">
-        <v>0.0004311082891188011</v>
+        <v>0.001285354235239021</v>
       </c>
       <c r="P52">
-        <v>0.000175699243530384</v>
+        <v>0.01549724647098351</v>
       </c>
       <c r="Q52">
-        <v>0.000160883516098086</v>
+        <v>0.001127632249328421</v>
       </c>
       <c r="R52">
-        <v>0.001706576957341026</v>
+        <v>6.463229139201873E-06</v>
       </c>
       <c r="S52">
-        <v>4.959246782011587E-05</v>
+        <v>0</v>
       </c>
       <c r="T52">
-        <v>0.002557641734965042</v>
+        <v>0.004388329518491534</v>
       </c>
       <c r="U52">
-        <v>0.002532034622516588</v>
+        <v>0.001018022113082726</v>
       </c>
       <c r="V52">
-        <v>35.44329202232066</v>
+        <v>11.66175964230266</v>
       </c>
       <c r="W52">
-        <v>0.0004315028872640835</v>
+        <v>-0.5907639134504734</v>
       </c>
       <c r="X52">
-        <v>1.663434846482008E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:24">
@@ -3676,61 +3676,61 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>2.678950404415162E-08</v>
+        <v>6.027939043248466E-06</v>
       </c>
       <c r="C53">
-        <v>10.44033972139741</v>
+        <v>0.053236415034083</v>
       </c>
       <c r="D53">
-        <v>9.756669416023263</v>
+        <v>0.00337936407990438</v>
       </c>
       <c r="E53">
-        <v>10.44054261010491</v>
+        <v>0.05667763901084903</v>
       </c>
       <c r="F53">
-        <v>7.508466574526852</v>
+        <v>7.798467538928405</v>
       </c>
       <c r="K53">
-        <v>6.719303157078821</v>
+        <v>8.222295161805945</v>
       </c>
       <c r="L53">
-        <v>8.460610324099655</v>
+        <v>8.474360773058226</v>
       </c>
       <c r="M53">
-        <v>8.385459404131254</v>
+        <v>8.222150380121008</v>
       </c>
       <c r="N53">
-        <v>0.002237555298977342</v>
+        <v>0.0162831139328894</v>
       </c>
       <c r="O53">
-        <v>0.0004328722656423325</v>
+        <v>0.001311073989876326</v>
       </c>
       <c r="P53">
-        <v>0.0001760016053147166</v>
+        <v>0.01579050390407851</v>
       </c>
       <c r="Q53">
-        <v>0.0001610979964283314</v>
+        <v>0.001153770021257059</v>
       </c>
       <c r="R53">
-        <v>0.001740392967331249</v>
+        <v>6.595131774695788E-06</v>
       </c>
       <c r="S53">
-        <v>5.024955321753446E-05</v>
+        <v>0</v>
       </c>
       <c r="T53">
-        <v>0.002558164329096644</v>
+        <v>0.004457111302275388</v>
       </c>
       <c r="U53">
-        <v>0.002532300849334595</v>
+        <v>0.00103523863739392</v>
       </c>
       <c r="V53">
-        <v>35.44399923727654</v>
+        <v>11.71643212126849</v>
       </c>
       <c r="W53">
-        <v>0.0004403854924652999</v>
+        <v>-0.5660331480338172</v>
       </c>
       <c r="X53">
-        <v>1.664034842146059E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:24">
@@ -3738,61 +3738,61 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>2.693853534637413E-08</v>
+        <v>6.00500467121691E-06</v>
       </c>
       <c r="C54">
-        <v>10.45458285275937</v>
+        <v>0.05427510359562839</v>
       </c>
       <c r="D54">
-        <v>9.766426622493606</v>
+        <v>0.003460718540205198</v>
       </c>
       <c r="E54">
-        <v>10.4547919515826</v>
+        <v>0.05783442602241133</v>
       </c>
       <c r="F54">
-        <v>7.50844755404635</v>
+        <v>7.798448541980808</v>
       </c>
       <c r="K54">
-        <v>6.707097617727331</v>
+        <v>8.220321070841658</v>
       </c>
       <c r="L54">
-        <v>8.462541664135051</v>
+        <v>8.465487199991722</v>
       </c>
       <c r="M54">
-        <v>8.388318685487716</v>
+        <v>8.220262722107998</v>
       </c>
       <c r="N54">
-        <v>0.002275152862171822</v>
+        <v>0.01659503143170217</v>
       </c>
       <c r="O54">
-        <v>0.0004347063766758526</v>
+        <v>0.00133788166878135</v>
       </c>
       <c r="P54">
-        <v>0.0001763120971665163</v>
+        <v>0.01609543585997062</v>
       </c>
       <c r="Q54">
-        <v>0.0001613176586813121</v>
+        <v>0.001181044233557365</v>
       </c>
       <c r="R54">
-        <v>0.001775604288458618</v>
+        <v>6.732530353335284E-06</v>
       </c>
       <c r="S54">
-        <v>5.092429024612031E-05</v>
+        <v>0</v>
       </c>
       <c r="T54">
-        <v>0.002558703151591686</v>
+        <v>0.004528400316127085</v>
       </c>
       <c r="U54">
-        <v>0.002532574087927907</v>
+        <v>0.001053119662855123</v>
       </c>
       <c r="V54">
-        <v>35.4447519978177</v>
+        <v>11.77376848872122</v>
       </c>
       <c r="W54">
-        <v>0.000449634764196531</v>
+        <v>-0.5408412789242121</v>
       </c>
       <c r="X54">
-        <v>1.664645119113633E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:24">
@@ -3800,61 +3800,61 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>2.709108948548476E-08</v>
+        <v>5.981129010805357E-06</v>
       </c>
       <c r="C55">
-        <v>10.46922447467992</v>
+        <v>0.05535626072446719</v>
       </c>
       <c r="D55">
-        <v>9.776464992168059</v>
+        <v>0.003546112433484328</v>
       </c>
       <c r="E55">
-        <v>10.46944010455564</v>
+        <v>0.05903997939185874</v>
       </c>
       <c r="F55">
-        <v>7.50842826788843</v>
+        <v>7.798429280544214</v>
       </c>
       <c r="K55">
-        <v>6.694676703358465</v>
+        <v>8.218332947810865</v>
       </c>
       <c r="L55">
-        <v>8.464573192011796</v>
+        <v>8.456399214244433</v>
       </c>
       <c r="M55">
-        <v>8.39128370747696</v>
+        <v>8.218370692791165</v>
       </c>
       <c r="N55">
-        <v>0.002314311298033438</v>
+        <v>0.01691965163942389</v>
       </c>
       <c r="O55">
-        <v>0.0004366150467851466</v>
+        <v>0.001365968780155149</v>
       </c>
       <c r="P55">
-        <v>0.0001766311277725844</v>
+        <v>0.01641276334138367</v>
       </c>
       <c r="Q55">
-        <v>0.0001615432932918099</v>
+        <v>0.001209625893261796</v>
       </c>
       <c r="R55">
-        <v>0.001812299607569522</v>
+        <v>6.875775680001992E-06</v>
       </c>
       <c r="S55">
-        <v>5.161764398617166E-05</v>
+        <v>0</v>
       </c>
       <c r="T55">
-        <v>0.002559259089116447</v>
+        <v>0.004602342457686062</v>
       </c>
       <c r="U55">
-        <v>0.002532856079245006</v>
+        <v>0.001071789151763904</v>
       </c>
       <c r="V55">
-        <v>35.44555004464148</v>
+        <v>11.83382532791831</v>
       </c>
       <c r="W55">
-        <v>0.0004592732622977948</v>
+        <v>-0.5151491240921722</v>
       </c>
       <c r="X55">
-        <v>1.665266164832077E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:24">
@@ -3862,61 +3862,61 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>2.724730944248848E-08</v>
+        <v>5.956253087748846E-06</v>
       </c>
       <c r="C56">
-        <v>10.48428446343018</v>
+        <v>0.05648256829601029</v>
       </c>
       <c r="D56">
-        <v>9.786799109629174</v>
+        <v>0.003635852401881249</v>
       </c>
       <c r="E56">
-        <v>10.48450696884303</v>
+        <v>0.06029743559210694</v>
       </c>
       <c r="F56">
-        <v>7.508408704366672</v>
+        <v>7.798409743018428</v>
       </c>
       <c r="K56">
-        <v>6.682032927893306</v>
+        <v>8.216318804395277</v>
       </c>
       <c r="L56">
-        <v>8.466716484686863</v>
+        <v>8.447017397709534</v>
       </c>
       <c r="M56">
-        <v>8.39436370859236</v>
+        <v>8.2164511876341</v>
       </c>
       <c r="N56">
-        <v>0.002355130781756227</v>
+        <v>0.01725777517984278</v>
       </c>
       <c r="O56">
-        <v>0.0004386047316762322</v>
+        <v>0.001395413184546297</v>
       </c>
       <c r="P56">
-        <v>0.0001769591241743404</v>
+        <v>0.01674326632938632</v>
       </c>
       <c r="Q56">
-        <v>0.0001617751633277033</v>
+        <v>0.001239623125451849</v>
       </c>
       <c r="R56">
-        <v>0.00185057530243003</v>
+        <v>7.025249064349862E-06</v>
       </c>
       <c r="S56">
-        <v>5.233002376022104E-05</v>
+        <v>0</v>
       </c>
       <c r="T56">
-        <v>0.002559833067591913</v>
+        <v>0.004679093616510457</v>
       </c>
       <c r="U56">
-        <v>0.002533147399815728</v>
+        <v>0.001091287011739989</v>
       </c>
       <c r="V56">
-        <v>35.44639328417197</v>
+        <v>11.89666527325596</v>
       </c>
       <c r="W56">
-        <v>0.0004693263869742268</v>
+        <v>-0.4889578924556588</v>
       </c>
       <c r="X56">
-        <v>1.665898353605335E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:24">
@@ -3924,61 +3924,61 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>2.740735122559898E-08</v>
+        <v>5.930312971122738E-06</v>
       </c>
       <c r="C57">
-        <v>10.49978413795909</v>
+        <v>0.05765693976032427</v>
       </c>
       <c r="D57">
-        <v>9.797444544085506</v>
+        <v>0.003730276675454228</v>
       </c>
       <c r="E57">
-        <v>10.50001388927933</v>
+        <v>0.061610203819156</v>
       </c>
       <c r="F57">
-        <v>7.508388850986997</v>
+        <v>7.798389917003084</v>
       </c>
       <c r="K57">
-        <v>6.669153938984777</v>
+        <v>8.21428191472855</v>
       </c>
       <c r="L57">
-        <v>8.468974253513872</v>
+        <v>8.437362267959042</v>
       </c>
       <c r="M57">
-        <v>8.39756211584719</v>
+        <v>8.214515299353668</v>
       </c>
       <c r="N57">
-        <v>0.002397720249535782</v>
+        <v>0.01761027211307159</v>
       </c>
       <c r="O57">
-        <v>0.0004406789959764066</v>
+        <v>0.001426325403117642</v>
       </c>
       <c r="P57">
-        <v>0.0001772965455264879</v>
+        <v>0.0170877917339182</v>
       </c>
       <c r="Q57">
-        <v>0.000162013739034009</v>
+        <v>0.001271136694310582</v>
       </c>
       <c r="R57">
-        <v>0.001890536308622692</v>
+        <v>7.181365710224304E-06</v>
       </c>
       <c r="S57">
-        <v>5.306257114073403E-05</v>
+        <v>0</v>
       </c>
       <c r="T57">
-        <v>0.002560426082431384</v>
+        <v>0.004758822652172022</v>
       </c>
       <c r="U57">
-        <v>0.002533448573637592</v>
+        <v>0.001111679561674845</v>
       </c>
       <c r="V57">
-        <v>35.44728176061954</v>
+        <v>11.96236307799472</v>
       </c>
       <c r="W57">
-        <v>0.0004798207891635246</v>
+        <v>-0.4622378352052934</v>
       </c>
       <c r="X57">
-        <v>1.666542303050761E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:24">
@@ -3986,61 +3986,61 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>2.757137290055596E-08</v>
+        <v>5.903239186413528E-06</v>
       </c>
       <c r="C58">
-        <v>10.51574640145622</v>
+        <v>0.05888254573952587</v>
       </c>
       <c r="D58">
-        <v>9.808418237963529</v>
+        <v>0.003829759249820746</v>
       </c>
       <c r="E58">
-        <v>10.51598379736569</v>
+        <v>0.06298199597946887</v>
       </c>
       <c r="F58">
-        <v>7.508368694371739</v>
+        <v>7.798369789224327</v>
       </c>
       <c r="K58">
-        <v>6.656030545150386</v>
+        <v>8.212223958964332</v>
       </c>
       <c r="L58">
-        <v>8.471358859751897</v>
+        <v>8.427423547180053</v>
       </c>
       <c r="M58">
-        <v>8.400888776225573</v>
+        <v>8.212562481265561</v>
       </c>
       <c r="N58">
-        <v>0.00244219845984395</v>
+        <v>0.01797808908375235</v>
       </c>
       <c r="O58">
-        <v>0.0004428450967083446</v>
+        <v>0.001458819148553665</v>
       </c>
       <c r="P58">
-        <v>0.0001776438820376806</v>
+        <v>0.01744726116663656</v>
       </c>
       <c r="Q58">
-        <v>0.0001622592735035441</v>
+        <v>0.001304284561734025</v>
       </c>
       <c r="R58">
-        <v>0.001932297075383646</v>
+        <v>7.344578567274856E-06</v>
       </c>
       <c r="S58">
-        <v>5.381575719500032E-05</v>
+        <v>0</v>
       </c>
       <c r="T58">
-        <v>0.002561039207631243</v>
+        <v>0.00484171226786514</v>
       </c>
       <c r="U58">
-        <v>0.002533760270426991</v>
+        <v>0.001133031851220311</v>
       </c>
       <c r="V58">
-        <v>35.4482156797131</v>
+        <v>12.03100423921319</v>
       </c>
       <c r="W58">
-        <v>0.0004907861353464854</v>
+        <v>-0.4349643855921066</v>
       </c>
       <c r="X58">
-        <v>1.667198472742481E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:24">
@@ -4048,61 +4048,61 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>2.7739548618178E-08</v>
+        <v>5.874956185677485E-06</v>
       </c>
       <c r="C59">
-        <v>10.53219589363047</v>
+        <v>0.06016284309975158</v>
       </c>
       <c r="D59">
-        <v>9.819738307556255</v>
+        <v>0.003934714661792319</v>
       </c>
       <c r="E59">
-        <v>10.5324413640718</v>
+        <v>0.06441686076637812</v>
       </c>
       <c r="F59">
-        <v>7.508348220173856</v>
+        <v>7.798349345449174</v>
       </c>
       <c r="K59">
-        <v>6.642651348657903</v>
+        <v>8.210140287435591</v>
       </c>
       <c r="L59">
-        <v>8.47388205609478</v>
+        <v>8.417148447428964</v>
       </c>
       <c r="M59">
-        <v>8.404352731661513</v>
+        <v>8.210581673011712</v>
       </c>
       <c r="N59">
-        <v>0.002488695049684313</v>
+        <v>0.01836225815201279</v>
       </c>
       <c r="O59">
-        <v>0.0004451101228762618</v>
+        <v>0.001493012340197897</v>
       </c>
       <c r="P59">
-        <v>0.0001780016636314977</v>
+        <v>0.01782267922721568</v>
       </c>
       <c r="Q59">
-        <v>0.0001625121097601563</v>
+        <v>0.001339202779567913</v>
       </c>
       <c r="R59">
-        <v>0.001975982687434544</v>
+        <v>7.515382720002179E-06</v>
       </c>
       <c r="S59">
-        <v>5.459032949815347E-05</v>
+        <v>0</v>
       </c>
       <c r="T59">
-        <v>0.002561673601519714</v>
+        <v>0.004927960649647578</v>
       </c>
       <c r="U59">
-        <v>0.002534083182059368</v>
+        <v>0.001155408522171411</v>
       </c>
       <c r="V59">
-        <v>35.44919540012898</v>
+        <v>12.1026839730913</v>
       </c>
       <c r="W59">
-        <v>0.0005022547633637419</v>
+        <v>-0.4071183244151833</v>
       </c>
       <c r="X59">
-        <v>1.667867432567105E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:24">
@@ -4110,61 +4110,61 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>2.791206170289399E-08</v>
+        <v>5.845381620767912E-06</v>
       </c>
       <c r="C60">
-        <v>10.54915916948938</v>
+        <v>0.06150160806256011</v>
       </c>
       <c r="D60">
-        <v>9.831424367806312</v>
+        <v>0.004045603622828186</v>
       </c>
       <c r="E60">
-        <v>10.5494131788517</v>
+        <v>0.06591922230883542</v>
       </c>
       <c r="F60">
-        <v>7.50832741298186</v>
+        <v>7.79832857039172</v>
       </c>
       <c r="K60">
-        <v>6.629003838260658</v>
+        <v>8.208034903782041</v>
       </c>
       <c r="L60">
-        <v>8.476554498414941</v>
+        <v>8.406592099645582</v>
       </c>
       <c r="M60">
-        <v>8.407963395372374</v>
+        <v>8.208592615326145</v>
       </c>
       <c r="N60">
-        <v>0.002537351833655932</v>
+        <v>0.0187639068618179</v>
       </c>
       <c r="O60">
-        <v>0.000447481394597321</v>
+        <v>0.001529058715484541</v>
       </c>
       <c r="P60">
-        <v>0.0001783704625331963</v>
+        <v>0.01821514295215967</v>
       </c>
       <c r="Q60">
-        <v>0.0001627727652265424</v>
+        <v>0.001376024433047758</v>
       </c>
       <c r="R60">
-        <v>0.002021730124528267</v>
+        <v>7.694320403811753E-06</v>
       </c>
       <c r="S60">
-        <v>5.538702064235465E-05</v>
+        <v>0</v>
       </c>
       <c r="T60">
-        <v>0.002562330516268769</v>
+        <v>0.00501778331934939</v>
       </c>
       <c r="U60">
-        <v>0.002534418053827603</v>
+        <v>0.001178901787460856</v>
       </c>
       <c r="V60">
-        <v>35.45022143321456</v>
+        <v>12.17751293870186</v>
       </c>
       <c r="W60">
-        <v>0.0005142617825134441</v>
+        <v>-0.3786651263226268</v>
       </c>
       <c r="X60">
-        <v>1.668549808086967E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:24">
@@ -4172,61 +4172,61 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>2.808910400479306E-08</v>
+        <v>5.814425594623033E-06</v>
       </c>
       <c r="C61">
-        <v>10.5666648963597</v>
+        <v>0.06290297402450479</v>
       </c>
       <c r="D61">
-        <v>9.843497723775034</v>
+        <v>0.004162939564428394</v>
       </c>
       <c r="E61">
-        <v>10.56692794704573</v>
+        <v>0.06749392426427486</v>
       </c>
       <c r="F61">
-        <v>7.508306256212293</v>
+        <v>7.798307447607098</v>
       </c>
       <c r="K61">
-        <v>6.615074449997449</v>
+        <v>8.205900405288121</v>
       </c>
       <c r="L61">
-        <v>8.47938474594411</v>
+        <v>8.395653312596119</v>
       </c>
       <c r="M61">
-        <v>8.411727883595619</v>
+        <v>8.206572190716257</v>
       </c>
       <c r="N61">
-        <v>0.002588324283389069</v>
+        <v>0.01918426901172847</v>
       </c>
       <c r="O61">
-        <v>0.0004499652568591622</v>
+        <v>0.001567096649088003</v>
       </c>
       <c r="P61">
-        <v>0.000178750894174822</v>
+        <v>0.01862585315994289</v>
       </c>
       <c r="Q61">
-        <v>0.0001630414949370475</v>
+        <v>0.00141492302634631</v>
       </c>
       <c r="R61">
-        <v>0.002069689712427924</v>
+        <v>7.881986755124235E-06</v>
       </c>
       <c r="S61">
-        <v>5.620702864166906E-05</v>
+        <v>0</v>
       </c>
       <c r="T61">
-        <v>0.002563011308035627</v>
+        <v>0.005111414576224721</v>
       </c>
       <c r="U61">
-        <v>0.002534765683752684</v>
+        <v>0.001203583930426425</v>
       </c>
       <c r="V61">
-        <v>35.45129444257863</v>
+        <v>12.25561129721024</v>
       </c>
       <c r="W61">
-        <v>0.0005268455444673071</v>
+        <v>-0.3495890455027322</v>
       </c>
       <c r="X61">
-        <v>1.669246277500128E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:24">
@@ -4234,61 +4234,61 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>2.82708842206688E-08</v>
+        <v>5.78198978250915E-06</v>
       </c>
       <c r="C62">
-        <v>10.58474407567431</v>
+        <v>0.0643714748860067</v>
       </c>
       <c r="D62">
-        <v>9.8559813690844</v>
+        <v>0.004287296338186098</v>
       </c>
       <c r="E62">
-        <v>10.5850167122724</v>
+        <v>0.06914628017382431</v>
       </c>
       <c r="F62">
-        <v>7.50828473198623</v>
+        <v>7.798285959370707</v>
       </c>
       <c r="K62">
-        <v>6.600849879759747</v>
+        <v>8.203737633391979</v>
       </c>
       <c r="L62">
-        <v>8.482393133504551</v>
+        <v>8.384343739610511</v>
       </c>
       <c r="M62">
-        <v>8.415661877347489</v>
+        <v>8.204527459351542</v>
       </c>
       <c r="N62">
-        <v>0.002641783259052316</v>
+        <v>0.01962469832079449</v>
       </c>
       <c r="O62">
-        <v>0.0004525735216548259</v>
+        <v>0.001607303937559561</v>
       </c>
       <c r="P62">
-        <v>0.0001791436291557664</v>
+        <v>0.01905612641328281</v>
       </c>
       <c r="Q62">
-        <v>0.0001633189538108299</v>
+        <v>0.001456073064227042</v>
       </c>
       <c r="R62">
-        <v>0.00212002677952258</v>
+        <v>8.07903642400234E-06</v>
       </c>
       <c r="S62">
-        <v>5.705055918148156E-05</v>
+        <v>0</v>
       </c>
       <c r="T62">
-        <v>0.0025637174486427</v>
+        <v>0.005209110342369678</v>
       </c>
       <c r="U62">
-        <v>0.002535127014946063</v>
+        <v>0.001229556863926985</v>
       </c>
       <c r="V62">
-        <v>35.45241526493651</v>
+        <v>12.33711473857533</v>
       </c>
       <c r="W62">
-        <v>0.0005400487924524978</v>
+        <v>-0.3198584097948256</v>
       </c>
       <c r="X62">
-        <v>1.669957506012013E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:24">
@@ -4296,61 +4296,61 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>2.845761799288596E-08</v>
+        <v>5.747966472247291E-06</v>
       </c>
       <c r="C63">
-        <v>10.60343029892021</v>
+        <v>0.06591209484877134</v>
       </c>
       <c r="D63">
-        <v>9.868900451654874</v>
+        <v>0.004419317267718423</v>
       </c>
       <c r="E63">
-        <v>10.60371311273026</v>
+        <v>0.07088213120039505</v>
       </c>
       <c r="F63">
-        <v>7.508262820993683</v>
+        <v>7.798264086542304</v>
       </c>
       <c r="K63">
-        <v>6.586315282513424</v>
+        <v>8.201549741175524</v>
       </c>
       <c r="L63">
-        <v>8.485592560695387</v>
+        <v>8.372688039726986</v>
       </c>
       <c r="M63">
-        <v>8.419775546243015</v>
+        <v>8.202471065925595</v>
       </c>
       <c r="N63">
-        <v>0.002697916842062509</v>
+        <v>0.02008668279215949</v>
       </c>
       <c r="O63">
-        <v>0.0004553148292487942</v>
+        <v>0.001649884444198486</v>
       </c>
       <c r="P63">
-        <v>0.0001795493900620468</v>
+        <v>0.01950740983248937</v>
       </c>
       <c r="Q63">
-        <v>0.0001636054595533402</v>
+        <v>0.001499667747006511</v>
       </c>
       <c r="R63">
-        <v>0.002172923605685172</v>
+        <v>8.286191204104965E-06</v>
       </c>
       <c r="S63">
-        <v>5.791872292173531E-05</v>
+        <v>0</v>
       </c>
       <c r="T63">
-        <v>0.002564450536686204</v>
+        <v>0.005311150175150259</v>
       </c>
       <c r="U63">
-        <v>0.002535503031747007</v>
+        <v>0.00125693735237279</v>
       </c>
       <c r="V63">
-        <v>35.45358490546669</v>
+        <v>12.42217658543855</v>
       </c>
       <c r="W63">
-        <v>0.0005539180131349302</v>
+        <v>-0.2894321951764702</v>
       </c>
       <c r="X63">
-        <v>1.670684235874329E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:24">
@@ -4358,61 +4358,61 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>2.86495406865032E-08</v>
+        <v>5.712237385671405E-06</v>
       </c>
       <c r="C64">
-        <v>10.62276003174298</v>
+        <v>0.06753032583774642</v>
       </c>
       <c r="D64">
-        <v>9.882282220445143</v>
+        <v>0.004559725921401491</v>
       </c>
       <c r="E64">
-        <v>10.62305366615459</v>
+        <v>0.07270791241183738</v>
       </c>
       <c r="F64">
-        <v>7.508240502334654</v>
+        <v>7.798241808413</v>
       </c>
       <c r="K64">
-        <v>6.571454096214684</v>
+        <v>8.199333197089221</v>
       </c>
       <c r="L64">
-        <v>8.489000481374646</v>
+        <v>8.360621667028564</v>
       </c>
       <c r="M64">
-        <v>8.424082843002697</v>
+        <v>8.200387825026084</v>
       </c>
       <c r="N64">
-        <v>0.002756932684504975</v>
+        <v>0.0205718616960532</v>
       </c>
       <c r="O64">
-        <v>0.000458200597913199</v>
+        <v>0.001695043668139855</v>
       </c>
       <c r="P64">
-        <v>0.000179968967180697</v>
+        <v>0.01998129778210734</v>
       </c>
       <c r="Q64">
-        <v>0.0001639016668598424</v>
+        <v>0.00154594020968221</v>
       </c>
       <c r="R64">
-        <v>0.002228581628915789</v>
+        <v>8.504248867370885E-06</v>
       </c>
       <c r="S64">
-        <v>5.881226282563018E-05</v>
+        <v>0</v>
       </c>
       <c r="T64">
-        <v>0.002565212313131972</v>
+        <v>0.005417839986275983</v>
       </c>
       <c r="U64">
-        <v>0.002535894824173965</v>
+        <v>0.001285835681980253</v>
       </c>
       <c r="V64">
-        <v>35.45480454794343</v>
+        <v>12.51096495297485</v>
       </c>
       <c r="W64">
-        <v>0.0005685046143455936</v>
+        <v>-0.258281202946808</v>
       </c>
       <c r="X64">
-        <v>1.671427295189266E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:24">
@@ -4420,61 +4420,61 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>2.884690111438716E-08</v>
+        <v>5.674672411692546E-06</v>
       </c>
       <c r="C65">
-        <v>10.64277294556184</v>
+        <v>0.06923223394359357</v>
       </c>
       <c r="D65">
-        <v>9.896156471615345</v>
+        <v>0.004709338876047301</v>
       </c>
       <c r="E65">
-        <v>10.64307810204232</v>
+        <v>0.07463072924029851</v>
       </c>
       <c r="F65">
-        <v>7.508217753341556</v>
+        <v>7.798219102527915</v>
       </c>
       <c r="K65">
-        <v>6.556249159905889</v>
+        <v>8.197091028426129</v>
       </c>
       <c r="L65">
-        <v>8.492636682145886</v>
+        <v>8.348140311574676</v>
       </c>
       <c r="M65">
-        <v>8.428598801680408</v>
+        <v>8.198285204007179</v>
       </c>
       <c r="N65">
-        <v>0.002819060578737185</v>
+        <v>0.02108204596707788</v>
       </c>
       <c r="O65">
-        <v>0.000461243595871076</v>
+        <v>0.001743032008968417</v>
       </c>
       <c r="P65">
-        <v>0.0001804032185407201</v>
+        <v>0.02047955068947018</v>
       </c>
       <c r="Q65">
-        <v>0.0001642082140357057</v>
+        <v>0.001595138570244594</v>
       </c>
       <c r="R65">
-        <v>0.002287224044215523</v>
+        <v>8.734093431353882E-06</v>
       </c>
       <c r="S65">
-        <v>5.973197095238014E-05</v>
+        <v>0</v>
       </c>
       <c r="T65">
-        <v>0.002566004677698405</v>
+        <v>0.005529515778283975</v>
       </c>
       <c r="U65">
-        <v>0.002536303610336065</v>
+        <v>0.001316392002018348</v>
       </c>
       <c r="V65">
-        <v>35.45607556882586</v>
+        <v>12.60366813090148</v>
       </c>
       <c r="W65">
-        <v>0.0005838655829230704</v>
+        <v>-0.2263616623378049</v>
       </c>
       <c r="X65">
-        <v>1.672187542004705E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:24">
@@ -4482,61 +4482,61 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>2.904996680038664E-08</v>
+        <v>5.635128147910792E-06</v>
       </c>
       <c r="C66">
-        <v>10.66351229206035</v>
+        <v>0.07102453658435876</v>
       </c>
       <c r="D66">
-        <v>9.910555755729968</v>
+        <v>0.004869080978084898</v>
       </c>
       <c r="E66">
-        <v>10.66382973709401</v>
+        <v>0.07665844590237382</v>
       </c>
       <c r="F66">
-        <v>7.508194549375142</v>
+        <v>7.798195944485097</v>
       </c>
       <c r="K66">
-        <v>6.540680835323767</v>
+        <v>8.194810728058407</v>
       </c>
       <c r="L66">
-        <v>8.496519371866722</v>
+        <v>8.335192980256638</v>
       </c>
       <c r="M66">
-        <v>8.433338560943332</v>
+        <v>8.196151673345348</v>
       </c>
       <c r="N66">
-        <v>0.002884555494927911</v>
+        <v>0.02161924079924759</v>
       </c>
       <c r="O66">
-        <v>0.0004644565104778285</v>
+        <v>0.001794115652427063</v>
       </c>
       <c r="P66">
-        <v>0.0001808530797769705</v>
+        <v>0.021004117692782</v>
       </c>
       <c r="Q66">
-        <v>0.0001645257336323913</v>
+        <v>0.001647554374249692</v>
       </c>
       <c r="R66">
-        <v>0.002349098824028388</v>
+        <v>8.976707137780379E-06</v>
       </c>
       <c r="S66">
-        <v>6.067884532557627E-05</v>
+        <v>0</v>
       </c>
       <c r="T66">
-        <v>0.002566829707347359</v>
+        <v>0.005646546994291354</v>
       </c>
       <c r="U66">
-        <v>0.002536730700902135</v>
+        <v>0.00134874958682853</v>
       </c>
       <c r="V66">
-        <v>35.45739954238761</v>
+        <v>12.70049370521153</v>
       </c>
       <c r="W66">
-        <v>0.0006000638024711356</v>
+        <v>-0.1936522371444696</v>
       </c>
       <c r="X66">
-        <v>1.672965958233811E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:24">
@@ -4544,61 +4544,61 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>2.925901848880756E-08</v>
+        <v>5.593446155423986E-06</v>
       </c>
       <c r="C67">
-        <v>10.68502533595551</v>
+        <v>0.07291469245882372</v>
       </c>
       <c r="D67">
-        <v>9.925515895527278</v>
+        <v>0.00504000373433957</v>
       </c>
       <c r="E67">
-        <v>10.68535590886633</v>
+        <v>0.07879978790797695</v>
       </c>
       <c r="F67">
-        <v>7.508170863588943</v>
+        <v>7.798172307705296</v>
       </c>
       <c r="K67">
-        <v>6.524730214924625</v>
+        <v>8.192502505205747</v>
       </c>
       <c r="L67">
-        <v>8.500679371039833</v>
+        <v>8.321780843129643</v>
       </c>
       <c r="M67">
-        <v>8.438324258581881</v>
+        <v>8.193996372098747</v>
       </c>
       <c r="N67">
-        <v>0.002953701180197913</v>
+        <v>0.0221856729462996</v>
       </c>
       <c r="O67">
-        <v>0.0004678575788811298</v>
+        <v>0.001848616547031572</v>
       </c>
       <c r="P67">
-        <v>0.0001813195753811014</v>
+        <v>0.02155716235902578</v>
       </c>
       <c r="Q67">
-        <v>0.0001648549035031998</v>
+        <v>0.001703506993213084</v>
       </c>
       <c r="R67">
-        <v>0.002414482251991326</v>
+        <v>9.233184484574105E-06</v>
       </c>
       <c r="S67">
-        <v>6.165311162809208E-05</v>
+        <v>0</v>
       </c>
       <c r="T67">
-        <v>0.002567689678960079</v>
+        <v>0.00576934120593315</v>
       </c>
       <c r="U67">
-        <v>0.00253717764775789</v>
+        <v>0.00138308574708068</v>
       </c>
       <c r="V67">
-        <v>35.45877827693833</v>
+        <v>12.8016743218348</v>
       </c>
       <c r="W67">
-        <v>0.0006171700945521434</v>
+        <v>-0.1600892741207502</v>
       </c>
       <c r="X67">
-        <v>1.673763489253769E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:24">
@@ -4606,61 +4606,61 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>2.947436427427363E-08</v>
+        <v>5.549451014215581E-06</v>
       </c>
       <c r="C68">
-        <v>10.70736384890928</v>
+        <v>0.07491100683307327</v>
       </c>
       <c r="D68">
-        <v>9.941076085446156</v>
+        <v>0.005223307489321589</v>
       </c>
       <c r="E68">
-        <v>10.7077084711623</v>
+        <v>0.0810644614510577</v>
       </c>
       <c r="F68">
-        <v>7.508146666658895</v>
+        <v>7.798148163165829</v>
       </c>
       <c r="K68">
-        <v>6.508374201053886</v>
+        <v>8.190160330007435</v>
       </c>
       <c r="L68">
-        <v>8.50513874295244</v>
+        <v>8.307877192442993</v>
       </c>
       <c r="M68">
-        <v>8.443573414607021</v>
+        <v>8.191816587720954</v>
       </c>
       <c r="N68">
-        <v>0.003026814227295466</v>
+        <v>0.02278382166392513</v>
       </c>
       <c r="O68">
-        <v>0.0004714626748359672</v>
+        <v>0.001906887797278352</v>
       </c>
       <c r="P68">
-        <v>0.0001818038304363338</v>
+        <v>0.02214109339919675</v>
       </c>
       <c r="Q68">
-        <v>0.0001651965943125976</v>
+        <v>0.00176336447622262</v>
       </c>
       <c r="R68">
-        <v>0.002483683109060833</v>
+        <v>9.504748734120401E-06</v>
       </c>
       <c r="S68">
-        <v>6.265587876091888E-05</v>
+        <v>0</v>
       </c>
       <c r="T68">
-        <v>0.002568587091642497</v>
+        <v>0.00589834871942881</v>
       </c>
       <c r="U68">
-        <v>0.002537646066773169</v>
+        <v>0.00141959169799545</v>
       </c>
       <c r="V68">
-        <v>35.46021381073864</v>
+        <v>12.90746872420464</v>
       </c>
       <c r="W68">
-        <v>0.0006352624159783889</v>
+        <v>-0.1256339528860906</v>
       </c>
       <c r="X68">
-        <v>1.674581289947306E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:24">
@@ -4668,61 +4668,61 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>2.969632729067314E-08</v>
+        <v>5.50294803892567E-06</v>
       </c>
       <c r="C69">
-        <v>10.73058469022634</v>
+        <v>0.07702275529803544</v>
       </c>
       <c r="D69">
-        <v>9.957279705393622</v>
+        <v>0.005420368411617626</v>
       </c>
       <c r="E69">
-        <v>10.7309443758702</v>
+        <v>0.08346329285161207</v>
       </c>
       <c r="F69">
-        <v>7.508121926471565</v>
+        <v>7.798123479094006</v>
       </c>
       <c r="K69">
-        <v>6.491588882579025</v>
+        <v>8.187782894535221</v>
       </c>
       <c r="L69">
-        <v>8.50992967419219</v>
+        <v>8.293428132203708</v>
       </c>
       <c r="M69">
-        <v>8.449110335693646</v>
+        <v>8.189605958257927</v>
       </c>
       <c r="N69">
-        <v>0.003104249122824541</v>
+        <v>0.02341645602352049</v>
       </c>
       <c r="O69">
-        <v>0.0004752923375238062</v>
+        <v>0.001969332914822004</v>
       </c>
       <c r="P69">
-        <v>0.0001823070800158409</v>
+        <v>0.02275860033625657</v>
       </c>
       <c r="Q69">
-        <v>0.0001655514518371882</v>
+        <v>0.001827553615141115</v>
       </c>
       <c r="R69">
-        <v>0.002557047570585073</v>
+        <v>9.792771423033141E-06</v>
       </c>
       <c r="S69">
-        <v>6.368758304977955E-05</v>
+        <v>0</v>
       </c>
       <c r="T69">
-        <v>0.002569524698456719</v>
+        <v>0.006034068629169215</v>
       </c>
       <c r="U69">
-        <v>0.002538137831157275</v>
+        <v>0.001458481788442655</v>
       </c>
       <c r="V69">
-        <v>35.4617084481152</v>
+        <v>13.01816460087619</v>
       </c>
       <c r="W69">
-        <v>0.000654428635874631</v>
+        <v>-0.09023533104301862</v>
       </c>
       <c r="X69">
-        <v>1.675420555871049E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:24">
@@ -4730,61 +4730,61 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>2.992525513485532E-08</v>
+        <v>5.453720693552523E-06</v>
       </c>
       <c r="C70">
-        <v>10.75475047100237</v>
+        <v>0.079260329888236</v>
       </c>
       <c r="D70">
-        <v>9.974174684864884</v>
+        <v>0.005632771450507656</v>
       </c>
       <c r="E70">
-        <v>10.75512633898366</v>
+        <v>0.08600839212472396</v>
       </c>
       <c r="F70">
-        <v>7.508096607758763</v>
+        <v>7.798098220608233</v>
       </c>
       <c r="K70">
-        <v>6.474348763215379</v>
+        <v>8.185364761346783</v>
       </c>
       <c r="L70">
-        <v>8.51508884923496</v>
+        <v>8.278416678865069</v>
       </c>
       <c r="M70">
-        <v>8.454961571193794</v>
+        <v>8.187364795890121</v>
       </c>
       <c r="N70">
-        <v>0.003186404022365189</v>
+        <v>0.02408667862066732</v>
       </c>
       <c r="O70">
-        <v>0.000479370262281955</v>
+        <v>0.002036419998988756</v>
       </c>
       <c r="P70">
-        <v>0.0001828306933964238</v>
+        <v>0.02341269554629143</v>
       </c>
       <c r="Q70">
-        <v>0.0001659207291103447</v>
+        <v>0.001896557033522513</v>
       </c>
       <c r="R70">
-        <v>0.002634965070195551</v>
+        <v>1.009879553000293E-05</v>
       </c>
       <c r="S70">
-        <v>6.474859741531466E-05</v>
+        <v>0</v>
       </c>
       <c r="T70">
-        <v>0.002570505538059827</v>
+        <v>0.00617705571794192</v>
       </c>
       <c r="U70">
-        <v>0.002538655048328963</v>
+        <v>0.001500006165677139</v>
       </c>
       <c r="V70">
-        <v>35.4632647877387</v>
+        <v>13.13408375720121</v>
       </c>
       <c r="W70">
-        <v>0.000674767238796581</v>
+        <v>-0.05384280332038927</v>
       </c>
       <c r="X70">
-        <v>1.676282561839231E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:24">
@@ -4792,61 +4792,61 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>3.016152296997064E-08</v>
+        <v>5.40152749920701E-06</v>
       </c>
       <c r="C71">
-        <v>10.77993033507132</v>
+        <v>0.08163541241848532</v>
       </c>
       <c r="D71">
-        <v>9.991814122902237</v>
+        <v>0.005862350988817502</v>
       </c>
       <c r="E71">
-        <v>10.78032362363377</v>
+        <v>0.08871334543178229</v>
       </c>
       <c r="F71">
-        <v>7.508070671675377</v>
+        <v>7.798072349303226</v>
       </c>
       <c r="K71">
-        <v>6.456624921675735</v>
+        <v>8.18291460715276</v>
       </c>
       <c r="L71">
-        <v>8.520654080344086</v>
+        <v>8.262876133631362</v>
       </c>
       <c r="M71">
-        <v>8.461156080593398</v>
+        <v>8.185108724298644</v>
       </c>
       <c r="N71">
-        <v>0.003273727692045294</v>
+        <v>0.02479797728588276</v>
       </c>
       <c r="O71">
-        <v>0.0004837221062995343</v>
+        <v>0.002108703060172266</v>
       </c>
       <c r="P71">
-        <v>0.0001833761761153296</v>
+        <v>0.0241067645305743</v>
       </c>
       <c r="Q71">
-        <v>0.0001663051990840261</v>
+        <v>0.001970920451802835</v>
       </c>
       <c r="R71">
-        <v>0.002717875278994913</v>
+        <v>1.042456312774496E-05</v>
       </c>
       <c r="S71">
-        <v>6.58392472621863E-05</v>
+        <v>0</v>
       </c>
       <c r="T71">
-        <v>0.002571532973212435</v>
+        <v>0.00632792828414401</v>
       </c>
       <c r="U71">
-        <v>0.002539200061092423</v>
+        <v>0.001544463112683785</v>
       </c>
       <c r="V71">
-        <v>35.46488574871338</v>
+        <v>13.25558931312423</v>
       </c>
       <c r="W71">
-        <v>0.0006963892247592595</v>
+        <v>-0.0163775604905112</v>
       </c>
       <c r="X71">
-        <v>1.677168753916213E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:24">
@@ -4854,61 +4854,61 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>3.040553185444139E-08</v>
+        <v>5.346098498373548E-06</v>
       </c>
       <c r="C72">
-        <v>10.80620087547695</v>
+        <v>0.08416118113280759</v>
       </c>
       <c r="D72">
-        <v>10.01025714401693</v>
+        <v>0.006111241195192132</v>
       </c>
       <c r="E72">
-        <v>10.8066129589399</v>
+        <v>0.09159344259973225</v>
       </c>
       <c r="F72">
-        <v>7.508044075298945</v>
+        <v>7.798045822761082</v>
       </c>
       <c r="K72">
-        <v>6.43838615176313</v>
+        <v>8.180416989092683</v>
       </c>
       <c r="L72">
-        <v>8.526672221122457</v>
+        <v>8.246639845061214</v>
       </c>
       <c r="M72">
-        <v>8.467727619382639</v>
+        <v>8.182803097539418</v>
       </c>
       <c r="N72">
-        <v>0.003366727878236819</v>
+        <v>0.02555428642673977</v>
       </c>
       <c r="O72">
-        <v>0.0004883786891764866</v>
+        <v>0.002186780299413997</v>
       </c>
       <c r="P72">
-        <v>0.0001839452086830397</v>
+        <v>0.02484462599986668</v>
       </c>
       <c r="Q72">
-        <v>0.000166706226802464</v>
+        <v>0.002051318239967727</v>
       </c>
       <c r="R72">
-        <v>0.002806276480052671</v>
+        <v>1.077204856533646E-05</v>
       </c>
       <c r="S72">
-        <v>6.695950956592841E-05</v>
+        <v>0</v>
       </c>
       <c r="T72">
-        <v>0.002572610736949769</v>
+        <v>0.006487377123192683</v>
       </c>
       <c r="U72">
-        <v>0.002539775541615196</v>
+        <v>0.001592155216937623</v>
       </c>
       <c r="V72">
-        <v>35.46657461300715</v>
+        <v>13.38308364314379</v>
       </c>
       <c r="W72">
-        <v>0.0007194199497205074</v>
+        <v>0.0222042603723196</v>
       </c>
       <c r="X72">
-        <v>1.678080692411843E-06</v>
+        <v>1.358996594257039E-07</v>
       </c>
     </row>
     <row r="73" spans="1:24">
@@ -4916,61 +4916,61 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>3.321059368501381E-08</v>
+        <v>6.68735672455542E-06</v>
       </c>
       <c r="C73">
-        <v>10.83364721104454</v>
+        <v>0.08685255837203566</v>
       </c>
       <c r="D73">
-        <v>9.967795312009715</v>
+        <v>0.004995298217520813</v>
       </c>
       <c r="E73">
-        <v>10.83392927339784</v>
+        <v>0.09239807458093661</v>
       </c>
       <c r="F73">
-        <v>9.008044075298944</v>
+        <v>9.298045822761082</v>
       </c>
       <c r="K73">
-        <v>6.419582876471937</v>
+        <v>8.177879604411556</v>
       </c>
       <c r="L73">
-        <v>8.534433698373178</v>
+        <v>8.291457396595554</v>
       </c>
       <c r="M73">
-        <v>8.474245591061321</v>
+        <v>8.181512644397634</v>
       </c>
       <c r="N73">
-        <v>0.003465981298549243</v>
+        <v>0.02636006250009583</v>
       </c>
       <c r="O73">
-        <v>0.0004920069293341772</v>
+        <v>0.001871149740689561</v>
       </c>
       <c r="P73">
-        <v>0.000184539656334094</v>
+        <v>0.02563060212951836</v>
       </c>
       <c r="Q73">
-        <v>0.0001661060370922679</v>
+        <v>0.001735324611193328</v>
       </c>
       <c r="R73">
-        <v>0.002900735685931523</v>
+        <v>1.11434985158653E-05</v>
       </c>
       <c r="S73">
-        <v>6.776381789109447E-05</v>
+        <v>0</v>
       </c>
       <c r="T73">
-        <v>0.002573742985064753</v>
+        <v>0.006656177878580786</v>
       </c>
       <c r="U73">
-        <v>0.002537231714202637</v>
+        <v>0.001403605593118757</v>
       </c>
       <c r="V73">
-        <v>35.46772154265557</v>
+        <v>13.47034523094994</v>
       </c>
       <c r="W73">
-        <v>0.0007440045458108609</v>
+        <v>0.0619951832194694</v>
       </c>
       <c r="X73">
-        <v>1.679020856176403E-06</v>
+        <v>3.802976627825066E-07</v>
       </c>
     </row>
     <row r="74" spans="1:24">
@@ -4978,61 +4978,61 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>3.346479150639028E-08</v>
+        <v>6.623950703565397E-06</v>
       </c>
       <c r="C74">
-        <v>10.86457049315292</v>
+        <v>0.08977603194898262</v>
       </c>
       <c r="D74">
-        <v>9.990146048067649</v>
+        <v>0.005216897252634349</v>
       </c>
       <c r="E74">
-        <v>10.86486649447522</v>
+        <v>0.09563152369694541</v>
       </c>
       <c r="F74">
-        <v>9.008044075298944</v>
+        <v>9.298045822761082</v>
       </c>
       <c r="K74">
-        <v>6.400221497381655</v>
+        <v>8.175023946282959</v>
       </c>
       <c r="L74">
-        <v>8.541372022863095</v>
+        <v>8.271401680451069</v>
       </c>
       <c r="M74">
-        <v>8.481635710616521</v>
+        <v>8.178763217048848</v>
       </c>
       <c r="N74">
-        <v>0.003572194668878353</v>
+        <v>0.02723466652721748</v>
       </c>
       <c r="O74">
-        <v>0.0004973621960514791</v>
+        <v>0.001943734172457626</v>
       </c>
       <c r="P74">
-        <v>0.0001851979998784449</v>
+        <v>0.02648400489802996</v>
       </c>
       <c r="Q74">
-        <v>0.0001665774249305972</v>
+        <v>0.001811116750745435</v>
       </c>
       <c r="R74">
-        <v>0.003001913252647253</v>
+        <v>1.154148060571763E-05</v>
       </c>
       <c r="S74">
-        <v>6.894145997060112E-05</v>
+        <v>0</v>
       </c>
       <c r="T74">
-        <v>0.002575046959024115</v>
+        <v>0.006843769745918715</v>
       </c>
       <c r="U74">
-        <v>0.002537961373938777</v>
+        <v>0.001449133099890134</v>
       </c>
       <c r="V74">
-        <v>35.46897709426653</v>
+        <v>13.56395425330077</v>
       </c>
       <c r="W74">
-        <v>0.0007703037021818781</v>
+        <v>0.1021715200640685</v>
       </c>
       <c r="X74">
-        <v>1.679988925130917E-06</v>
+        <v>6.331876812387803E-07</v>
       </c>
     </row>
     <row r="75" spans="1:24">
@@ -5040,61 +5040,61 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>3.372783804226004E-08</v>
+        <v>6.556091177369742E-06</v>
       </c>
       <c r="C75">
-        <v>10.89695658371164</v>
+        <v>0.09290785175255108</v>
       </c>
       <c r="D75">
-        <v>10.01360174056294</v>
+        <v>0.00545898148146138</v>
       </c>
       <c r="E75">
-        <v>10.89726772100616</v>
+        <v>0.09909995565214105</v>
       </c>
       <c r="F75">
-        <v>9.008044075298944</v>
+        <v>9.298045822761082</v>
       </c>
       <c r="K75">
-        <v>6.380231824054373</v>
+        <v>8.172108784669575</v>
       </c>
       <c r="L75">
-        <v>8.548978052250295</v>
+        <v>8.251553339380724</v>
       </c>
       <c r="M75">
-        <v>8.489527447624644</v>
+        <v>8.176033059716104</v>
       </c>
       <c r="N75">
-        <v>0.003686077353057126</v>
+        <v>0.02817136772554192</v>
       </c>
       <c r="O75">
-        <v>0.0005031645518975198</v>
+        <v>0.00202131505807339</v>
       </c>
       <c r="P75">
-        <v>0.0001858876508024393</v>
+        <v>0.02739781557015161</v>
       </c>
       <c r="Q75">
-        <v>0.0001670708776663557</v>
+        <v>0.001891791222868597</v>
       </c>
       <c r="R75">
-        <v>0.003110541837561203</v>
+        <v>1.196894285037384E-05</v>
       </c>
       <c r="S75">
-        <v>7.014754827328458E-05</v>
+        <v>0</v>
       </c>
       <c r="T75">
-        <v>0.002576420499212461</v>
+        <v>0.007043571103179033</v>
       </c>
       <c r="U75">
-        <v>0.002538735696137276</v>
+        <v>0.001498413285473917</v>
       </c>
       <c r="V75">
-        <v>35.47034532054104</v>
+        <v>13.66436390586124</v>
       </c>
       <c r="W75">
-        <v>0.0007985037120714391</v>
+        <v>0.1436749232508134</v>
       </c>
       <c r="X75">
-        <v>1.680988408797281E-06</v>
+        <v>9.015877777626674E-07</v>
       </c>
     </row>
     <row r="76" spans="1:24">
@@ -5102,61 +5102,61 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>3.400024383188964E-08</v>
+        <v>6.483299046256046E-06</v>
       </c>
       <c r="C76">
-        <v>10.93093176998659</v>
+        <v>0.0962712698399007</v>
       </c>
       <c r="D76">
-        <v>10.03826259248529</v>
+        <v>0.00572449140643728</v>
       </c>
       <c r="E76">
-        <v>10.93125938943201</v>
+        <v>0.102829644927253</v>
       </c>
       <c r="F76">
-        <v>9.008044075298944</v>
+        <v>9.298045822761082</v>
       </c>
       <c r="K76">
-        <v>6.359568221444635</v>
+        <v>8.169135189526321</v>
       </c>
       <c r="L76">
-        <v>8.55729078940519</v>
+        <v>8.230766047937255</v>
       </c>
       <c r="M76">
-        <v>8.497981981621113</v>
+        <v>8.173260908393921</v>
       </c>
       <c r="N76">
-        <v>0.003808497076178649</v>
+        <v>0.02917713898198302</v>
       </c>
       <c r="O76">
-        <v>0.0005094485606410677</v>
+        <v>0.002106043279119638</v>
       </c>
       <c r="P76">
-        <v>0.0001866113728461348</v>
+        <v>0.02837881650658557</v>
       </c>
       <c r="Q76">
-        <v>0.0001675882320840967</v>
+        <v>0.001979940972566317</v>
       </c>
       <c r="R76">
-        <v>0.003227480079456892</v>
+        <v>1.242928680615745E-05</v>
       </c>
       <c r="S76">
-        <v>7.137957453752146E-05</v>
+        <v>0</v>
       </c>
       <c r="T76">
-        <v>0.002577869914715353</v>
+        <v>0.007256846403859999</v>
       </c>
       <c r="U76">
-        <v>0.002539559660410864</v>
+        <v>0.001551871105063175</v>
       </c>
       <c r="V76">
-        <v>35.47183098829404</v>
+        <v>13.77208260115695</v>
       </c>
       <c r="W76">
-        <v>0.0008288196148917246</v>
+        <v>0.1866102416091131</v>
       </c>
       <c r="X76">
-        <v>1.682021588927768E-06</v>
+        <v>1.187285856075199E-06</v>
       </c>
     </row>
     <row r="77" spans="1:24">
@@ -5164,61 +5164,61 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>3.428067271108092E-08</v>
+        <v>6.404049269744154E-06</v>
       </c>
       <c r="C77">
-        <v>10.96663853708664</v>
+        <v>0.09989314097723923</v>
       </c>
       <c r="D77">
-        <v>10.06428774787622</v>
+        <v>0.006017751452648904</v>
       </c>
       <c r="E77">
-        <v>10.96698412243165</v>
+        <v>0.1068497158582953</v>
       </c>
       <c r="F77">
-        <v>9.006936647509919</v>
+        <v>9.296939842974153</v>
       </c>
       <c r="K77">
-        <v>6.338179010259585</v>
+        <v>8.166095899614367</v>
       </c>
       <c r="L77">
-        <v>8.566391245050745</v>
+        <v>8.208930000051151</v>
       </c>
       <c r="M77">
-        <v>8.507060767446221</v>
+        <v>8.17043621435711</v>
       </c>
       <c r="N77">
-        <v>0.003940459016800153</v>
+        <v>0.03025998281009755</v>
       </c>
       <c r="O77">
-        <v>0.0005162772815165735</v>
+        <v>0.002199172134976776</v>
       </c>
       <c r="P77">
-        <v>0.0001873722984766163</v>
+        <v>0.02943477152794634</v>
       </c>
       <c r="Q77">
-        <v>0.0001681326716259743</v>
+        <v>0.002076877089023903</v>
       </c>
       <c r="R77">
-        <v>0.003353724099653667</v>
+        <v>1.292645827840375E-05</v>
       </c>
       <c r="S77">
-        <v>7.263598837355857E-05</v>
+        <v>0</v>
       </c>
       <c r="T77">
-        <v>0.002579402324887532</v>
+        <v>0.007485045415811873</v>
       </c>
       <c r="U77">
-        <v>0.002540441013757774</v>
+        <v>0.00161021136986326</v>
       </c>
       <c r="V77">
-        <v>35.47344004165544</v>
+        <v>13.88772192881481</v>
       </c>
       <c r="W77">
-        <v>0.0008614993359006143</v>
+        <v>0.2310782330931644</v>
       </c>
       <c r="X77">
-        <v>1.683091049487021E-06</v>
+        <v>1.492255343673315E-06</v>
       </c>
     </row>
     <row r="78" spans="1:24">
@@ -5226,61 +5226,61 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>3.457343526498733E-08</v>
+        <v>6.319644202117219E-06</v>
       </c>
       <c r="C78">
-        <v>11.00423648663708</v>
+        <v>0.1038046155407638</v>
       </c>
       <c r="D78">
-        <v>10.09171518738036</v>
+        <v>0.006341485593328178</v>
       </c>
       <c r="E78">
-        <v>11.00460179581465</v>
+        <v>0.1111974056945482</v>
       </c>
       <c r="F78">
-        <v>9.006910200095369</v>
+        <v>9.296913492239305</v>
       </c>
       <c r="K78">
-        <v>6.316006388261183</v>
+        <v>8.16298606175007</v>
       </c>
       <c r="L78">
-        <v>8.576390237796554</v>
+        <v>8.186037431726424</v>
       </c>
       <c r="M78">
-        <v>8.516841596637587</v>
+        <v>8.167555505965735</v>
       </c>
       <c r="N78">
-        <v>0.004083133255770302</v>
+        <v>0.03142918325489425</v>
       </c>
       <c r="O78">
-        <v>0.0005237268892590797</v>
+        <v>0.00230151746716626</v>
       </c>
       <c r="P78">
-        <v>0.000188173949595393</v>
+        <v>0.03057468379623478</v>
       </c>
       <c r="Q78">
-        <v>0.0001687049155456181</v>
+        <v>0.002183471364997777</v>
       </c>
       <c r="R78">
-        <v>0.003490436104290338</v>
+        <v>1.346506070667057E-05</v>
       </c>
       <c r="S78">
-        <v>7.391224820003436E-05</v>
+        <v>0</v>
       </c>
       <c r="T78">
-        <v>0.002581025712851272</v>
+        <v>0.007729830167726399</v>
       </c>
       <c r="U78">
-        <v>0.002541382126239305</v>
+        <v>0.001673843469668139</v>
       </c>
       <c r="V78">
-        <v>35.47517854722795</v>
+        <v>14.01193620056424</v>
       </c>
       <c r="W78">
-        <v>0.000896831981561139</v>
+        <v>0.277201405584659</v>
       </c>
       <c r="X78">
-        <v>1.684199680586941E-06</v>
+        <v>1.818856481765885E-06</v>
       </c>
     </row>
     <row r="79" spans="1:24">
@@ -5288,61 +5288,61 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>3.487731105103819E-08</v>
+        <v>6.228398323711511E-06</v>
       </c>
       <c r="C79">
-        <v>11.04391132573519</v>
+        <v>0.1080421429297828</v>
       </c>
       <c r="D79">
-        <v>10.12073950630007</v>
+        <v>0.006701626866458442</v>
       </c>
       <c r="E79">
-        <v>11.04429832322252</v>
+        <v>0.115912515252617</v>
       </c>
       <c r="F79">
-        <v>9.006882802473697</v>
+        <v>9.296886201100737</v>
       </c>
       <c r="K79">
-        <v>6.292985975169542</v>
+        <v>8.159799822797783</v>
       </c>
       <c r="L79">
-        <v>8.587406244921254</v>
+        <v>8.161981116396559</v>
       </c>
       <c r="M79">
-        <v>8.527412420203358</v>
+        <v>8.164609372246735</v>
       </c>
       <c r="N79">
-        <v>0.004237890054314269</v>
+        <v>0.0326956035065346</v>
       </c>
       <c r="O79">
-        <v>0.000531889762295858</v>
+        <v>0.002414805957051258</v>
       </c>
       <c r="P79">
-        <v>0.0001890204293366876</v>
+        <v>0.03180908433672335</v>
       </c>
       <c r="Q79">
-        <v>0.0001693086992886418</v>
+        <v>0.00230152650193614</v>
       </c>
       <c r="R79">
-        <v>0.003638980619772525</v>
+        <v>1.405049812869972E-05</v>
       </c>
       <c r="S79">
-        <v>7.520385009575203E-05</v>
+        <v>0</v>
       </c>
       <c r="T79">
-        <v>0.002582749347051792</v>
+        <v>0.007993133937207193</v>
       </c>
       <c r="U79">
-        <v>0.00254239288072577</v>
+        <v>0.001743713407763593</v>
       </c>
       <c r="V79">
-        <v>35.47705403574873</v>
+        <v>14.14551610255925</v>
       </c>
       <c r="W79">
-        <v>0.0009351561144385154</v>
+        <v>0.3251135396030982</v>
       </c>
       <c r="X79">
-        <v>1.685350701241523E-06</v>
+        <v>2.169832669611438E-06</v>
       </c>
     </row>
     <row r="80" spans="1:24">
@@ -5350,61 +5350,61 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>3.519295821609661E-08</v>
+        <v>6.129466856097339E-06</v>
       </c>
       <c r="C80">
-        <v>11.08587368116407</v>
+        <v>0.1126485300235703</v>
       </c>
       <c r="D80">
-        <v>10.15153202076653</v>
+        <v>0.007104566738573434</v>
       </c>
       <c r="E80">
-        <v>11.08628461688427</v>
+        <v>0.12104283557954</v>
       </c>
       <c r="F80">
-        <v>9.006854363052481</v>
+        <v>9.296857879446833</v>
       </c>
       <c r="K80">
-        <v>6.269045479944094</v>
+        <v>8.156529909899845</v>
       </c>
       <c r="L80">
-        <v>8.599587638662127</v>
+        <v>8.136746842328138</v>
       </c>
       <c r="M80">
-        <v>8.538881143864517</v>
+        <v>8.161599057435904</v>
       </c>
       <c r="N80">
-        <v>0.004406344613042379</v>
+        <v>0.03407200339514749</v>
       </c>
       <c r="O80">
-        <v>0.0005408788168155505</v>
+        <v>0.002540906408721134</v>
       </c>
       <c r="P80">
-        <v>0.0001899164170661443</v>
+        <v>0.03315033696557732</v>
       </c>
       <c r="Q80">
-        <v>0.0001699470274294612</v>
+        <v>0.002432977521970431</v>
       </c>
       <c r="R80">
-        <v>0.003800970472939652</v>
+        <v>1.468915713454971E-05</v>
       </c>
       <c r="S80">
-        <v>7.650339249094683E-05</v>
+        <v>0</v>
       </c>
       <c r="T80">
-        <v>0.002584583731884794</v>
+        <v>0.008277198506727357</v>
       </c>
       <c r="U80">
-        <v>0.002543482480002038</v>
+        <v>0.001820821180173969</v>
       </c>
       <c r="V80">
-        <v>35.47907528880645</v>
+        <v>14.28938963993721</v>
       </c>
       <c r="W80">
-        <v>0.0009768706527611261</v>
+        <v>0.3749675185489991</v>
       </c>
       <c r="X80">
-        <v>1.686547726002795E-06</v>
+        <v>2.548430864813652E-06</v>
       </c>
     </row>
     <row r="81" spans="1:24">
@@ -5412,61 +5412,61 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>3.552107935413404E-08</v>
+        <v>6.021865702179475E-06</v>
       </c>
       <c r="C81">
-        <v>11.13036614118299</v>
+        <v>0.1176744330371415</v>
       </c>
       <c r="D81">
-        <v>10.18429126181791</v>
+        <v>0.007558258140518703</v>
       </c>
       <c r="E81">
-        <v>11.1308036063408</v>
+        <v>0.1266446408318018</v>
       </c>
       <c r="F81">
-        <v>9.006824776402613</v>
+        <v>9.296828423634297</v>
       </c>
       <c r="K81">
-        <v>6.244101559156818</v>
+        <v>8.153174024514115</v>
       </c>
       <c r="L81">
-        <v>8.613098821643989</v>
+        <v>8.110313295265435</v>
       </c>
       <c r="M81">
-        <v>8.551369690947826</v>
+        <v>8.158520202877835</v>
       </c>
       <c r="N81">
-        <v>0.004590414412862704</v>
+        <v>0.03557348420402493</v>
       </c>
       <c r="O81">
-        <v>0.0005508274833543161</v>
+        <v>0.002682131762561108</v>
       </c>
       <c r="P81">
-        <v>0.0001908673403821768</v>
+        <v>0.03461306836765384</v>
       </c>
       <c r="Q81">
-        <v>0.0001706235578381788</v>
+        <v>0.00258022911494223</v>
       </c>
       <c r="R81">
-        <v>0.003978326048199114</v>
+        <v>1.538864080762351E-05</v>
       </c>
       <c r="S81">
-        <v>7.780211230659493E-05</v>
+        <v>0</v>
       </c>
       <c r="T81">
-        <v>0.002586540934355401</v>
+        <v>0.008584645046087044</v>
       </c>
       <c r="U81">
-        <v>0.00254466174729545</v>
+        <v>0.0019063874485451</v>
       </c>
       <c r="V81">
-        <v>35.48125254446333</v>
+        <v>14.44465220120756</v>
       </c>
       <c r="W81">
-        <v>0.00102244880912505</v>
+        <v>0.4269473536289894</v>
       </c>
       <c r="X81">
-        <v>1.687794922042159E-06</v>
+        <v>2.958567990326635E-06</v>
       </c>
     </row>
     <row r="82" spans="1:24">
@@ -5474,61 +5474,61 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>3.586240581901565E-08</v>
+        <v>5.904443327137591E-06</v>
       </c>
       <c r="C82">
-        <v>11.17766988515125</v>
+        <v>0.1231802417819727</v>
       </c>
       <c r="D82">
-        <v>10.21924922384661</v>
+        <v>0.008072714848587651</v>
       </c>
       <c r="E82">
-        <v>11.17813688169917</v>
+        <v>0.1327846125974833</v>
       </c>
       <c r="F82">
-        <v>9.006793920356492</v>
+        <v>9.296797713668388</v>
       </c>
       <c r="K82">
-        <v>6.218060895150246</v>
+        <v>8.149723479399391</v>
       </c>
       <c r="L82">
-        <v>8.628146056315014</v>
+        <v>8.082709161012543</v>
       </c>
       <c r="M82">
-        <v>8.565030557818313</v>
+        <v>8.155374746083524</v>
       </c>
       <c r="N82">
-        <v>0.004792393759338123</v>
+        <v>0.03721805182609812</v>
       </c>
       <c r="O82">
-        <v>0.0005619046778510101</v>
+        <v>0.002841388776730315</v>
       </c>
       <c r="P82">
-        <v>0.0001918795295093767</v>
+        <v>0.03621471033028942</v>
       </c>
       <c r="Q82">
-        <v>0.0001713426538189031</v>
+        <v>0.002746282119246698</v>
       </c>
       <c r="R82">
-        <v>0.00417335224499374</v>
+        <v>1.615807284800468E-05</v>
       </c>
       <c r="S82">
-        <v>7.908706015894598E-05</v>
+        <v>0</v>
       </c>
       <c r="T82">
-        <v>0.002588634893708399</v>
+        <v>0.008918557925964141</v>
       </c>
       <c r="U82">
-        <v>0.002545943798815179</v>
+        <v>0.002001932720772568</v>
       </c>
       <c r="V82">
-        <v>35.48359780397859</v>
+        <v>14.61260809194258</v>
       </c>
       <c r="W82">
-        <v>0.00107245802146622</v>
+        <v>0.4812540357659927</v>
       </c>
       <c r="X82">
-        <v>1.689096955242488E-06</v>
+        <v>3.404885214368446E-06</v>
       </c>
     </row>
     <row r="83" spans="1:24">
@@ -5536,61 +5536,61 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>3.621769698560968E-08</v>
+        <v>5.775846231980646E-06</v>
       </c>
       <c r="C83">
-        <v>11.22811307785149</v>
+        <v>0.1292385326732035</v>
       </c>
       <c r="D83">
-        <v>10.25667881673497</v>
+        <v>0.00866071231320042</v>
       </c>
       <c r="E83">
-        <v>11.22861310627769</v>
+        <v>0.1395422993892523</v>
       </c>
       <c r="F83">
-        <v>9.006761652313457</v>
+        <v>9.296765609615894</v>
       </c>
       <c r="K83">
-        <v>6.190814871798954</v>
+        <v>8.146167276424988</v>
       </c>
       <c r="L83">
-        <v>8.644970348592825</v>
+        <v>8.053908638437905</v>
       </c>
       <c r="M83">
-        <v>8.580044913111239</v>
+        <v>8.152145852098737</v>
       </c>
       <c r="N83">
-        <v>0.005015051079416393</v>
+        <v>0.03902734988132801</v>
       </c>
       <c r="O83">
-        <v>0.0005743180172460173</v>
+        <v>0.003022351853888139</v>
       </c>
       <c r="P83">
-        <v>0.0001929604177036122</v>
+        <v>0.03797620655192326</v>
       </c>
       <c r="Q83">
-        <v>0.0001721091928224233</v>
+        <v>0.002934969786777454</v>
       </c>
       <c r="R83">
-        <v>0.004388839886300834</v>
+        <v>1.700849773474178E-05</v>
       </c>
       <c r="S83">
-        <v>8.034149018168427E-05</v>
+        <v>0</v>
       </c>
       <c r="T83">
-        <v>0.002590881793439621</v>
+        <v>0.009282590831500541</v>
       </c>
       <c r="U83">
-        <v>0.002547344428825589</v>
+        <v>0.002109345158154526</v>
       </c>
       <c r="V83">
-        <v>35.48612518188465</v>
+        <v>14.79482061534454</v>
       </c>
       <c r="W83">
-        <v>0.001127581619909482</v>
+        <v>0.5381175310477779</v>
       </c>
       <c r="X83">
-        <v>1.690459256410052E-06</v>
+        <v>3.892987006248621E-06</v>
       </c>
     </row>
     <row r="84" spans="1:24">
@@ -5598,61 +5598,61 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>3.658772209581514E-08</v>
+        <v>5.634476712572439E-06</v>
       </c>
       <c r="C84">
-        <v>11.28208164791353</v>
+        <v>0.1359373004709814</v>
       </c>
       <c r="D84">
-        <v>10.29690386106068</v>
+        <v>0.009338789788890998</v>
       </c>
       <c r="E84">
-        <v>11.28261881897752</v>
+        <v>0.1470132889754834</v>
       </c>
       <c r="F84">
-        <v>9.006727804472767</v>
+        <v>9.296731946986643</v>
       </c>
       <c r="K84">
-        <v>6.162238895928261</v>
+        <v>8.142499618763068</v>
       </c>
       <c r="L84">
-        <v>8.663865772338626</v>
+        <v>8.024034216852204</v>
       </c>
       <c r="M84">
-        <v>8.596636170592005</v>
+        <v>8.148835171634676</v>
       </c>
       <c r="N84">
-        <v>0.005261758471759192</v>
+        <v>0.04102762754951911</v>
       </c>
       <c r="O84">
-        <v>0.0005883310105325118</v>
+        <v>0.003229784360152043</v>
       </c>
       <c r="P84">
-        <v>0.0001941188190859005</v>
+        <v>0.03992294192776469</v>
       </c>
       <c r="Q84">
-        <v>0.0001729287956196945</v>
+        <v>0.003151200100434245</v>
       </c>
       <c r="R84">
-        <v>0.004628200908307453</v>
+        <v>1.795341427556076E-05</v>
       </c>
       <c r="S84">
-        <v>8.154275563626253E-05</v>
+        <v>0</v>
       </c>
       <c r="T84">
-        <v>0.002593300535918179</v>
+        <v>0.009681104480019765</v>
       </c>
       <c r="U84">
-        <v>0.002548883026492574</v>
+        <v>0.002231049451050063</v>
       </c>
       <c r="V84">
-        <v>35.48885138552684</v>
+        <v>14.99318703996283</v>
       </c>
       <c r="W84">
-        <v>0.001188653112647795</v>
+        <v>0.5978181368945883</v>
       </c>
       <c r="X84">
-        <v>1.691888055203587E-06</v>
+        <v>4.429781829336253E-06</v>
       </c>
     </row>
     <row r="85" spans="1:24">
@@ -5660,61 +5660,61 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>3.697323719380904E-08</v>
+        <v>5.478441466917937E-06</v>
       </c>
       <c r="C85">
-        <v>11.34003328243428</v>
+        <v>0.143384271687575</v>
       </c>
       <c r="D85">
-        <v>10.34031206683739</v>
+        <v>0.0101287135574169</v>
       </c>
       <c r="E85">
-        <v>11.34061246114714</v>
+        <v>0.1553133403483291</v>
       </c>
       <c r="F85">
-        <v>9.006692177608308</v>
+        <v>9.296696530711207</v>
       </c>
       <c r="K85">
-        <v>6.132187704429073</v>
+        <v>8.138703587634987</v>
       </c>
       <c r="L85">
-        <v>8.685186374618949</v>
+        <v>7.993214272986787</v>
       </c>
       <c r="M85">
-        <v>8.615078677752541</v>
+        <v>8.145433397183684</v>
       </c>
       <c r="N85">
-        <v>0.005536665969478409</v>
+        <v>0.04325103009007011</v>
       </c>
       <c r="O85">
-        <v>0.0006042785075243975</v>
+        <v>0.003469915624034244</v>
       </c>
       <c r="P85">
-        <v>0.0001953652910545008</v>
+        <v>0.04208598556466648</v>
       </c>
       <c r="Q85">
-        <v>0.0001738082458919934</v>
+        <v>0.003401408447398121</v>
       </c>
       <c r="R85">
-        <v>0.004895651387876347</v>
+        <v>1.900949746824081E-05</v>
       </c>
       <c r="S85">
-        <v>8.266095895508908E-05</v>
+        <v>0</v>
       </c>
       <c r="T85">
-        <v>0.002595913330590274</v>
+        <v>0.01011934301113563</v>
       </c>
       <c r="U85">
-        <v>0.002550583547626894</v>
+        <v>0.002370163187196383</v>
       </c>
       <c r="V85">
-        <v>35.49179632243486</v>
+        <v>15.21003429443718</v>
       </c>
       <c r="W85">
-        <v>0.00125669845656518</v>
+        <v>0.6606686442370417</v>
       </c>
       <c r="X85">
-        <v>1.693390614778546E-06</v>
+        <v>5.023721974867026E-06</v>
       </c>
     </row>
     <row r="86" spans="1:24">
@@ -5722,61 +5722,61 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>3.737494338441423E-08</v>
+        <v>5.305489834428398E-06</v>
       </c>
       <c r="C86">
-        <v>11.40251585840908</v>
+        <v>0.1517127440707098</v>
       </c>
       <c r="D86">
-        <v>10.38737242691294</v>
+        <v>0.01105966375303684</v>
       </c>
       <c r="E86">
-        <v>11.40314285173946</v>
+        <v>0.1645838228685083</v>
       </c>
       <c r="F86">
-        <v>9.006654532819933</v>
+        <v>9.296659127172427</v>
       </c>
       <c r="K86">
-        <v>6.100490281381631</v>
+        <v>8.134773243002133</v>
       </c>
       <c r="L86">
-        <v>8.709367044358054</v>
+        <v>7.961712208422162</v>
       </c>
       <c r="M86">
-        <v>8.63571605545842</v>
+        <v>8.141942751469603</v>
       </c>
       <c r="N86">
-        <v>0.00584494018585053</v>
+        <v>0.04573734974419733</v>
       </c>
       <c r="O86">
-        <v>0.0006225955528913566</v>
+        <v>0.003751084149576257</v>
       </c>
       <c r="P86">
-        <v>0.0001967126063771574</v>
+        <v>0.04450377163449572</v>
       </c>
       <c r="Q86">
-        <v>0.0001747556317521126</v>
+        <v>0.003694154590138665</v>
       </c>
       <c r="R86">
-        <v>0.005196463289683923</v>
+        <v>2.019759106000585E-05</v>
       </c>
       <c r="S86">
-        <v>8.365607120911844E-05</v>
+        <v>0</v>
       </c>
       <c r="T86">
-        <v>0.002598746442025483</v>
+        <v>0.01060366675013183</v>
       </c>
       <c r="U86">
-        <v>0.002552476038733712</v>
+        <v>0.002530796123906459</v>
       </c>
       <c r="V86">
-        <v>35.49498391603796</v>
+        <v>15.44825723793855</v>
       </c>
       <c r="W86">
-        <v>0.001332994603710123</v>
+        <v>0.7270631787296722</v>
       </c>
       <c r="X86">
-        <v>1.694975485930918E-06</v>
+        <v>5.685477599141598E-06</v>
       </c>
     </row>
     <row r="87" spans="1:24">
@@ -5784,61 +5784,61 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>3.779342353859818E-08</v>
+        <v>5.112941709759424E-06</v>
       </c>
       <c r="C87">
-        <v>11.47019208717549</v>
+        <v>0.161089616091888</v>
       </c>
       <c r="D87">
-        <v>10.43865869293067</v>
+        <v>0.01217158834652571</v>
       </c>
       <c r="E87">
-        <v>11.47087389218969</v>
+        <v>0.1749989607457226</v>
       </c>
       <c r="F87">
-        <v>9.00661458041016</v>
+        <v>9.296619453489322</v>
       </c>
       <c r="K87">
-        <v>6.06694394977719</v>
+        <v>8.130688548805502</v>
       </c>
       <c r="L87">
-        <v>8.736947477285566</v>
+        <v>7.929815011581328</v>
       </c>
       <c r="M87">
-        <v>8.658985487707684</v>
+        <v>8.138349283780119</v>
       </c>
       <c r="N87">
-        <v>0.006193096494714475</v>
+        <v>0.04853643411717207</v>
       </c>
       <c r="O87">
-        <v>0.0006438564033224643</v>
+        <v>0.004084640586880703</v>
       </c>
       <c r="P87">
-        <v>0.0001981764046854938</v>
+        <v>0.04722441277078619</v>
       </c>
       <c r="Q87">
-        <v>0.0001757803197436642</v>
+        <v>0.004041112777194713</v>
       </c>
       <c r="R87">
-        <v>0.00553731710424891</v>
+        <v>2.15440971306729E-05</v>
       </c>
       <c r="S87">
-        <v>8.447431033594506E-05</v>
+        <v>0</v>
       </c>
       <c r="T87">
-        <v>0.002601831135578268</v>
+        <v>0.01114185812521352</v>
       </c>
       <c r="U87">
-        <v>0.002554598752507547</v>
+        <v>0.002718426807526509</v>
       </c>
       <c r="V87">
-        <v>35.49844320912337</v>
+        <v>15.71150864215151</v>
       </c>
       <c r="W87">
-        <v>0.001419153227217569</v>
+        <v>0.7974545175564458</v>
       </c>
       <c r="X87">
-        <v>1.69665280251114E-06</v>
+        <v>6.428463908513078E-06</v>
       </c>
     </row>
     <row r="88" spans="1:24">
@@ -5846,61 +5846,61 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>4.696635903279513E-08</v>
+        <v>9.506355813660929E-06</v>
       </c>
       <c r="C88">
-        <v>11.54387304390726</v>
+        <v>0.1717266180736996</v>
       </c>
       <c r="D88">
-        <v>10.28110481421649</v>
+        <v>0.00729909692470481</v>
       </c>
       <c r="E88">
-        <v>11.54449063305032</v>
+        <v>0.1888475335668874</v>
       </c>
       <c r="F88">
-        <v>14.20661458041016</v>
+        <v>14.49661945348932</v>
       </c>
       <c r="K88">
-        <v>6.031244878888605</v>
+        <v>8.126435421939131</v>
       </c>
       <c r="L88">
-        <v>8.774299150439974</v>
+        <v>7.902979532105239</v>
       </c>
       <c r="M88">
-        <v>8.6850777295406</v>
+        <v>8.133935621482721</v>
       </c>
       <c r="N88">
-        <v>0.006589470786956762</v>
+        <v>0.0517115622264786</v>
       </c>
       <c r="O88">
-        <v>0.0006648634117215762</v>
+        <v>0.002730655059102239</v>
       </c>
       <c r="P88">
-        <v>0.0001997761250384816</v>
+        <v>0.05030893419889988</v>
       </c>
       <c r="Q88">
-        <v>0.0001733125487053213</v>
+        <v>0.002706469224990577</v>
       </c>
       <c r="R88">
-        <v>0.005926805875242694</v>
+        <v>2.308296121143526E-05</v>
       </c>
       <c r="S88">
-        <v>8.337975729325836E-05</v>
+        <v>0</v>
       </c>
       <c r="T88">
-        <v>0.002605204877226177</v>
+        <v>0.01174353179076259</v>
       </c>
       <c r="U88">
-        <v>0.002545770630496351</v>
+        <v>0.001944738926231449</v>
       </c>
       <c r="V88">
-        <v>35.50040124469533</v>
+        <v>15.84410896920068</v>
       </c>
       <c r="W88">
-        <v>0.001517239339758464</v>
+        <v>0.8724089249909355</v>
       </c>
       <c r="X88">
-        <v>1.69843775605557E-06</v>
+        <v>7.271381817283063E-06</v>
       </c>
     </row>
     <row r="89" spans="1:24">
@@ -5908,61 +5908,61 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>4.733986711390174E-08</v>
+        <v>9.219688181349677E-06</v>
       </c>
       <c r="C89">
-        <v>11.64100906157578</v>
+        <v>0.1843748889313146</v>
       </c>
       <c r="D89">
-        <v>10.35864594884065</v>
+        <v>0.008096234260270429</v>
       </c>
       <c r="E89">
-        <v>11.64168342319458</v>
+        <v>0.2033991000971455</v>
       </c>
       <c r="F89">
-        <v>14.20532491053986</v>
+        <v>14.49533181159791</v>
       </c>
       <c r="K89">
-        <v>5.993283346855189</v>
+        <v>8.121010812075108</v>
       </c>
       <c r="L89">
-        <v>8.809767190774579</v>
+        <v>7.839697461205327</v>
       </c>
       <c r="M89">
-        <v>8.714963286209656</v>
+        <v>8.128483728305651</v>
       </c>
       <c r="N89">
-        <v>0.007045209815821006</v>
+        <v>0.05547932431627677</v>
       </c>
       <c r="O89">
-        <v>0.0006944138554687609</v>
+        <v>0.002988860084635475</v>
       </c>
       <c r="P89">
-        <v>0.000201811784756417</v>
+        <v>0.05397066227381597</v>
       </c>
       <c r="Q89">
-        <v>0.0001747787287022168</v>
+        <v>0.002988634920660356</v>
       </c>
       <c r="R89">
-        <v>0.006376300192008035</v>
+        <v>2.485857361231489E-05</v>
       </c>
       <c r="S89">
-        <v>8.367929811387515E-05</v>
+        <v>0</v>
       </c>
       <c r="T89">
-        <v>0.00260977674235924</v>
+        <v>0.01249728508803422</v>
       </c>
       <c r="U89">
-        <v>0.002549346923897162</v>
+        <v>0.002099407585468041</v>
       </c>
       <c r="V89">
-        <v>35.50288418226383</v>
+        <v>15.9983213636415</v>
       </c>
       <c r="W89">
-        <v>0.001629957503218675</v>
+        <v>0.9487080322561354</v>
       </c>
       <c r="X89">
-        <v>1.70033583265724E-06</v>
+        <v>8.215265349747024E-06</v>
       </c>
     </row>
     <row r="90" spans="1:24">
@@ -5970,61 +5970,61 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>4.772499571530091E-08</v>
+        <v>8.889828808468556E-06</v>
       </c>
       <c r="C90">
-        <v>11.74787265430371</v>
+        <v>0.1990647768205683</v>
       </c>
       <c r="D90">
-        <v>10.44442674958518</v>
+        <v>0.009081035055015139</v>
       </c>
       <c r="E90">
-        <v>11.74861362000047</v>
+        <v>0.2203025082177217</v>
       </c>
       <c r="F90">
-        <v>14.20528325823707</v>
+        <v>14.49529038784247</v>
       </c>
       <c r="K90">
-        <v>5.952575461805534</v>
+        <v>8.115316142992089</v>
       </c>
       <c r="L90">
-        <v>8.851332634656439</v>
+        <v>7.784133915065733</v>
       </c>
       <c r="M90">
-        <v>8.749725245937558</v>
+        <v>8.123098855496677</v>
       </c>
       <c r="N90">
-        <v>0.007574442812517027</v>
+        <v>0.05985352966891355</v>
       </c>
       <c r="O90">
-        <v>0.0007302735790581068</v>
+        <v>0.003297567135256206</v>
       </c>
       <c r="P90">
-        <v>0.0002040645394276004</v>
+        <v>0.05821916455324561</v>
       </c>
       <c r="Q90">
-        <v>0.0001763843451058236</v>
+        <v>0.003322526582588116</v>
       </c>
       <c r="R90">
-        <v>0.006900685266499215</v>
+        <v>2.693012141334113E-05</v>
       </c>
       <c r="S90">
-        <v>8.351770704038573E-05</v>
+        <v>0</v>
       </c>
       <c r="T90">
-        <v>0.002614812560564414</v>
+        <v>0.01336377487991473</v>
       </c>
       <c r="U90">
-        <v>0.002553444424483699</v>
+        <v>0.002286301371760316</v>
       </c>
       <c r="V90">
-        <v>35.5059563805692</v>
+        <v>16.17849043281108</v>
       </c>
       <c r="W90">
-        <v>0.001760860248761471</v>
+        <v>1.030670135526858</v>
       </c>
       <c r="X90">
-        <v>1.702371226909723E-06</v>
+        <v>9.308869130528607E-06</v>
       </c>
     </row>
     <row r="91" spans="1:24">
@@ -6032,61 +6032,61 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>4.81163613259247E-08</v>
+        <v>8.505178470971541E-06</v>
       </c>
       <c r="C91">
-        <v>11.86636773655085</v>
+        <v>0.2163360260719822</v>
       </c>
       <c r="D91">
-        <v>10.54024324254134</v>
+        <v>0.01032751191072946</v>
       </c>
       <c r="E91">
-        <v>11.867187649452</v>
+        <v>0.2401478467140742</v>
       </c>
       <c r="F91">
-        <v>14.20523795563361</v>
+        <v>14.49524536116437</v>
       </c>
       <c r="K91">
-        <v>5.908664786850962</v>
+        <v>8.109255117005322</v>
       </c>
       <c r="L91">
-        <v>8.900319809086788</v>
+        <v>7.729991041887017</v>
       </c>
       <c r="M91">
-        <v>8.790716616363492</v>
+        <v>8.117391872727604</v>
       </c>
       <c r="N91">
-        <v>0.008196640015558749</v>
+        <v>0.06499498080833695</v>
       </c>
       <c r="O91">
-        <v>0.000774492574419928</v>
+        <v>0.003683440025623946</v>
       </c>
       <c r="P91">
-        <v>0.0002065809207295801</v>
+        <v>0.06320976800512358</v>
       </c>
       <c r="Q91">
-        <v>0.0001781554176691242</v>
+        <v>0.003738998633271318</v>
       </c>
       <c r="R91">
-        <v>0.007520427771904564</v>
+        <v>2.937831426909942E-05</v>
       </c>
       <c r="S91">
-        <v>8.271927025633057E-05</v>
+        <v>0</v>
       </c>
       <c r="T91">
-        <v>0.002620391482026297</v>
+        <v>0.01437081792611059</v>
       </c>
       <c r="U91">
-        <v>0.002558208721681167</v>
+        <v>0.002516303499127986</v>
       </c>
       <c r="V91">
-        <v>35.50970200300148</v>
+        <v>16.39046196496076</v>
       </c>
       <c r="W91">
-        <v>0.001914773944690493</v>
+        <v>1.119180789459385</v>
       </c>
       <c r="X91">
-        <v>1.704566760657452E-06</v>
+        <v>1.05923949289695E-05</v>
       </c>
     </row>
     <row r="92" spans="1:24">
@@ -6094,61 +6094,61 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>4.850832278925452E-08</v>
+        <v>8.051958255320389E-06</v>
       </c>
       <c r="C92">
-        <v>11.99898018595181</v>
+        <v>0.2369368774881076</v>
       </c>
       <c r="D92">
-        <v>10.64841235819551</v>
+        <v>0.0119512822507923</v>
       </c>
       <c r="E92">
-        <v>11.9998948905462</v>
+        <v>0.2637336626299945</v>
       </c>
       <c r="F92">
-        <v>14.20518821866498</v>
+        <v>14.49519596321249</v>
       </c>
       <c r="K92">
-        <v>5.860968748690776</v>
+        <v>8.102761122832769</v>
       </c>
       <c r="L92">
-        <v>8.958713673020492</v>
+        <v>7.679085519200359</v>
       </c>
       <c r="M92">
-        <v>8.839876054756264</v>
+        <v>8.111319049062105</v>
       </c>
       <c r="N92">
-        <v>0.008938854759672632</v>
+        <v>0.07112613488660825</v>
       </c>
       <c r="O92">
-        <v>0.0008302880408873318</v>
+        <v>0.004179430556818865</v>
       </c>
       <c r="P92">
-        <v>0.0002094234710356257</v>
+        <v>0.06915684494230882</v>
       </c>
       <c r="Q92">
-        <v>0.0001801211906865019</v>
+        <v>0.004272568806597508</v>
       </c>
       <c r="R92">
-        <v>0.008264198622069388</v>
+        <v>3.231614569600937E-05</v>
       </c>
       <c r="S92">
-        <v>8.10385881914268E-05</v>
+        <v>0</v>
       </c>
       <c r="T92">
-        <v>0.00262660975806081</v>
+        <v>0.01555626936880886</v>
       </c>
       <c r="U92">
-        <v>0.002563842981324933</v>
+        <v>0.002806790321380441</v>
       </c>
       <c r="V92">
-        <v>35.51423279430195</v>
+        <v>16.64250017625637</v>
       </c>
       <c r="W92">
-        <v>0.002098409802659196</v>
+        <v>1.215496534117705</v>
       </c>
       <c r="X92">
-        <v>1.706951562565461E-06</v>
+        <v>1.212272455854431E-05</v>
       </c>
     </row>
     <row r="93" spans="1:24">
@@ -6156,61 +6156,61 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>4.889115198600109E-08</v>
+        <v>7.511996427886096E-06</v>
       </c>
       <c r="C93">
-        <v>12.14904327792473</v>
+        <v>0.2619352769589204</v>
       </c>
       <c r="D93">
-        <v>10.77210254229326</v>
+        <v>0.01414491501298967</v>
       </c>
       <c r="E93">
-        <v>12.15007350672038</v>
+        <v>0.2921578690954878</v>
       </c>
       <c r="F93">
-        <v>14.20513298810096</v>
+        <v>14.49514115803702</v>
       </c>
       <c r="K93">
-        <v>5.808725179065708</v>
+        <v>8.095737907552927</v>
       </c>
       <c r="L93">
-        <v>9.029296411068799</v>
+        <v>7.633328680303856</v>
       </c>
       <c r="M93">
-        <v>8.900075890600032</v>
+        <v>8.104816442036642</v>
       </c>
       <c r="N93">
-        <v>0.009839806617315443</v>
+        <v>0.07856465758991819</v>
       </c>
       <c r="O93">
-        <v>0.0009026709041815238</v>
+        <v>0.004840055884270163</v>
       </c>
       <c r="P93">
-        <v>0.0002126792799633062</v>
+        <v>0.07636620895738787</v>
       </c>
       <c r="Q93">
-        <v>0.0001823163745835099</v>
+        <v>0.004979986706146963</v>
       </c>
       <c r="R93">
-        <v>0.009173438625833606</v>
+        <v>3.590682855112153E-05</v>
       </c>
       <c r="S93">
-        <v>7.813558592890648E-05</v>
+        <v>0</v>
       </c>
       <c r="T93">
-        <v>0.002633583844364797</v>
+        <v>0.01697287815185646</v>
       </c>
       <c r="U93">
-        <v>0.002570646439438052</v>
+        <v>0.003185896853840958</v>
       </c>
       <c r="V93">
-        <v>35.51970121243961</v>
+        <v>16.9467947484619</v>
       </c>
       <c r="W93">
-        <v>0.002321379691742538</v>
+        <v>1.321271939578534</v>
       </c>
       <c r="X93">
-        <v>1.709563741046714E-06</v>
+        <v>1.398195032688075E-05</v>
       </c>
     </row>
     <row r="94" spans="1:24">
@@ -6218,61 +6218,61 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>4.924799828984931E-08</v>
+        <v>6.861411065523129E-06</v>
       </c>
       <c r="C94">
-        <v>12.32116086987866</v>
+        <v>0.2929090722021618</v>
       </c>
       <c r="D94">
-        <v>10.91579103100398</v>
+        <v>0.01725180106215734</v>
       </c>
       <c r="E94">
-        <v>12.32233435394286</v>
+        <v>0.3269632053219429</v>
       </c>
       <c r="F94">
-        <v>14.20507078680208</v>
+        <v>14.49507950448833</v>
       </c>
       <c r="K94">
-        <v>5.750907888512475</v>
+        <v>8.088056015463104</v>
       </c>
       <c r="L94">
-        <v>9.116128294720056</v>
+        <v>7.59503776802241</v>
       </c>
       <c r="M94">
-        <v>8.975779846167464</v>
+        <v>8.097812787037055</v>
       </c>
       <c r="N94">
-        <v>0.01095694858145719</v>
+        <v>0.08778023280312421</v>
       </c>
       <c r="O94">
-        <v>0.0009997843027547716</v>
+        <v>0.005761890210475394</v>
       </c>
       <c r="P94">
-        <v>0.0002164746431357807</v>
+        <v>0.085289486738793</v>
       </c>
       <c r="Q94">
-        <v>0.0001847792417398812</v>
+        <v>0.00596096879061352</v>
       </c>
       <c r="R94">
-        <v>0.0103103515058217</v>
+        <v>4.039518212001173E-05</v>
       </c>
       <c r="S94">
-        <v>7.354141236061544E-05</v>
+        <v>0</v>
       </c>
       <c r="T94">
-        <v>0.00264145101998064</v>
+        <v>0.0186962508141084</v>
       </c>
       <c r="U94">
-        <v>0.002579078447661148</v>
+        <v>0.003702233458768872</v>
       </c>
       <c r="V94">
-        <v>35.52632236209273</v>
+        <v>17.32233451450866</v>
       </c>
       <c r="W94">
-        <v>0.002597956911773569</v>
+        <v>1.438781538171416</v>
       </c>
       <c r="X94">
-        <v>1.712454605574376E-06</v>
+        <v>1.629329974223745E-05</v>
       </c>
     </row>
     <row r="95" spans="1:24">
@@ -6280,61 +6280,61 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>4.954548131991543E-08</v>
+        <v>6.067990803897875E-06</v>
       </c>
       <c r="C95">
-        <v>12.52192798971791</v>
+        <v>0.3322886823650197</v>
       </c>
       <c r="D95">
-        <v>11.08615795551974</v>
+        <v>0.02194547774567521</v>
       </c>
       <c r="E95">
-        <v>12.52328258109493</v>
+        <v>0.3703624247574562</v>
       </c>
       <c r="F95">
-        <v>14.20279183972963</v>
+        <v>14.49280753686168</v>
       </c>
       <c r="K95">
-        <v>5.686086220615792</v>
+        <v>8.079536941565058</v>
       </c>
       <c r="L95">
-        <v>9.225455256441917</v>
+        <v>7.567386455968402</v>
       </c>
       <c r="M95">
-        <v>9.074384015210295</v>
+        <v>8.090228031101512</v>
       </c>
       <c r="N95">
-        <v>0.01237940062127182</v>
+        <v>0.09949713888778833</v>
       </c>
       <c r="O95">
-        <v>0.001135486879103769</v>
+        <v>0.007133199246024143</v>
       </c>
       <c r="P95">
-        <v>0.0002210025576209093</v>
+        <v>0.09662213215996152</v>
       </c>
       <c r="Q95">
-        <v>0.0001875477290826195</v>
+        <v>0.007408313300404073</v>
       </c>
       <c r="R95">
-        <v>0.01177275294774471</v>
+        <v>4.616592242287056E-05</v>
       </c>
       <c r="S95">
-        <v>6.66211277240953E-05</v>
+        <v>0</v>
       </c>
       <c r="T95">
-        <v>0.002650361387454854</v>
+        <v>0.02083825329344262</v>
       </c>
       <c r="U95">
-        <v>0.00258988147642102</v>
+        <v>0.004447558560424903</v>
       </c>
       <c r="V95">
-        <v>35.53441286213573</v>
+        <v>17.80097715786616</v>
       </c>
       <c r="W95">
-        <v>0.002950294731808782</v>
+        <v>1.571279797064136</v>
       </c>
       <c r="X95">
-        <v>1.71569568896921E-06</v>
+        <v>1.925054067132606E-05</v>
       </c>
     </row>
     <row r="96" spans="1:24">
@@ -6342,61 +6342,61 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>4.973567504375127E-08</v>
+        <v>5.09978170817801E-06</v>
       </c>
       <c r="C96">
-        <v>12.7612229954176</v>
+        <v>0.3840125498015772</v>
       </c>
       <c r="D96">
-        <v>11.293225395055</v>
+        <v>0.02967939014602256</v>
       </c>
       <c r="E96">
-        <v>12.76281249197885</v>
+        <v>0.425698257170001</v>
       </c>
       <c r="F96">
-        <v>14.2025937497335</v>
+        <v>14.49261183883011</v>
       </c>
       <c r="K96">
-        <v>5.61217629751739</v>
+        <v>8.069916725543759</v>
       </c>
       <c r="L96">
-        <v>9.367538500037037</v>
+        <v>7.554880081341466</v>
       </c>
       <c r="M96">
-        <v>9.209260976169245</v>
+        <v>8.08197821506362</v>
       </c>
       <c r="N96">
-        <v>0.0142533862449665</v>
+        <v>0.1148911288280824</v>
       </c>
       <c r="O96">
-        <v>0.001334346534485341</v>
+        <v>0.0093581790035437</v>
       </c>
       <c r="P96">
-        <v>0.0002265783623772909</v>
+        <v>0.1114911019698878</v>
       </c>
       <c r="Q96">
-        <v>0.000190645160376563</v>
+        <v>0.009733071554893103</v>
       </c>
       <c r="R96">
-        <v>0.01372377491774815</v>
+        <v>5.386024282668233E-05</v>
       </c>
       <c r="S96">
-        <v>5.656022995782478E-05</v>
+        <v>0</v>
       </c>
       <c r="T96">
-        <v>0.00266044137262716</v>
+        <v>0.02357003574894558</v>
       </c>
       <c r="U96">
-        <v>0.002604284645226068</v>
+        <v>0.00560937951655109</v>
       </c>
       <c r="V96">
-        <v>35.54445727584233</v>
+        <v>18.44089336048228</v>
       </c>
       <c r="W96">
-        <v>0.003414761357221206</v>
+        <v>1.723660271621554</v>
       </c>
       <c r="X96">
-        <v>1.71939118512413E-06</v>
+        <v>2.317682453962873E-05</v>
       </c>
     </row>
     <row r="97" spans="1:24">
@@ -6404,19 +6404,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>4.970804395885978E-08</v>
+        <v>3.929307537114684E-06</v>
       </c>
       <c r="C97">
-        <v>13.0548225154901</v>
+        <v>0.4548791817326872</v>
       </c>
       <c r="D97">
-        <v>11.55403403031284</v>
+        <v>0.04416948513458575</v>
       </c>
       <c r="E97">
-        <v>13.05672485051418</v>
+        <v>0.4982654842183188</v>
       </c>
       <c r="F97">
-        <v>14.20235378181996</v>
+        <v>14.49237538186669</v>
       </c>
       <c r="K97">
         <v>0</v>
@@ -6428,31 +6428,31 @@
         <v>0</v>
       </c>
       <c r="N97">
-        <v>0.0168371941870627</v>
+        <v>0.1359977187929899</v>
       </c>
       <c r="O97">
         <v>0</v>
       </c>
       <c r="P97">
-        <v>0.0002337650027774361</v>
+        <v>0.1318427080528865</v>
       </c>
       <c r="Q97">
         <v>0</v>
       </c>
       <c r="R97">
-        <v>0.01645721785530618</v>
+        <v>6.463229139201868E-05</v>
       </c>
       <c r="S97">
         <v>0</v>
       </c>
       <c r="T97">
-        <v>0.002671672718107373</v>
+        <v>0.02716216699542443</v>
       </c>
       <c r="U97">
         <v>0</v>
       </c>
       <c r="V97">
-        <v>35.17420251255231</v>
+        <v>18.24880072131059</v>
       </c>
       <c r="W97">
         <v>0</v>
